--- a/IRCS2-devbuild/source/test_file.xlsx
+++ b/IRCS2-devbuild/source/test_file.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="192">
   <si>
     <t>Items</t>
   </si>
@@ -76,9 +76,6 @@
     <t>AAOP_USD</t>
   </si>
   <si>
-    <t>ANSSP_IDR</t>
-  </si>
-  <si>
     <t>ARPL2_IDR</t>
   </si>
   <si>
@@ -370,9 +367,6 @@
     <t>MYWAR_IDR</t>
   </si>
   <si>
-    <t>NASPP_IDR</t>
-  </si>
-  <si>
     <t>NHM1_IDR</t>
   </si>
   <si>
@@ -382,9 +376,6 @@
     <t>NHM3_IDR</t>
   </si>
   <si>
-    <t>NSFAP_IDR</t>
-  </si>
-  <si>
     <t>OPCI_IDR</t>
   </si>
   <si>
@@ -392,9 +383,6 @@
   </si>
   <si>
     <t>RAPOA_IDR</t>
-  </si>
-  <si>
-    <t>RASPP_IDR</t>
   </si>
   <si>
     <t>RASP_IDR</t>
@@ -1017,7 +1005,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:U190"/>
+  <dimension ref="B1:U186"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="4" ySplit="10" topLeftCell="E11" activePane="bottomRight" state="frozen"/>
@@ -1152,16 +1140,16 @@
         <v>-41467192867.17773</v>
       </c>
       <c r="Q3" s="5">
-        <v>-0.001332162030771325</v>
+        <v>-0.0007795105771367107</v>
       </c>
       <c r="R3" s="5">
-        <v>-4.408165489303357E-12</v>
+        <v>-2.588722277828891E-12</v>
       </c>
       <c r="S3" s="5">
-        <v>-8.181009343801613E-11</v>
+        <v>-4.907545763686941E-11</v>
       </c>
       <c r="T3" s="5">
-        <v>-6.824004806181132E-11</v>
+        <v>-3.816832748295808E-11</v>
       </c>
     </row>
     <row r="4" spans="2:21">
@@ -1570,52 +1558,52 @@
         <v>20</v>
       </c>
       <c r="E15" s="4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F15" s="4">
-        <v>0</v>
+        <v>307500000</v>
       </c>
       <c r="G15" s="4">
-        <v>0</v>
+        <v>13500000000</v>
       </c>
       <c r="H15" s="4">
-        <v>0</v>
+        <v>125688192.204822</v>
       </c>
       <c r="I15" s="4">
-        <v>89</v>
+        <v>0</v>
       </c>
       <c r="J15" s="4">
-        <v>6123000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="4">
-        <v>56165000000</v>
+        <v>0</v>
       </c>
       <c r="L15" s="4">
-        <v>14121211655.33989</v>
+        <v>0</v>
       </c>
       <c r="M15" s="4">
-        <v>-89</v>
+        <v>4</v>
       </c>
       <c r="N15" s="4">
-        <v>-6123000000</v>
+        <v>307500000</v>
       </c>
       <c r="O15" s="4">
-        <v>-56165000000</v>
+        <v>13500000000</v>
       </c>
       <c r="P15" s="4">
-        <v>-14121211655.33989</v>
+        <v>125688192.204822</v>
       </c>
       <c r="Q15" s="8">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R15" s="8">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S15" s="8">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T15" s="8">
-        <v>-100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="2:21">
@@ -1623,52 +1611,52 @@
         <v>21</v>
       </c>
       <c r="E16" s="4">
-        <v>4</v>
+        <v>201</v>
       </c>
       <c r="F16" s="4">
-        <v>307500000</v>
+        <v>8500999992</v>
       </c>
       <c r="G16" s="4">
-        <v>13500000000</v>
+        <v>131120000000</v>
       </c>
       <c r="H16" s="4">
-        <v>125688192.204822</v>
+        <v>11102844976.84478</v>
       </c>
       <c r="I16" s="4">
-        <v>0</v>
+        <v>239</v>
       </c>
       <c r="J16" s="4">
-        <v>0</v>
+        <v>12555299996</v>
       </c>
       <c r="K16" s="4">
-        <v>0</v>
+        <v>219120000000</v>
       </c>
       <c r="L16" s="4">
-        <v>0</v>
+        <v>15373032777.8586</v>
       </c>
       <c r="M16" s="4">
-        <v>4</v>
+        <v>-38</v>
       </c>
       <c r="N16" s="4">
-        <v>307500000</v>
+        <v>-4054300004</v>
       </c>
       <c r="O16" s="4">
-        <v>13500000000</v>
+        <v>-88000000000</v>
       </c>
       <c r="P16" s="4">
-        <v>125688192.204822</v>
+        <v>-4270187801.013819</v>
       </c>
       <c r="Q16" s="8">
-        <v>0</v>
+        <v>-15.9</v>
       </c>
       <c r="R16" s="8">
-        <v>0</v>
+        <v>-32.3</v>
       </c>
       <c r="S16" s="8">
-        <v>0</v>
+        <v>-40.2</v>
       </c>
       <c r="T16" s="8">
-        <v>0</v>
+        <v>-27.8</v>
       </c>
     </row>
     <row r="17" spans="4:20">
@@ -1676,52 +1664,52 @@
         <v>22</v>
       </c>
       <c r="E17" s="4">
-        <v>201</v>
+        <v>34</v>
       </c>
       <c r="F17" s="4">
-        <v>8500999992</v>
+        <v>3746800004</v>
       </c>
       <c r="G17" s="4">
-        <v>131120000000</v>
+        <v>74500000000</v>
       </c>
       <c r="H17" s="4">
-        <v>11102844976.84478</v>
+        <v>4144499607.084072</v>
       </c>
       <c r="I17" s="4">
-        <v>239</v>
+        <v>0</v>
       </c>
       <c r="J17" s="4">
-        <v>12555299996</v>
+        <v>0</v>
       </c>
       <c r="K17" s="4">
-        <v>219120000000</v>
+        <v>0</v>
       </c>
       <c r="L17" s="4">
-        <v>15373032777.8586</v>
+        <v>0</v>
       </c>
       <c r="M17" s="4">
-        <v>-38</v>
+        <v>34</v>
       </c>
       <c r="N17" s="4">
-        <v>-4054300004</v>
+        <v>3746800004</v>
       </c>
       <c r="O17" s="4">
-        <v>-88000000000</v>
+        <v>74500000000</v>
       </c>
       <c r="P17" s="4">
-        <v>-4270187801.013819</v>
+        <v>4144499607.084072</v>
       </c>
       <c r="Q17" s="8">
-        <v>-15.9</v>
+        <v>0</v>
       </c>
       <c r="R17" s="8">
-        <v>-32.3</v>
+        <v>0</v>
       </c>
       <c r="S17" s="8">
-        <v>-40.2</v>
+        <v>0</v>
       </c>
       <c r="T17" s="8">
-        <v>-27.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="4:20">
@@ -1729,52 +1717,52 @@
         <v>23</v>
       </c>
       <c r="E18" s="4">
-        <v>34</v>
+        <v>216</v>
       </c>
       <c r="F18" s="4">
-        <v>3746800004</v>
+        <v>5853815376</v>
       </c>
       <c r="G18" s="4">
-        <v>74500000000</v>
+        <v>91524088900</v>
       </c>
       <c r="H18" s="4">
-        <v>4144499607.084072</v>
+        <v>2348880910</v>
       </c>
       <c r="I18" s="4">
-        <v>0</v>
+        <v>1115</v>
       </c>
       <c r="J18" s="4">
-        <v>0</v>
+        <v>27250764615</v>
       </c>
       <c r="K18" s="4">
-        <v>0</v>
+        <v>393808574317</v>
       </c>
       <c r="L18" s="4">
-        <v>0</v>
+        <v>5389828288.032188</v>
       </c>
       <c r="M18" s="4">
-        <v>34</v>
+        <v>-899</v>
       </c>
       <c r="N18" s="4">
-        <v>3746800004</v>
+        <v>-21396949239</v>
       </c>
       <c r="O18" s="4">
-        <v>74500000000</v>
+        <v>-302284485417</v>
       </c>
       <c r="P18" s="4">
-        <v>4144499607.084072</v>
+        <v>-3040947378.032188</v>
       </c>
       <c r="Q18" s="8">
-        <v>0</v>
+        <v>-80.59999999999999</v>
       </c>
       <c r="R18" s="8">
-        <v>0</v>
+        <v>-78.5</v>
       </c>
       <c r="S18" s="8">
-        <v>0</v>
+        <v>-76.8</v>
       </c>
       <c r="T18" s="8">
-        <v>0</v>
+        <v>-56.4</v>
       </c>
     </row>
     <row r="19" spans="4:20">
@@ -1782,52 +1770,52 @@
         <v>24</v>
       </c>
       <c r="E19" s="4">
-        <v>216</v>
+        <v>402</v>
       </c>
       <c r="F19" s="4">
-        <v>5853815376</v>
+        <v>657168000</v>
       </c>
       <c r="G19" s="4">
-        <v>91524088900</v>
+        <v>21661800000</v>
       </c>
       <c r="H19" s="4">
-        <v>2348880910</v>
+        <v>4434482118.637165</v>
       </c>
       <c r="I19" s="4">
-        <v>1115</v>
+        <v>402</v>
       </c>
       <c r="J19" s="4">
-        <v>27250764615</v>
+        <v>657168000</v>
       </c>
       <c r="K19" s="4">
-        <v>393808574317</v>
+        <v>21661800000</v>
       </c>
       <c r="L19" s="4">
-        <v>5389828288.032188</v>
+        <v>4434482120.934151</v>
       </c>
       <c r="M19" s="4">
-        <v>-899</v>
+        <v>0</v>
       </c>
       <c r="N19" s="4">
-        <v>-21396949239</v>
+        <v>0</v>
       </c>
       <c r="O19" s="4">
-        <v>-302284485417</v>
+        <v>0</v>
       </c>
       <c r="P19" s="4">
-        <v>-3040947378.032188</v>
+        <v>-2.296985626220703</v>
       </c>
       <c r="Q19" s="8">
-        <v>-80.59999999999999</v>
+        <v>0</v>
       </c>
       <c r="R19" s="8">
-        <v>-78.5</v>
+        <v>0</v>
       </c>
       <c r="S19" s="8">
-        <v>-76.8</v>
+        <v>0</v>
       </c>
       <c r="T19" s="8">
-        <v>-56.4</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="20" spans="4:20">
@@ -1835,28 +1823,28 @@
         <v>25</v>
       </c>
       <c r="E20" s="4">
-        <v>402</v>
+        <v>14</v>
       </c>
       <c r="F20" s="4">
-        <v>657168000</v>
+        <v>2625000000</v>
       </c>
       <c r="G20" s="4">
-        <v>21661800000</v>
+        <v>5250000000</v>
       </c>
       <c r="H20" s="4">
-        <v>4434482118.637165</v>
+        <v>874698204.773458</v>
       </c>
       <c r="I20" s="4">
-        <v>402</v>
+        <v>14</v>
       </c>
       <c r="J20" s="4">
-        <v>657168000</v>
+        <v>2625000000</v>
       </c>
       <c r="K20" s="4">
-        <v>21661800000</v>
+        <v>5250000000</v>
       </c>
       <c r="L20" s="4">
-        <v>4434482120.934151</v>
+        <v>874698206.611524</v>
       </c>
       <c r="M20" s="4">
         <v>0</v>
@@ -1868,7 +1856,7 @@
         <v>0</v>
       </c>
       <c r="P20" s="4">
-        <v>-2.296985626220703</v>
+        <v>-1.838065981864929</v>
       </c>
       <c r="Q20" s="8">
         <v>0</v>
@@ -1888,28 +1876,28 @@
         <v>26</v>
       </c>
       <c r="E21" s="4">
-        <v>14</v>
+        <v>63</v>
       </c>
       <c r="F21" s="4">
-        <v>2625000000</v>
+        <v>2258000000</v>
       </c>
       <c r="G21" s="4">
-        <v>5250000000</v>
+        <v>3756000000</v>
       </c>
       <c r="H21" s="4">
-        <v>874698204.773458</v>
+        <v>1867319166.139408</v>
       </c>
       <c r="I21" s="4">
-        <v>14</v>
+        <v>63</v>
       </c>
       <c r="J21" s="4">
-        <v>2625000000</v>
+        <v>2258000000</v>
       </c>
       <c r="K21" s="4">
-        <v>5250000000</v>
+        <v>3756000000</v>
       </c>
       <c r="L21" s="4">
-        <v>874698206.611524</v>
+        <v>1867319167.324681</v>
       </c>
       <c r="M21" s="4">
         <v>0</v>
@@ -1921,7 +1909,7 @@
         <v>0</v>
       </c>
       <c r="P21" s="4">
-        <v>-1.838065981864929</v>
+        <v>-1.185272932052612</v>
       </c>
       <c r="Q21" s="8">
         <v>0</v>
@@ -1941,28 +1929,28 @@
         <v>27</v>
       </c>
       <c r="E22" s="4">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="F22" s="4">
-        <v>2258000000</v>
+        <v>463800000</v>
       </c>
       <c r="G22" s="4">
-        <v>3756000000</v>
+        <v>13997000000</v>
       </c>
       <c r="H22" s="4">
-        <v>1867319166.139408</v>
+        <v>1926216797.138243</v>
       </c>
       <c r="I22" s="4">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="J22" s="4">
-        <v>2258000000</v>
+        <v>463800000</v>
       </c>
       <c r="K22" s="4">
-        <v>3756000000</v>
+        <v>13997000000</v>
       </c>
       <c r="L22" s="4">
-        <v>1867319167.324681</v>
+        <v>1926216798.564486</v>
       </c>
       <c r="M22" s="4">
         <v>0</v>
@@ -1974,7 +1962,7 @@
         <v>0</v>
       </c>
       <c r="P22" s="4">
-        <v>-1.185272932052612</v>
+        <v>-1.42624306678772</v>
       </c>
       <c r="Q22" s="8">
         <v>0</v>
@@ -1994,28 +1982,28 @@
         <v>28</v>
       </c>
       <c r="E23" s="4">
-        <v>85</v>
+        <v>7</v>
       </c>
       <c r="F23" s="4">
-        <v>463800000</v>
+        <v>224000000</v>
       </c>
       <c r="G23" s="4">
-        <v>13997000000</v>
+        <v>344500000</v>
       </c>
       <c r="H23" s="4">
-        <v>1926216797.138243</v>
+        <v>88506434.068287</v>
       </c>
       <c r="I23" s="4">
-        <v>85</v>
+        <v>7</v>
       </c>
       <c r="J23" s="4">
-        <v>463800000</v>
+        <v>224000000</v>
       </c>
       <c r="K23" s="4">
-        <v>13997000000</v>
+        <v>344500000</v>
       </c>
       <c r="L23" s="4">
-        <v>1926216798.564486</v>
+        <v>88506433.90681</v>
       </c>
       <c r="M23" s="4">
         <v>0</v>
@@ -2027,7 +2015,7 @@
         <v>0</v>
       </c>
       <c r="P23" s="4">
-        <v>-1.42624306678772</v>
+        <v>0.1614769995212555</v>
       </c>
       <c r="Q23" s="8">
         <v>0</v>
@@ -2039,7 +2027,7 @@
         <v>0</v>
       </c>
       <c r="T23" s="8">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="4:20">
@@ -2047,28 +2035,28 @@
         <v>29</v>
       </c>
       <c r="E24" s="4">
-        <v>7</v>
+        <v>173</v>
       </c>
       <c r="F24" s="4">
-        <v>224000000</v>
+        <v>7915716045</v>
       </c>
       <c r="G24" s="4">
-        <v>344500000</v>
+        <v>13339288807</v>
       </c>
       <c r="H24" s="4">
-        <v>88506434.068287</v>
+        <v>4377208408.61657</v>
       </c>
       <c r="I24" s="4">
-        <v>7</v>
+        <v>173</v>
       </c>
       <c r="J24" s="4">
-        <v>224000000</v>
+        <v>7915716045</v>
       </c>
       <c r="K24" s="4">
-        <v>344500000</v>
+        <v>13339288807</v>
       </c>
       <c r="L24" s="4">
-        <v>88506433.90681</v>
+        <v>4377208408.74391</v>
       </c>
       <c r="M24" s="4">
         <v>0</v>
@@ -2080,7 +2068,7 @@
         <v>0</v>
       </c>
       <c r="P24" s="4">
-        <v>0.1614769995212555</v>
+        <v>-0.1273403167724609</v>
       </c>
       <c r="Q24" s="8">
         <v>0</v>
@@ -2092,7 +2080,7 @@
         <v>0</v>
       </c>
       <c r="T24" s="8">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="25" spans="4:20">
@@ -2100,28 +2088,28 @@
         <v>30</v>
       </c>
       <c r="E25" s="4">
-        <v>173</v>
+        <v>33562</v>
       </c>
       <c r="F25" s="4">
-        <v>7915716045</v>
+        <v>594014540428</v>
       </c>
       <c r="G25" s="4">
-        <v>13339288807</v>
+        <v>8517222318239</v>
       </c>
       <c r="H25" s="4">
-        <v>4377208408.61657</v>
+        <v>86513112617.87395</v>
       </c>
       <c r="I25" s="4">
-        <v>173</v>
+        <v>33562</v>
       </c>
       <c r="J25" s="4">
-        <v>7915716045</v>
+        <v>594014540428</v>
       </c>
       <c r="K25" s="4">
-        <v>13339288807</v>
+        <v>8517222318239</v>
       </c>
       <c r="L25" s="4">
-        <v>4377208408.74391</v>
+        <v>86513112652.31566</v>
       </c>
       <c r="M25" s="4">
         <v>0</v>
@@ -2133,7 +2121,7 @@
         <v>0</v>
       </c>
       <c r="P25" s="4">
-        <v>-0.1273403167724609</v>
+        <v>-34.44171142578125</v>
       </c>
       <c r="Q25" s="8">
         <v>0</v>
@@ -2153,40 +2141,40 @@
         <v>31</v>
       </c>
       <c r="E26" s="4">
-        <v>33562</v>
+        <v>33634</v>
       </c>
       <c r="F26" s="4">
-        <v>594014540428</v>
+        <v>373901723496.3745</v>
       </c>
       <c r="G26" s="4">
-        <v>8517222318239</v>
+        <v>11521900083000</v>
       </c>
       <c r="H26" s="4">
-        <v>86513112617.87395</v>
+        <v>634492693813.9961</v>
       </c>
       <c r="I26" s="4">
-        <v>33562</v>
+        <v>33634</v>
       </c>
       <c r="J26" s="4">
-        <v>594014540428</v>
+        <v>373901723496.3745</v>
       </c>
       <c r="K26" s="4">
-        <v>8517222318239</v>
+        <v>11521900083000</v>
       </c>
       <c r="L26" s="4">
-        <v>86513112652.31566</v>
+        <v>634492693772.0812</v>
       </c>
       <c r="M26" s="4">
         <v>0</v>
       </c>
       <c r="N26" s="4">
-        <v>0</v>
+        <v>6.103515625E-05</v>
       </c>
       <c r="O26" s="4">
         <v>0</v>
       </c>
       <c r="P26" s="4">
-        <v>-34.44171142578125</v>
+        <v>41.9149169921875</v>
       </c>
       <c r="Q26" s="8">
         <v>0</v>
@@ -2198,7 +2186,7 @@
         <v>0</v>
       </c>
       <c r="T26" s="8">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="4:20">
@@ -2206,40 +2194,40 @@
         <v>32</v>
       </c>
       <c r="E27" s="4">
-        <v>33634</v>
+        <v>61</v>
       </c>
       <c r="F27" s="4">
-        <v>373901723496.3745</v>
+        <v>376359996</v>
       </c>
       <c r="G27" s="4">
-        <v>11521900083000</v>
+        <v>11617000000</v>
       </c>
       <c r="H27" s="4">
-        <v>634492693813.9961</v>
+        <v>1730062527.456038</v>
       </c>
       <c r="I27" s="4">
-        <v>33634</v>
+        <v>61</v>
       </c>
       <c r="J27" s="4">
-        <v>373901723496.3745</v>
+        <v>376359996</v>
       </c>
       <c r="K27" s="4">
-        <v>11521900083000</v>
+        <v>11617000000</v>
       </c>
       <c r="L27" s="4">
-        <v>634492693772.0812</v>
+        <v>1730062528.690416</v>
       </c>
       <c r="M27" s="4">
         <v>0</v>
       </c>
       <c r="N27" s="4">
-        <v>6.103515625E-05</v>
+        <v>0</v>
       </c>
       <c r="O27" s="4">
         <v>0</v>
       </c>
       <c r="P27" s="4">
-        <v>41.9149169921875</v>
+        <v>-1.234378099441528</v>
       </c>
       <c r="Q27" s="8">
         <v>0</v>
@@ -2251,7 +2239,7 @@
         <v>0</v>
       </c>
       <c r="T27" s="8">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="28" spans="4:20">
@@ -2259,28 +2247,28 @@
         <v>33</v>
       </c>
       <c r="E28" s="4">
-        <v>61</v>
+        <v>8</v>
       </c>
       <c r="F28" s="4">
-        <v>376359996</v>
+        <v>14400000</v>
       </c>
       <c r="G28" s="4">
-        <v>11617000000</v>
+        <v>393000000</v>
       </c>
       <c r="H28" s="4">
-        <v>1730062527.456038</v>
+        <v>213627305.698283</v>
       </c>
       <c r="I28" s="4">
-        <v>61</v>
+        <v>8</v>
       </c>
       <c r="J28" s="4">
-        <v>376359996</v>
+        <v>14400000</v>
       </c>
       <c r="K28" s="4">
-        <v>11617000000</v>
+        <v>393000000</v>
       </c>
       <c r="L28" s="4">
-        <v>1730062528.690416</v>
+        <v>213627306.062053</v>
       </c>
       <c r="M28" s="4">
         <v>0</v>
@@ -2292,7 +2280,7 @@
         <v>0</v>
       </c>
       <c r="P28" s="4">
-        <v>-1.234378099441528</v>
+        <v>-0.3637700080871582</v>
       </c>
       <c r="Q28" s="8">
         <v>0</v>
@@ -2312,52 +2300,52 @@
         <v>34</v>
       </c>
       <c r="E29" s="4">
-        <v>8</v>
+        <v>63</v>
       </c>
       <c r="F29" s="4">
-        <v>14400000</v>
+        <v>4293000000</v>
       </c>
       <c r="G29" s="4">
-        <v>393000000</v>
+        <v>38290000000</v>
       </c>
       <c r="H29" s="4">
-        <v>213627305.698283</v>
+        <v>9460239589.115091</v>
       </c>
       <c r="I29" s="4">
-        <v>8</v>
+        <v>89</v>
       </c>
       <c r="J29" s="4">
-        <v>14400000</v>
+        <v>6123000000</v>
       </c>
       <c r="K29" s="4">
-        <v>393000000</v>
+        <v>56165000000</v>
       </c>
       <c r="L29" s="4">
-        <v>213627306.062053</v>
+        <v>14121211655.33989</v>
       </c>
       <c r="M29" s="4">
-        <v>0</v>
+        <v>-26</v>
       </c>
       <c r="N29" s="4">
-        <v>0</v>
+        <v>-1830000000</v>
       </c>
       <c r="O29" s="4">
-        <v>0</v>
+        <v>-17875000000</v>
       </c>
       <c r="P29" s="4">
-        <v>-0.3637700080871582</v>
+        <v>-4660972066.224794</v>
       </c>
       <c r="Q29" s="8">
-        <v>0</v>
+        <v>-29.2</v>
       </c>
       <c r="R29" s="8">
-        <v>0</v>
+        <v>-29.9</v>
       </c>
       <c r="S29" s="8">
-        <v>0</v>
+        <v>-31.8</v>
       </c>
       <c r="T29" s="8">
-        <v>-0</v>
+        <v>-33</v>
       </c>
     </row>
     <row r="30" spans="4:20">
@@ -2365,16 +2353,16 @@
         <v>35</v>
       </c>
       <c r="E30" s="4">
-        <v>63</v>
+        <v>26</v>
       </c>
       <c r="F30" s="4">
-        <v>4293000000</v>
+        <v>1830000000</v>
       </c>
       <c r="G30" s="4">
-        <v>38290000000</v>
+        <v>17875000000</v>
       </c>
       <c r="H30" s="4">
-        <v>9460239589.115091</v>
+        <v>4660972067.524407</v>
       </c>
       <c r="I30" s="4">
         <v>0</v>
@@ -2389,16 +2377,16 @@
         <v>0</v>
       </c>
       <c r="M30" s="4">
-        <v>63</v>
+        <v>26</v>
       </c>
       <c r="N30" s="4">
-        <v>4293000000</v>
+        <v>1830000000</v>
       </c>
       <c r="O30" s="4">
-        <v>38290000000</v>
+        <v>17875000000</v>
       </c>
       <c r="P30" s="4">
-        <v>9460239589.115091</v>
+        <v>4660972067.524407</v>
       </c>
       <c r="Q30" s="8">
         <v>0</v>
@@ -2418,40 +2406,40 @@
         <v>36</v>
       </c>
       <c r="E31" s="4">
-        <v>26</v>
+        <v>1975</v>
       </c>
       <c r="F31" s="4">
-        <v>1830000000</v>
+        <v>51395012680</v>
       </c>
       <c r="G31" s="4">
-        <v>17875000000</v>
+        <v>321182000000</v>
       </c>
       <c r="H31" s="4">
-        <v>4660972067.524407</v>
+        <v>25680120900</v>
       </c>
       <c r="I31" s="4">
-        <v>0</v>
+        <v>1975</v>
       </c>
       <c r="J31" s="4">
-        <v>0</v>
+        <v>51395012680</v>
       </c>
       <c r="K31" s="4">
-        <v>0</v>
+        <v>321182000000</v>
       </c>
       <c r="L31" s="4">
-        <v>0</v>
+        <v>25680120888.3118</v>
       </c>
       <c r="M31" s="4">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="N31" s="4">
-        <v>1830000000</v>
+        <v>0</v>
       </c>
       <c r="O31" s="4">
-        <v>17875000000</v>
+        <v>0</v>
       </c>
       <c r="P31" s="4">
-        <v>4660972067.524407</v>
+        <v>11.68820190429688</v>
       </c>
       <c r="Q31" s="8">
         <v>0</v>
@@ -2471,28 +2459,28 @@
         <v>37</v>
       </c>
       <c r="E32" s="4">
-        <v>1975</v>
+        <v>42</v>
       </c>
       <c r="F32" s="4">
-        <v>51395012680</v>
+        <v>2024500004</v>
       </c>
       <c r="G32" s="4">
-        <v>321182000000</v>
+        <v>30315000000</v>
       </c>
       <c r="H32" s="4">
-        <v>25680120900</v>
+        <v>4379222853.466043</v>
       </c>
       <c r="I32" s="4">
-        <v>1975</v>
+        <v>42</v>
       </c>
       <c r="J32" s="4">
-        <v>51395012680</v>
+        <v>2024500004</v>
       </c>
       <c r="K32" s="4">
-        <v>321182000000</v>
+        <v>30315000000</v>
       </c>
       <c r="L32" s="4">
-        <v>25680120888.3118</v>
+        <v>4379222854.174653</v>
       </c>
       <c r="M32" s="4">
         <v>0</v>
@@ -2504,7 +2492,7 @@
         <v>0</v>
       </c>
       <c r="P32" s="4">
-        <v>11.68820190429688</v>
+        <v>-0.7086095809936523</v>
       </c>
       <c r="Q32" s="8">
         <v>0</v>
@@ -2516,7 +2504,7 @@
         <v>0</v>
       </c>
       <c r="T32" s="8">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="33" spans="4:20">
@@ -2524,28 +2512,28 @@
         <v>38</v>
       </c>
       <c r="E33" s="4">
-        <v>42</v>
+        <v>2</v>
       </c>
       <c r="F33" s="4">
-        <v>2024500004</v>
+        <v>5000</v>
       </c>
       <c r="G33" s="4">
-        <v>30315000000</v>
+        <v>25000</v>
       </c>
       <c r="H33" s="4">
-        <v>4379222853.466043</v>
+        <v>16358.62679056</v>
       </c>
       <c r="I33" s="4">
-        <v>42</v>
+        <v>2</v>
       </c>
       <c r="J33" s="4">
-        <v>2024500004</v>
+        <v>5000</v>
       </c>
       <c r="K33" s="4">
-        <v>30315000000</v>
+        <v>25000</v>
       </c>
       <c r="L33" s="4">
-        <v>4379222854.174653</v>
+        <v>16359.14285856</v>
       </c>
       <c r="M33" s="4">
         <v>0</v>
@@ -2557,7 +2545,7 @@
         <v>0</v>
       </c>
       <c r="P33" s="4">
-        <v>-0.7086095809936523</v>
+        <v>-0.5160680000008142</v>
       </c>
       <c r="Q33" s="8">
         <v>0</v>
@@ -2577,28 +2565,28 @@
         <v>39</v>
       </c>
       <c r="E34" s="4">
-        <v>2</v>
+        <v>46</v>
       </c>
       <c r="F34" s="4">
-        <v>5000</v>
+        <v>7341999996</v>
       </c>
       <c r="G34" s="4">
-        <v>25000</v>
+        <v>250046735522</v>
       </c>
       <c r="H34" s="4">
-        <v>16358.62679056</v>
+        <v>9847813574.711372</v>
       </c>
       <c r="I34" s="4">
-        <v>2</v>
+        <v>46</v>
       </c>
       <c r="J34" s="4">
-        <v>5000</v>
+        <v>7341999996</v>
       </c>
       <c r="K34" s="4">
-        <v>25000</v>
+        <v>250046735522</v>
       </c>
       <c r="L34" s="4">
-        <v>16359.14285856</v>
+        <v>9847813574.011644</v>
       </c>
       <c r="M34" s="4">
         <v>0</v>
@@ -2610,7 +2598,7 @@
         <v>0</v>
       </c>
       <c r="P34" s="4">
-        <v>-0.5160680000008142</v>
+        <v>0.6997280120849609</v>
       </c>
       <c r="Q34" s="8">
         <v>0</v>
@@ -2622,7 +2610,7 @@
         <v>0</v>
       </c>
       <c r="T34" s="8">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="4:20">
@@ -2630,28 +2618,28 @@
         <v>40</v>
       </c>
       <c r="E35" s="4">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="F35" s="4">
-        <v>7341999996</v>
+        <v>426400</v>
       </c>
       <c r="G35" s="4">
-        <v>250046735522</v>
+        <v>9926000</v>
       </c>
       <c r="H35" s="4">
-        <v>9847813574.711372</v>
+        <v>603806.6752760099</v>
       </c>
       <c r="I35" s="4">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="J35" s="4">
-        <v>7341999996</v>
+        <v>426400</v>
       </c>
       <c r="K35" s="4">
-        <v>250046735522</v>
+        <v>9926000</v>
       </c>
       <c r="L35" s="4">
-        <v>9847813574.011644</v>
+        <v>603805.40763355</v>
       </c>
       <c r="M35" s="4">
         <v>0</v>
@@ -2663,7 +2651,7 @@
         <v>0</v>
       </c>
       <c r="P35" s="4">
-        <v>0.6997280120849609</v>
+        <v>1.267642459948547</v>
       </c>
       <c r="Q35" s="8">
         <v>0</v>
@@ -2683,28 +2671,28 @@
         <v>41</v>
       </c>
       <c r="E36" s="4">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="F36" s="4">
-        <v>426400</v>
+        <v>9041000004</v>
       </c>
       <c r="G36" s="4">
-        <v>9926000</v>
+        <v>338500000000</v>
       </c>
       <c r="H36" s="4">
-        <v>603806.6752760099</v>
+        <v>19632887052.74219</v>
       </c>
       <c r="I36" s="4">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="J36" s="4">
-        <v>426400</v>
+        <v>9041000004</v>
       </c>
       <c r="K36" s="4">
-        <v>9926000</v>
+        <v>338500000000</v>
       </c>
       <c r="L36" s="4">
-        <v>603805.40763355</v>
+        <v>19632887048.89525</v>
       </c>
       <c r="M36" s="4">
         <v>0</v>
@@ -2716,7 +2704,7 @@
         <v>0</v>
       </c>
       <c r="P36" s="4">
-        <v>1.267642459948547</v>
+        <v>3.846939086914062</v>
       </c>
       <c r="Q36" s="8">
         <v>0</v>
@@ -2736,28 +2724,28 @@
         <v>42</v>
       </c>
       <c r="E37" s="4">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="F37" s="4">
-        <v>9041000004</v>
+        <v>1029000</v>
       </c>
       <c r="G37" s="4">
-        <v>338500000000</v>
+        <v>23636000</v>
       </c>
       <c r="H37" s="4">
-        <v>19632887052.74219</v>
+        <v>2702602.13519338</v>
       </c>
       <c r="I37" s="4">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="J37" s="4">
-        <v>9041000004</v>
+        <v>1029000</v>
       </c>
       <c r="K37" s="4">
-        <v>338500000000</v>
+        <v>23636000</v>
       </c>
       <c r="L37" s="4">
-        <v>19632887048.89525</v>
+        <v>2702602.7701941</v>
       </c>
       <c r="M37" s="4">
         <v>0</v>
@@ -2769,7 +2757,7 @@
         <v>0</v>
       </c>
       <c r="P37" s="4">
-        <v>3.846939086914062</v>
+        <v>-0.635000720154494</v>
       </c>
       <c r="Q37" s="8">
         <v>0</v>
@@ -2781,7 +2769,7 @@
         <v>0</v>
       </c>
       <c r="T37" s="8">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="38" spans="4:20">
@@ -2789,28 +2777,28 @@
         <v>43</v>
       </c>
       <c r="E38" s="4">
-        <v>57</v>
+        <v>130</v>
       </c>
       <c r="F38" s="4">
-        <v>1029000</v>
+        <v>6824999996</v>
       </c>
       <c r="G38" s="4">
-        <v>23636000</v>
+        <v>112025000000</v>
       </c>
       <c r="H38" s="4">
-        <v>2702602.13519338</v>
+        <v>98433619457.37325</v>
       </c>
       <c r="I38" s="4">
-        <v>57</v>
+        <v>130</v>
       </c>
       <c r="J38" s="4">
-        <v>1029000</v>
+        <v>6824999996</v>
       </c>
       <c r="K38" s="4">
-        <v>23636000</v>
+        <v>112025000000</v>
       </c>
       <c r="L38" s="4">
-        <v>2702602.7701941</v>
+        <v>98433619457.23116</v>
       </c>
       <c r="M38" s="4">
         <v>0</v>
@@ -2822,7 +2810,7 @@
         <v>0</v>
       </c>
       <c r="P38" s="4">
-        <v>-0.635000720154494</v>
+        <v>0.14208984375</v>
       </c>
       <c r="Q38" s="8">
         <v>0</v>
@@ -2834,7 +2822,7 @@
         <v>0</v>
       </c>
       <c r="T38" s="8">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="4:20">
@@ -2842,28 +2830,28 @@
         <v>44</v>
       </c>
       <c r="E39" s="4">
-        <v>130</v>
+        <v>15</v>
       </c>
       <c r="F39" s="4">
-        <v>6824999996</v>
+        <v>68000</v>
       </c>
       <c r="G39" s="4">
-        <v>112025000000</v>
+        <v>1187500</v>
       </c>
       <c r="H39" s="4">
-        <v>98433619457.37325</v>
+        <v>172738.06810433</v>
       </c>
       <c r="I39" s="4">
-        <v>130</v>
+        <v>15</v>
       </c>
       <c r="J39" s="4">
-        <v>6824999996</v>
+        <v>68000</v>
       </c>
       <c r="K39" s="4">
-        <v>112025000000</v>
+        <v>1187500</v>
       </c>
       <c r="L39" s="4">
-        <v>98433619457.23116</v>
+        <v>172737.5844235</v>
       </c>
       <c r="M39" s="4">
         <v>0</v>
@@ -2875,7 +2863,7 @@
         <v>0</v>
       </c>
       <c r="P39" s="4">
-        <v>0.14208984375</v>
+        <v>0.483680830016965</v>
       </c>
       <c r="Q39" s="8">
         <v>0</v>
@@ -2895,28 +2883,28 @@
         <v>45</v>
       </c>
       <c r="E40" s="4">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="F40" s="4">
-        <v>68000</v>
+        <v>80000000</v>
       </c>
       <c r="G40" s="4">
-        <v>1187500</v>
+        <v>2000000000</v>
       </c>
       <c r="H40" s="4">
-        <v>172738.06810433</v>
+        <v>44204238</v>
       </c>
       <c r="I40" s="4">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="J40" s="4">
-        <v>68000</v>
+        <v>80000000</v>
       </c>
       <c r="K40" s="4">
-        <v>1187500</v>
+        <v>2000000000</v>
       </c>
       <c r="L40" s="4">
-        <v>172737.5844235</v>
+        <v>44204238.269769</v>
       </c>
       <c r="M40" s="4">
         <v>0</v>
@@ -2928,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="P40" s="4">
-        <v>0.483680830016965</v>
+        <v>-0.2697689980268478</v>
       </c>
       <c r="Q40" s="8">
         <v>0</v>
@@ -2940,7 +2928,7 @@
         <v>0</v>
       </c>
       <c r="T40" s="8">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="41" spans="4:20">
@@ -2951,25 +2939,25 @@
         <v>1</v>
       </c>
       <c r="F41" s="4">
-        <v>80000000</v>
+        <v>19250</v>
       </c>
       <c r="G41" s="4">
-        <v>2000000000</v>
+        <v>481250</v>
       </c>
       <c r="H41" s="4">
-        <v>44204238</v>
+        <v>9885</v>
       </c>
       <c r="I41" s="4">
         <v>1</v>
       </c>
       <c r="J41" s="4">
-        <v>80000000</v>
+        <v>19250</v>
       </c>
       <c r="K41" s="4">
-        <v>2000000000</v>
+        <v>481250</v>
       </c>
       <c r="L41" s="4">
-        <v>44204238.269769</v>
+        <v>9885.083974560001</v>
       </c>
       <c r="M41" s="4">
         <v>0</v>
@@ -2981,7 +2969,7 @@
         <v>0</v>
       </c>
       <c r="P41" s="4">
-        <v>-0.2697689980268478</v>
+        <v>-0.08397456000056991</v>
       </c>
       <c r="Q41" s="8">
         <v>0</v>
@@ -3001,28 +2989,28 @@
         <v>47</v>
       </c>
       <c r="E42" s="4">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="F42" s="4">
-        <v>19250</v>
+        <v>650000000</v>
       </c>
       <c r="G42" s="4">
-        <v>481250</v>
+        <v>975000000</v>
       </c>
       <c r="H42" s="4">
-        <v>9885</v>
+        <v>7831206334.297344</v>
       </c>
       <c r="I42" s="4">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="J42" s="4">
-        <v>19250</v>
+        <v>650000000</v>
       </c>
       <c r="K42" s="4">
-        <v>481250</v>
+        <v>975000000</v>
       </c>
       <c r="L42" s="4">
-        <v>9885.083974560001</v>
+        <v>7831206333.689013</v>
       </c>
       <c r="M42" s="4">
         <v>0</v>
@@ -3034,7 +3022,7 @@
         <v>0</v>
       </c>
       <c r="P42" s="4">
-        <v>-0.08397456000056991</v>
+        <v>0.6083316802978516</v>
       </c>
       <c r="Q42" s="8">
         <v>0</v>
@@ -3046,7 +3034,7 @@
         <v>0</v>
       </c>
       <c r="T42" s="8">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="4:20">
@@ -3054,28 +3042,28 @@
         <v>48</v>
       </c>
       <c r="E43" s="4">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="F43" s="4">
-        <v>650000000</v>
+        <v>235000</v>
       </c>
       <c r="G43" s="4">
-        <v>975000000</v>
+        <v>352500</v>
       </c>
       <c r="H43" s="4">
-        <v>7831206334.297344</v>
+        <v>1781106.63948528</v>
       </c>
       <c r="I43" s="4">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="J43" s="4">
-        <v>650000000</v>
+        <v>235000</v>
       </c>
       <c r="K43" s="4">
-        <v>975000000</v>
+        <v>352500</v>
       </c>
       <c r="L43" s="4">
-        <v>7831206333.689013</v>
+        <v>1781110.39177972</v>
       </c>
       <c r="M43" s="4">
         <v>0</v>
@@ -3087,7 +3075,7 @@
         <v>0</v>
       </c>
       <c r="P43" s="4">
-        <v>0.6083316802978516</v>
+        <v>-3.752294440055266</v>
       </c>
       <c r="Q43" s="8">
         <v>0</v>
@@ -3099,7 +3087,7 @@
         <v>0</v>
       </c>
       <c r="T43" s="8">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="44" spans="4:20">
@@ -3107,28 +3095,28 @@
         <v>49</v>
       </c>
       <c r="E44" s="4">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="F44" s="4">
-        <v>235000</v>
+        <v>641000000</v>
       </c>
       <c r="G44" s="4">
-        <v>352500</v>
+        <v>39273000000</v>
       </c>
       <c r="H44" s="4">
-        <v>1781106.63948528</v>
+        <v>1105454327.793427</v>
       </c>
       <c r="I44" s="4">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="J44" s="4">
-        <v>235000</v>
+        <v>641000000</v>
       </c>
       <c r="K44" s="4">
-        <v>352500</v>
+        <v>39273000000</v>
       </c>
       <c r="L44" s="4">
-        <v>1781110.39177972</v>
+        <v>1105454324.076712</v>
       </c>
       <c r="M44" s="4">
         <v>0</v>
@@ -3140,7 +3128,7 @@
         <v>0</v>
       </c>
       <c r="P44" s="4">
-        <v>-3.752294440055266</v>
+        <v>3.716715097427368</v>
       </c>
       <c r="Q44" s="8">
         <v>0</v>
@@ -3152,7 +3140,7 @@
         <v>0</v>
       </c>
       <c r="T44" s="8">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="4:20">
@@ -3160,28 +3148,28 @@
         <v>50</v>
       </c>
       <c r="E45" s="4">
-        <v>62</v>
+        <v>2</v>
       </c>
       <c r="F45" s="4">
-        <v>641000000</v>
+        <v>150000000</v>
       </c>
       <c r="G45" s="4">
-        <v>39273000000</v>
+        <v>1000000000</v>
       </c>
       <c r="H45" s="4">
-        <v>1105454327.793427</v>
+        <v>20472186.404442</v>
       </c>
       <c r="I45" s="4">
-        <v>62</v>
+        <v>2</v>
       </c>
       <c r="J45" s="4">
-        <v>641000000</v>
+        <v>150000000</v>
       </c>
       <c r="K45" s="4">
-        <v>39273000000</v>
+        <v>1000000000</v>
       </c>
       <c r="L45" s="4">
-        <v>1105454324.076712</v>
+        <v>20472185.957391</v>
       </c>
       <c r="M45" s="4">
         <v>0</v>
@@ -3193,7 +3181,7 @@
         <v>0</v>
       </c>
       <c r="P45" s="4">
-        <v>3.716715097427368</v>
+        <v>0.4470509998500347</v>
       </c>
       <c r="Q45" s="8">
         <v>0</v>
@@ -3213,28 +3201,28 @@
         <v>51</v>
       </c>
       <c r="E46" s="4">
-        <v>2</v>
+        <v>743</v>
       </c>
       <c r="F46" s="4">
-        <v>150000000</v>
+        <v>2926355972</v>
       </c>
       <c r="G46" s="4">
-        <v>1000000000</v>
+        <v>134000900000</v>
       </c>
       <c r="H46" s="4">
-        <v>20472186.404442</v>
+        <v>21533274312.67294</v>
       </c>
       <c r="I46" s="4">
-        <v>2</v>
+        <v>743</v>
       </c>
       <c r="J46" s="4">
-        <v>150000000</v>
+        <v>2926355972</v>
       </c>
       <c r="K46" s="4">
-        <v>1000000000</v>
+        <v>134000900000</v>
       </c>
       <c r="L46" s="4">
-        <v>20472185.957391</v>
+        <v>21533274313.28131</v>
       </c>
       <c r="M46" s="4">
         <v>0</v>
@@ -3246,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="P46" s="4">
-        <v>0.4470509998500347</v>
+        <v>-0.6083755493164062</v>
       </c>
       <c r="Q46" s="8">
         <v>0</v>
@@ -3258,7 +3246,7 @@
         <v>0</v>
       </c>
       <c r="T46" s="8">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="47" spans="4:20">
@@ -3266,28 +3254,28 @@
         <v>52</v>
       </c>
       <c r="E47" s="4">
-        <v>743</v>
+        <v>3628</v>
       </c>
       <c r="F47" s="4">
-        <v>2926355972</v>
+        <v>23069599980</v>
       </c>
       <c r="G47" s="4">
-        <v>134000900000</v>
+        <v>710550000000</v>
       </c>
       <c r="H47" s="4">
-        <v>21533274312.67294</v>
+        <v>167431753978.1582</v>
       </c>
       <c r="I47" s="4">
-        <v>743</v>
+        <v>3628</v>
       </c>
       <c r="J47" s="4">
-        <v>2926355972</v>
+        <v>23069599980</v>
       </c>
       <c r="K47" s="4">
-        <v>134000900000</v>
+        <v>710550000000</v>
       </c>
       <c r="L47" s="4">
-        <v>21533274313.28131</v>
+        <v>167431753954.5782</v>
       </c>
       <c r="M47" s="4">
         <v>0</v>
@@ -3299,7 +3287,7 @@
         <v>0</v>
       </c>
       <c r="P47" s="4">
-        <v>-0.6083755493164062</v>
+        <v>23.57998657226562</v>
       </c>
       <c r="Q47" s="8">
         <v>0</v>
@@ -3311,7 +3299,7 @@
         <v>0</v>
       </c>
       <c r="T47" s="8">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="4:20">
@@ -3319,28 +3307,28 @@
         <v>53</v>
       </c>
       <c r="E48" s="4">
-        <v>3628</v>
+        <v>71</v>
       </c>
       <c r="F48" s="4">
-        <v>23069599980</v>
+        <v>115715</v>
       </c>
       <c r="G48" s="4">
-        <v>710550000000</v>
+        <v>1808150</v>
       </c>
       <c r="H48" s="4">
-        <v>167431753978.1582</v>
+        <v>887418.9264616</v>
       </c>
       <c r="I48" s="4">
-        <v>3628</v>
+        <v>71</v>
       </c>
       <c r="J48" s="4">
-        <v>23069599980</v>
+        <v>115715</v>
       </c>
       <c r="K48" s="4">
-        <v>710550000000</v>
+        <v>1808150</v>
       </c>
       <c r="L48" s="4">
-        <v>167431753954.5782</v>
+        <v>887417.9761128</v>
       </c>
       <c r="M48" s="4">
         <v>0</v>
@@ -3352,7 +3340,7 @@
         <v>0</v>
       </c>
       <c r="P48" s="4">
-        <v>23.57998657226562</v>
+        <v>0.9503488000482321</v>
       </c>
       <c r="Q48" s="8">
         <v>0</v>
@@ -3372,28 +3360,28 @@
         <v>54</v>
       </c>
       <c r="E49" s="4">
-        <v>71</v>
+        <v>1</v>
       </c>
       <c r="F49" s="4">
-        <v>115715</v>
+        <v>15000000</v>
       </c>
       <c r="G49" s="4">
-        <v>1808150</v>
+        <v>300000000</v>
       </c>
       <c r="H49" s="4">
-        <v>887418.9264616</v>
+        <v>56795458.352841</v>
       </c>
       <c r="I49" s="4">
-        <v>71</v>
+        <v>1</v>
       </c>
       <c r="J49" s="4">
-        <v>115715</v>
+        <v>15000000</v>
       </c>
       <c r="K49" s="4">
-        <v>1808150</v>
+        <v>300000000</v>
       </c>
       <c r="L49" s="4">
-        <v>887417.9761128</v>
+        <v>56795458.125847</v>
       </c>
       <c r="M49" s="4">
         <v>0</v>
@@ -3405,7 +3393,7 @@
         <v>0</v>
       </c>
       <c r="P49" s="4">
-        <v>0.9503488000482321</v>
+        <v>0.2269940003752708</v>
       </c>
       <c r="Q49" s="8">
         <v>0</v>
@@ -3425,28 +3413,28 @@
         <v>55</v>
       </c>
       <c r="E50" s="4">
-        <v>1</v>
+        <v>518</v>
       </c>
       <c r="F50" s="4">
-        <v>15000000</v>
+        <v>4347539996</v>
       </c>
       <c r="G50" s="4">
-        <v>300000000</v>
+        <v>128687000000</v>
       </c>
       <c r="H50" s="4">
-        <v>56795458.352841</v>
+        <v>31043163342.17812</v>
       </c>
       <c r="I50" s="4">
-        <v>1</v>
+        <v>518</v>
       </c>
       <c r="J50" s="4">
-        <v>15000000</v>
+        <v>4347539996</v>
       </c>
       <c r="K50" s="4">
-        <v>300000000</v>
+        <v>128687000000</v>
       </c>
       <c r="L50" s="4">
-        <v>56795458.125847</v>
+        <v>31043163338.79099</v>
       </c>
       <c r="M50" s="4">
         <v>0</v>
@@ -3458,7 +3446,7 @@
         <v>0</v>
       </c>
       <c r="P50" s="4">
-        <v>0.2269940003752708</v>
+        <v>3.387130737304688</v>
       </c>
       <c r="Q50" s="8">
         <v>0</v>
@@ -3478,28 +3466,28 @@
         <v>56</v>
       </c>
       <c r="E51" s="4">
-        <v>518</v>
+        <v>1</v>
       </c>
       <c r="F51" s="4">
-        <v>4347539996</v>
+        <v>1250</v>
       </c>
       <c r="G51" s="4">
-        <v>128687000000</v>
+        <v>20000</v>
       </c>
       <c r="H51" s="4">
-        <v>31043163342.17812</v>
+        <v>5285.0109048</v>
       </c>
       <c r="I51" s="4">
-        <v>518</v>
+        <v>1</v>
       </c>
       <c r="J51" s="4">
-        <v>4347539996</v>
+        <v>1250</v>
       </c>
       <c r="K51" s="4">
-        <v>128687000000</v>
+        <v>20000</v>
       </c>
       <c r="L51" s="4">
-        <v>31043163338.79099</v>
+        <v>5285.0109048</v>
       </c>
       <c r="M51" s="4">
         <v>0</v>
@@ -3511,7 +3499,7 @@
         <v>0</v>
       </c>
       <c r="P51" s="4">
-        <v>3.387130737304688</v>
+        <v>0</v>
       </c>
       <c r="Q51" s="8">
         <v>0</v>
@@ -3531,28 +3519,28 @@
         <v>57</v>
       </c>
       <c r="E52" s="4">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="F52" s="4">
-        <v>1250</v>
+        <v>49300000</v>
       </c>
       <c r="G52" s="4">
-        <v>20000</v>
+        <v>1950000000</v>
       </c>
       <c r="H52" s="4">
-        <v>5285.0109048</v>
+        <v>327196937.25291</v>
       </c>
       <c r="I52" s="4">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="J52" s="4">
-        <v>1250</v>
+        <v>49300000</v>
       </c>
       <c r="K52" s="4">
-        <v>20000</v>
+        <v>1950000000</v>
       </c>
       <c r="L52" s="4">
-        <v>5285.0109048</v>
+        <v>327196936.648865</v>
       </c>
       <c r="M52" s="4">
         <v>0</v>
@@ -3564,7 +3552,7 @@
         <v>0</v>
       </c>
       <c r="P52" s="4">
-        <v>0</v>
+        <v>0.604045033454895</v>
       </c>
       <c r="Q52" s="8">
         <v>0</v>
@@ -3584,28 +3572,28 @@
         <v>58</v>
       </c>
       <c r="E53" s="4">
-        <v>9</v>
+        <v>60</v>
       </c>
       <c r="F53" s="4">
-        <v>49300000</v>
+        <v>3000000000</v>
       </c>
       <c r="G53" s="4">
-        <v>1950000000</v>
+        <v>4500000000</v>
       </c>
       <c r="H53" s="4">
-        <v>327196937.25291</v>
+        <v>17628444746.59367</v>
       </c>
       <c r="I53" s="4">
-        <v>9</v>
+        <v>60</v>
       </c>
       <c r="J53" s="4">
-        <v>49300000</v>
+        <v>3000000000</v>
       </c>
       <c r="K53" s="4">
-        <v>1950000000</v>
+        <v>4500000000</v>
       </c>
       <c r="L53" s="4">
-        <v>327196936.648865</v>
+        <v>17628444746.63847</v>
       </c>
       <c r="M53" s="4">
         <v>0</v>
@@ -3617,7 +3605,7 @@
         <v>0</v>
       </c>
       <c r="P53" s="4">
-        <v>0.604045033454895</v>
+        <v>-0.04480743408203125</v>
       </c>
       <c r="Q53" s="8">
         <v>0</v>
@@ -3629,7 +3617,7 @@
         <v>0</v>
       </c>
       <c r="T53" s="8">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="54" spans="4:20">
@@ -3637,28 +3625,28 @@
         <v>59</v>
       </c>
       <c r="E54" s="4">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="F54" s="4">
-        <v>3000000000</v>
+        <v>396500</v>
       </c>
       <c r="G54" s="4">
-        <v>4500000000</v>
+        <v>594750</v>
       </c>
       <c r="H54" s="4">
-        <v>17628444746.59367</v>
+        <v>1480627.157912255</v>
       </c>
       <c r="I54" s="4">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="J54" s="4">
-        <v>3000000000</v>
+        <v>396500</v>
       </c>
       <c r="K54" s="4">
-        <v>4500000000</v>
+        <v>594750</v>
       </c>
       <c r="L54" s="4">
-        <v>17628444746.63847</v>
+        <v>1480626.434030834</v>
       </c>
       <c r="M54" s="4">
         <v>0</v>
@@ -3670,7 +3658,7 @@
         <v>0</v>
       </c>
       <c r="P54" s="4">
-        <v>-0.04480743408203125</v>
+        <v>0.723881421610713</v>
       </c>
       <c r="Q54" s="8">
         <v>0</v>
@@ -3682,7 +3670,7 @@
         <v>0</v>
       </c>
       <c r="T54" s="8">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="4:20">
@@ -3690,28 +3678,28 @@
         <v>60</v>
       </c>
       <c r="E55" s="4">
-        <v>77</v>
+        <v>154</v>
       </c>
       <c r="F55" s="4">
-        <v>396500</v>
+        <v>6759000000</v>
       </c>
       <c r="G55" s="4">
-        <v>594750</v>
+        <v>111830000000</v>
       </c>
       <c r="H55" s="4">
-        <v>1480627.157912255</v>
+        <v>20318528091.52452</v>
       </c>
       <c r="I55" s="4">
-        <v>77</v>
+        <v>154</v>
       </c>
       <c r="J55" s="4">
-        <v>396500</v>
+        <v>6759000000</v>
       </c>
       <c r="K55" s="4">
-        <v>594750</v>
+        <v>111830000000</v>
       </c>
       <c r="L55" s="4">
-        <v>1480626.434030834</v>
+        <v>20318528086.64392</v>
       </c>
       <c r="M55" s="4">
         <v>0</v>
@@ -3723,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="P55" s="4">
-        <v>0.723881421610713</v>
+        <v>4.880599975585938</v>
       </c>
       <c r="Q55" s="8">
         <v>0</v>
@@ -3743,28 +3731,28 @@
         <v>61</v>
       </c>
       <c r="E56" s="4">
-        <v>154</v>
+        <v>49</v>
       </c>
       <c r="F56" s="4">
-        <v>6759000000</v>
+        <v>167000</v>
       </c>
       <c r="G56" s="4">
-        <v>111830000000</v>
+        <v>1468000</v>
       </c>
       <c r="H56" s="4">
-        <v>20318528091.52452</v>
+        <v>688295.7325498799</v>
       </c>
       <c r="I56" s="4">
-        <v>154</v>
+        <v>49</v>
       </c>
       <c r="J56" s="4">
-        <v>6759000000</v>
+        <v>167000</v>
       </c>
       <c r="K56" s="4">
-        <v>111830000000</v>
+        <v>1468000</v>
       </c>
       <c r="L56" s="4">
-        <v>20318528086.64392</v>
+        <v>688297.8649375137</v>
       </c>
       <c r="M56" s="4">
         <v>0</v>
@@ -3776,7 +3764,7 @@
         <v>0</v>
       </c>
       <c r="P56" s="4">
-        <v>4.880599975585938</v>
+        <v>-2.132387633784674</v>
       </c>
       <c r="Q56" s="8">
         <v>0</v>
@@ -3788,7 +3776,7 @@
         <v>0</v>
       </c>
       <c r="T56" s="8">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="57" spans="4:20">
@@ -3796,28 +3784,28 @@
         <v>62</v>
       </c>
       <c r="E57" s="4">
-        <v>49</v>
+        <v>231</v>
       </c>
       <c r="F57" s="4">
-        <v>167000</v>
+        <v>3675000000</v>
       </c>
       <c r="G57" s="4">
-        <v>1468000</v>
+        <v>4593750000</v>
       </c>
       <c r="H57" s="4">
-        <v>688295.7325498799</v>
+        <v>22003150419.13639</v>
       </c>
       <c r="I57" s="4">
-        <v>49</v>
+        <v>231</v>
       </c>
       <c r="J57" s="4">
-        <v>167000</v>
+        <v>3675000000</v>
       </c>
       <c r="K57" s="4">
-        <v>1468000</v>
+        <v>4593750000</v>
       </c>
       <c r="L57" s="4">
-        <v>688297.8649375137</v>
+        <v>22003150421.40571</v>
       </c>
       <c r="M57" s="4">
         <v>0</v>
@@ -3829,7 +3817,7 @@
         <v>0</v>
       </c>
       <c r="P57" s="4">
-        <v>-2.132387633784674</v>
+        <v>-2.269325256347656</v>
       </c>
       <c r="Q57" s="8">
         <v>0</v>
@@ -3849,28 +3837,28 @@
         <v>63</v>
       </c>
       <c r="E58" s="4">
-        <v>231</v>
+        <v>142</v>
       </c>
       <c r="F58" s="4">
-        <v>3675000000</v>
+        <v>9279000000</v>
       </c>
       <c r="G58" s="4">
-        <v>4593750000</v>
+        <v>296491647585</v>
       </c>
       <c r="H58" s="4">
-        <v>22003150419.13639</v>
+        <v>30905579033.64108</v>
       </c>
       <c r="I58" s="4">
-        <v>231</v>
+        <v>142</v>
       </c>
       <c r="J58" s="4">
-        <v>3675000000</v>
+        <v>9279000000</v>
       </c>
       <c r="K58" s="4">
-        <v>4593750000</v>
+        <v>296491647585</v>
       </c>
       <c r="L58" s="4">
-        <v>22003150421.40571</v>
+        <v>30905579034.85206</v>
       </c>
       <c r="M58" s="4">
         <v>0</v>
@@ -3882,7 +3870,7 @@
         <v>0</v>
       </c>
       <c r="P58" s="4">
-        <v>-2.269325256347656</v>
+        <v>-1.210983276367188</v>
       </c>
       <c r="Q58" s="8">
         <v>0</v>
@@ -3902,28 +3890,28 @@
         <v>64</v>
       </c>
       <c r="E59" s="4">
-        <v>142</v>
+        <v>41</v>
       </c>
       <c r="F59" s="4">
-        <v>9279000000</v>
+        <v>257600</v>
       </c>
       <c r="G59" s="4">
-        <v>296491647585</v>
+        <v>7194743.75</v>
       </c>
       <c r="H59" s="4">
-        <v>30905579033.64108</v>
+        <v>775866.23069073</v>
       </c>
       <c r="I59" s="4">
-        <v>142</v>
+        <v>41</v>
       </c>
       <c r="J59" s="4">
-        <v>9279000000</v>
+        <v>257600</v>
       </c>
       <c r="K59" s="4">
-        <v>296491647585</v>
+        <v>7194743.75</v>
       </c>
       <c r="L59" s="4">
-        <v>30905579034.85206</v>
+        <v>775867.00660642</v>
       </c>
       <c r="M59" s="4">
         <v>0</v>
@@ -3935,7 +3923,7 @@
         <v>0</v>
       </c>
       <c r="P59" s="4">
-        <v>-1.210983276367188</v>
+        <v>-0.7759156899992377</v>
       </c>
       <c r="Q59" s="8">
         <v>0</v>
@@ -3955,28 +3943,28 @@
         <v>65</v>
       </c>
       <c r="E60" s="4">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="F60" s="4">
-        <v>257600</v>
+        <v>4515000000</v>
       </c>
       <c r="G60" s="4">
-        <v>7194743.75</v>
+        <v>143275000000</v>
       </c>
       <c r="H60" s="4">
-        <v>775866.23069073</v>
+        <v>15858910442.00818</v>
       </c>
       <c r="I60" s="4">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="J60" s="4">
-        <v>257600</v>
+        <v>4515000000</v>
       </c>
       <c r="K60" s="4">
-        <v>7194743.75</v>
+        <v>143275000000</v>
       </c>
       <c r="L60" s="4">
-        <v>775867.00660642</v>
+        <v>15858910441.91456</v>
       </c>
       <c r="M60" s="4">
         <v>0</v>
@@ -3988,7 +3976,7 @@
         <v>0</v>
       </c>
       <c r="P60" s="4">
-        <v>-0.7759156899992377</v>
+        <v>0.09362030029296875</v>
       </c>
       <c r="Q60" s="8">
         <v>0</v>
@@ -4000,7 +3988,7 @@
         <v>0</v>
       </c>
       <c r="T60" s="8">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="4:20">
@@ -4008,28 +3996,28 @@
         <v>66</v>
       </c>
       <c r="E61" s="4">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="F61" s="4">
-        <v>4515000000</v>
+        <v>92700</v>
       </c>
       <c r="G61" s="4">
-        <v>143275000000</v>
+        <v>2380000</v>
       </c>
       <c r="H61" s="4">
-        <v>15858910442.00818</v>
+        <v>221192.73692632</v>
       </c>
       <c r="I61" s="4">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="J61" s="4">
-        <v>4515000000</v>
+        <v>92700</v>
       </c>
       <c r="K61" s="4">
-        <v>143275000000</v>
+        <v>2380000</v>
       </c>
       <c r="L61" s="4">
-        <v>15858910441.91456</v>
+        <v>221193.73183159</v>
       </c>
       <c r="M61" s="4">
         <v>0</v>
@@ -4041,7 +4029,7 @@
         <v>0</v>
       </c>
       <c r="P61" s="4">
-        <v>0.09362030029296875</v>
+        <v>-0.9949052699957974</v>
       </c>
       <c r="Q61" s="8">
         <v>0</v>
@@ -4053,7 +4041,7 @@
         <v>0</v>
       </c>
       <c r="T61" s="8">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="62" spans="4:20">
@@ -4061,28 +4049,28 @@
         <v>67</v>
       </c>
       <c r="E62" s="4">
-        <v>13</v>
+        <v>612</v>
       </c>
       <c r="F62" s="4">
-        <v>92700</v>
+        <v>34067000000</v>
       </c>
       <c r="G62" s="4">
-        <v>2380000</v>
+        <v>68134000000</v>
       </c>
       <c r="H62" s="4">
-        <v>221192.73692632</v>
+        <v>203179983720.2912</v>
       </c>
       <c r="I62" s="4">
-        <v>13</v>
+        <v>612</v>
       </c>
       <c r="J62" s="4">
-        <v>92700</v>
+        <v>34067000000</v>
       </c>
       <c r="K62" s="4">
-        <v>2380000</v>
+        <v>68134000000</v>
       </c>
       <c r="L62" s="4">
-        <v>221193.73183159</v>
+        <v>203179983719.0609</v>
       </c>
       <c r="M62" s="4">
         <v>0</v>
@@ -4094,7 +4082,7 @@
         <v>0</v>
       </c>
       <c r="P62" s="4">
-        <v>-0.9949052699957974</v>
+        <v>1.2303466796875</v>
       </c>
       <c r="Q62" s="8">
         <v>0</v>
@@ -4106,7 +4094,7 @@
         <v>0</v>
       </c>
       <c r="T62" s="8">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="4:20">
@@ -4114,28 +4102,28 @@
         <v>68</v>
       </c>
       <c r="E63" s="4">
-        <v>612</v>
+        <v>41</v>
       </c>
       <c r="F63" s="4">
-        <v>34067000000</v>
+        <v>740000</v>
       </c>
       <c r="G63" s="4">
-        <v>68134000000</v>
+        <v>1480000</v>
       </c>
       <c r="H63" s="4">
-        <v>203179983720.2912</v>
+        <v>1757853.03694836</v>
       </c>
       <c r="I63" s="4">
-        <v>612</v>
+        <v>41</v>
       </c>
       <c r="J63" s="4">
-        <v>34067000000</v>
+        <v>740000</v>
       </c>
       <c r="K63" s="4">
-        <v>68134000000</v>
+        <v>1480000</v>
       </c>
       <c r="L63" s="4">
-        <v>203179983719.0609</v>
+        <v>1757851.9082123</v>
       </c>
       <c r="M63" s="4">
         <v>0</v>
@@ -4147,7 +4135,7 @@
         <v>0</v>
       </c>
       <c r="P63" s="4">
-        <v>1.2303466796875</v>
+        <v>1.128736060112715</v>
       </c>
       <c r="Q63" s="8">
         <v>0</v>
@@ -4167,28 +4155,28 @@
         <v>69</v>
       </c>
       <c r="E64" s="4">
-        <v>41</v>
+        <v>635</v>
       </c>
       <c r="F64" s="4">
-        <v>740000</v>
+        <v>38003700012</v>
       </c>
       <c r="G64" s="4">
-        <v>1480000</v>
+        <v>359910500000</v>
       </c>
       <c r="H64" s="4">
-        <v>1757853.03694836</v>
+        <v>79629965396.30609</v>
       </c>
       <c r="I64" s="4">
-        <v>41</v>
+        <v>635</v>
       </c>
       <c r="J64" s="4">
-        <v>740000</v>
+        <v>38003700012</v>
       </c>
       <c r="K64" s="4">
-        <v>1480000</v>
+        <v>359910500000</v>
       </c>
       <c r="L64" s="4">
-        <v>1757851.9082123</v>
+        <v>79629965391.87958</v>
       </c>
       <c r="M64" s="4">
         <v>0</v>
@@ -4200,7 +4188,7 @@
         <v>0</v>
       </c>
       <c r="P64" s="4">
-        <v>1.128736060112715</v>
+        <v>4.426513671875</v>
       </c>
       <c r="Q64" s="8">
         <v>0</v>
@@ -4220,28 +4208,28 @@
         <v>70</v>
       </c>
       <c r="E65" s="4">
-        <v>635</v>
+        <v>58</v>
       </c>
       <c r="F65" s="4">
-        <v>38003700012</v>
+        <v>404000</v>
       </c>
       <c r="G65" s="4">
-        <v>359910500000</v>
+        <v>3192000</v>
       </c>
       <c r="H65" s="4">
-        <v>79629965396.30609</v>
+        <v>872575.08754512</v>
       </c>
       <c r="I65" s="4">
-        <v>635</v>
+        <v>58</v>
       </c>
       <c r="J65" s="4">
-        <v>38003700012</v>
+        <v>404000</v>
       </c>
       <c r="K65" s="4">
-        <v>359910500000</v>
+        <v>3192000</v>
       </c>
       <c r="L65" s="4">
-        <v>79629965391.87958</v>
+        <v>872572.8996157</v>
       </c>
       <c r="M65" s="4">
         <v>0</v>
@@ -4253,7 +4241,7 @@
         <v>0</v>
       </c>
       <c r="P65" s="4">
-        <v>4.426513671875</v>
+        <v>2.18792942003347</v>
       </c>
       <c r="Q65" s="8">
         <v>0</v>
@@ -4273,28 +4261,28 @@
         <v>71</v>
       </c>
       <c r="E66" s="4">
-        <v>58</v>
+        <v>2920</v>
       </c>
       <c r="F66" s="4">
-        <v>404000</v>
+        <v>121149862068</v>
       </c>
       <c r="G66" s="4">
-        <v>3192000</v>
+        <v>2050262250000</v>
       </c>
       <c r="H66" s="4">
-        <v>872575.08754512</v>
+        <v>317760367349.7467</v>
       </c>
       <c r="I66" s="4">
-        <v>58</v>
+        <v>2920</v>
       </c>
       <c r="J66" s="4">
-        <v>404000</v>
+        <v>121149862068</v>
       </c>
       <c r="K66" s="4">
-        <v>3192000</v>
+        <v>2050262250000</v>
       </c>
       <c r="L66" s="4">
-        <v>872572.8996157</v>
+        <v>317760367353.1941</v>
       </c>
       <c r="M66" s="4">
         <v>0</v>
@@ -4306,7 +4294,7 @@
         <v>0</v>
       </c>
       <c r="P66" s="4">
-        <v>2.18792942003347</v>
+        <v>-3.4473876953125</v>
       </c>
       <c r="Q66" s="8">
         <v>0</v>
@@ -4318,7 +4306,7 @@
         <v>0</v>
       </c>
       <c r="T66" s="8">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="67" spans="4:20">
@@ -4326,52 +4314,52 @@
         <v>72</v>
       </c>
       <c r="E67" s="4">
-        <v>2920</v>
+        <v>0</v>
       </c>
       <c r="F67" s="4">
-        <v>121149862068</v>
+        <v>0</v>
       </c>
       <c r="G67" s="4">
-        <v>2050262250000</v>
+        <v>0</v>
       </c>
       <c r="H67" s="4">
-        <v>317760367349.7467</v>
+        <v>0</v>
       </c>
       <c r="I67" s="4">
-        <v>2920</v>
+        <v>163</v>
       </c>
       <c r="J67" s="4">
-        <v>121149862068</v>
+        <v>7416195489</v>
       </c>
       <c r="K67" s="4">
-        <v>2050262250000</v>
+        <v>71046500000</v>
       </c>
       <c r="L67" s="4">
-        <v>317760367353.1941</v>
+        <v>2939038095.964425</v>
       </c>
       <c r="M67" s="4">
-        <v>0</v>
+        <v>-163</v>
       </c>
       <c r="N67" s="4">
-        <v>0</v>
+        <v>-7416195489</v>
       </c>
       <c r="O67" s="4">
-        <v>0</v>
+        <v>-71046500000</v>
       </c>
       <c r="P67" s="4">
-        <v>-3.4473876953125</v>
+        <v>-2939038095.964425</v>
       </c>
       <c r="Q67" s="8">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R67" s="8">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S67" s="8">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="T67" s="8">
-        <v>-0</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="68" spans="4:20">
@@ -4379,52 +4367,52 @@
         <v>73</v>
       </c>
       <c r="E68" s="4">
-        <v>0</v>
+        <v>173</v>
       </c>
       <c r="F68" s="4">
-        <v>0</v>
+        <v>29249999996</v>
       </c>
       <c r="G68" s="4">
-        <v>0</v>
+        <v>1067293211378</v>
       </c>
       <c r="H68" s="4">
-        <v>0</v>
+        <v>85611355535.15562</v>
       </c>
       <c r="I68" s="4">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="J68" s="4">
-        <v>7416195489</v>
+        <v>29249999996</v>
       </c>
       <c r="K68" s="4">
-        <v>71046500000</v>
+        <v>1067293211378</v>
       </c>
       <c r="L68" s="4">
-        <v>2939038095.964425</v>
+        <v>85611355539.87486</v>
       </c>
       <c r="M68" s="4">
-        <v>-163</v>
+        <v>0</v>
       </c>
       <c r="N68" s="4">
-        <v>-7416195489</v>
+        <v>0</v>
       </c>
       <c r="O68" s="4">
-        <v>-71046500000</v>
+        <v>0</v>
       </c>
       <c r="P68" s="4">
-        <v>-2939038095.964425</v>
+        <v>-4.71923828125</v>
       </c>
       <c r="Q68" s="8">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R68" s="8">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S68" s="8">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T68" s="8">
-        <v>-100</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="69" spans="4:20">
@@ -4432,28 +4420,28 @@
         <v>74</v>
       </c>
       <c r="E69" s="4">
-        <v>173</v>
+        <v>85</v>
       </c>
       <c r="F69" s="4">
-        <v>29249999996</v>
+        <v>1222000</v>
       </c>
       <c r="G69" s="4">
-        <v>1067293211378</v>
+        <v>34803060</v>
       </c>
       <c r="H69" s="4">
-        <v>85611355535.15562</v>
+        <v>3876869.36892884</v>
       </c>
       <c r="I69" s="4">
-        <v>173</v>
+        <v>85</v>
       </c>
       <c r="J69" s="4">
-        <v>29249999996</v>
+        <v>1222000</v>
       </c>
       <c r="K69" s="4">
-        <v>1067293211378</v>
+        <v>34803060</v>
       </c>
       <c r="L69" s="4">
-        <v>85611355539.87486</v>
+        <v>3876878.922051013</v>
       </c>
       <c r="M69" s="4">
         <v>0</v>
@@ -4465,7 +4453,7 @@
         <v>0</v>
       </c>
       <c r="P69" s="4">
-        <v>-4.71923828125</v>
+        <v>-9.553122173063457</v>
       </c>
       <c r="Q69" s="8">
         <v>0</v>
@@ -4485,28 +4473,28 @@
         <v>75</v>
       </c>
       <c r="E70" s="4">
-        <v>85</v>
+        <v>40</v>
       </c>
       <c r="F70" s="4">
-        <v>1222000</v>
+        <v>6833000000</v>
       </c>
       <c r="G70" s="4">
-        <v>34803060</v>
+        <v>227010000000</v>
       </c>
       <c r="H70" s="4">
-        <v>3876869.36892884</v>
+        <v>19096087724.97989</v>
       </c>
       <c r="I70" s="4">
-        <v>85</v>
+        <v>40</v>
       </c>
       <c r="J70" s="4">
-        <v>1222000</v>
+        <v>6833000000</v>
       </c>
       <c r="K70" s="4">
-        <v>34803060</v>
+        <v>227010000000</v>
       </c>
       <c r="L70" s="4">
-        <v>3876878.922051013</v>
+        <v>19096087727.30881</v>
       </c>
       <c r="M70" s="4">
         <v>0</v>
@@ -4518,7 +4506,7 @@
         <v>0</v>
       </c>
       <c r="P70" s="4">
-        <v>-9.553122173063457</v>
+        <v>-2.32891845703125</v>
       </c>
       <c r="Q70" s="8">
         <v>0</v>
@@ -4538,28 +4526,28 @@
         <v>76</v>
       </c>
       <c r="E71" s="4">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="F71" s="4">
-        <v>6833000000</v>
+        <v>88000</v>
       </c>
       <c r="G71" s="4">
-        <v>227010000000</v>
+        <v>2840000</v>
       </c>
       <c r="H71" s="4">
-        <v>19096087724.97989</v>
+        <v>76797</v>
       </c>
       <c r="I71" s="4">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="J71" s="4">
-        <v>6833000000</v>
+        <v>88000</v>
       </c>
       <c r="K71" s="4">
-        <v>227010000000</v>
+        <v>2840000</v>
       </c>
       <c r="L71" s="4">
-        <v>19096087727.30881</v>
+        <v>76795.86629483</v>
       </c>
       <c r="M71" s="4">
         <v>0</v>
@@ -4571,7 +4559,7 @@
         <v>0</v>
       </c>
       <c r="P71" s="4">
-        <v>-2.32891845703125</v>
+        <v>1.133705169995665</v>
       </c>
       <c r="Q71" s="8">
         <v>0</v>
@@ -4583,7 +4571,7 @@
         <v>0</v>
       </c>
       <c r="T71" s="8">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="4:20">
@@ -4591,28 +4579,28 @@
         <v>77</v>
       </c>
       <c r="E72" s="4">
-        <v>7</v>
+        <v>913</v>
       </c>
       <c r="F72" s="4">
-        <v>88000</v>
+        <v>47278666667</v>
       </c>
       <c r="G72" s="4">
-        <v>2840000</v>
+        <v>70615500000</v>
       </c>
       <c r="H72" s="4">
-        <v>76797</v>
+        <v>322129993794.8084</v>
       </c>
       <c r="I72" s="4">
-        <v>7</v>
+        <v>913</v>
       </c>
       <c r="J72" s="4">
-        <v>88000</v>
+        <v>47278666667</v>
       </c>
       <c r="K72" s="4">
-        <v>2840000</v>
+        <v>70615500000</v>
       </c>
       <c r="L72" s="4">
-        <v>76795.86629483</v>
+        <v>322129993797.9156</v>
       </c>
       <c r="M72" s="4">
         <v>0</v>
@@ -4624,7 +4612,7 @@
         <v>0</v>
       </c>
       <c r="P72" s="4">
-        <v>1.133705169995665</v>
+        <v>-3.107177734375</v>
       </c>
       <c r="Q72" s="8">
         <v>0</v>
@@ -4636,7 +4624,7 @@
         <v>0</v>
       </c>
       <c r="T72" s="8">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="73" spans="4:20">
@@ -4644,28 +4632,28 @@
         <v>78</v>
       </c>
       <c r="E73" s="4">
-        <v>913</v>
+        <v>275</v>
       </c>
       <c r="F73" s="4">
-        <v>47278666667</v>
+        <v>1909000</v>
       </c>
       <c r="G73" s="4">
-        <v>70615500000</v>
+        <v>2825750</v>
       </c>
       <c r="H73" s="4">
-        <v>322129993794.8084</v>
+        <v>5055292.04307944</v>
       </c>
       <c r="I73" s="4">
-        <v>913</v>
+        <v>275</v>
       </c>
       <c r="J73" s="4">
-        <v>47278666667</v>
+        <v>1909000</v>
       </c>
       <c r="K73" s="4">
-        <v>70615500000</v>
+        <v>2825750</v>
       </c>
       <c r="L73" s="4">
-        <v>322129993797.9156</v>
+        <v>5055284.79453476</v>
       </c>
       <c r="M73" s="4">
         <v>0</v>
@@ -4677,7 +4665,7 @@
         <v>0</v>
       </c>
       <c r="P73" s="4">
-        <v>-3.107177734375</v>
+        <v>7.248544680885971</v>
       </c>
       <c r="Q73" s="8">
         <v>0</v>
@@ -4689,7 +4677,7 @@
         <v>0</v>
       </c>
       <c r="T73" s="8">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="4:20">
@@ -4697,28 +4685,28 @@
         <v>79</v>
       </c>
       <c r="E74" s="4">
-        <v>275</v>
+        <v>200</v>
       </c>
       <c r="F74" s="4">
-        <v>1909000</v>
+        <v>2542900012</v>
       </c>
       <c r="G74" s="4">
-        <v>2825750</v>
+        <v>74763000000</v>
       </c>
       <c r="H74" s="4">
-        <v>5055292.04307944</v>
+        <v>7002930222.043217</v>
       </c>
       <c r="I74" s="4">
-        <v>275</v>
+        <v>200</v>
       </c>
       <c r="J74" s="4">
-        <v>1909000</v>
+        <v>2542900012</v>
       </c>
       <c r="K74" s="4">
-        <v>2825750</v>
+        <v>74763000000</v>
       </c>
       <c r="L74" s="4">
-        <v>5055284.79453476</v>
+        <v>7002930225.071619</v>
       </c>
       <c r="M74" s="4">
         <v>0</v>
@@ -4730,7 +4718,7 @@
         <v>0</v>
       </c>
       <c r="P74" s="4">
-        <v>7.248544680885971</v>
+        <v>-3.028402328491211</v>
       </c>
       <c r="Q74" s="8">
         <v>0</v>
@@ -4742,7 +4730,7 @@
         <v>0</v>
       </c>
       <c r="T74" s="8">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="75" spans="4:20">
@@ -4750,28 +4738,28 @@
         <v>80</v>
       </c>
       <c r="E75" s="4">
-        <v>200</v>
+        <v>1171</v>
       </c>
       <c r="F75" s="4">
-        <v>2542900012</v>
+        <v>90208186690</v>
       </c>
       <c r="G75" s="4">
-        <v>74763000000</v>
+        <v>1036951666666</v>
       </c>
       <c r="H75" s="4">
-        <v>7002930222.043217</v>
+        <v>164346074449.9677</v>
       </c>
       <c r="I75" s="4">
-        <v>200</v>
+        <v>1171</v>
       </c>
       <c r="J75" s="4">
-        <v>2542900012</v>
+        <v>90208186690</v>
       </c>
       <c r="K75" s="4">
-        <v>74763000000</v>
+        <v>1036951666666</v>
       </c>
       <c r="L75" s="4">
-        <v>7002930225.071619</v>
+        <v>164346074465.2018</v>
       </c>
       <c r="M75" s="4">
         <v>0</v>
@@ -4783,7 +4771,7 @@
         <v>0</v>
       </c>
       <c r="P75" s="4">
-        <v>-3.028402328491211</v>
+        <v>-15.23410034179688</v>
       </c>
       <c r="Q75" s="8">
         <v>0</v>
@@ -4803,28 +4791,28 @@
         <v>81</v>
       </c>
       <c r="E76" s="4">
-        <v>1171</v>
+        <v>789</v>
       </c>
       <c r="F76" s="4">
-        <v>90208186690</v>
+        <v>5735172</v>
       </c>
       <c r="G76" s="4">
-        <v>1036951666666</v>
+        <v>63011540</v>
       </c>
       <c r="H76" s="4">
-        <v>164346074449.9677</v>
+        <v>12219606.65024785</v>
       </c>
       <c r="I76" s="4">
-        <v>1171</v>
+        <v>789</v>
       </c>
       <c r="J76" s="4">
-        <v>90208186690</v>
+        <v>5735172</v>
       </c>
       <c r="K76" s="4">
-        <v>1036951666666</v>
+        <v>63011540</v>
       </c>
       <c r="L76" s="4">
-        <v>164346074465.2018</v>
+        <v>12219614.22563196</v>
       </c>
       <c r="M76" s="4">
         <v>0</v>
@@ -4836,7 +4824,7 @@
         <v>0</v>
       </c>
       <c r="P76" s="4">
-        <v>-15.23410034179688</v>
+        <v>-7.575384110212326</v>
       </c>
       <c r="Q76" s="8">
         <v>0</v>
@@ -4856,28 +4844,28 @@
         <v>82</v>
       </c>
       <c r="E77" s="4">
-        <v>789</v>
+        <v>32</v>
       </c>
       <c r="F77" s="4">
-        <v>5735172</v>
+        <v>986000000</v>
       </c>
       <c r="G77" s="4">
-        <v>63011540</v>
+        <v>5105000000</v>
       </c>
       <c r="H77" s="4">
-        <v>12219606.65024785</v>
+        <v>9326870883.832888</v>
       </c>
       <c r="I77" s="4">
-        <v>789</v>
+        <v>32</v>
       </c>
       <c r="J77" s="4">
-        <v>5735172</v>
+        <v>986000000</v>
       </c>
       <c r="K77" s="4">
-        <v>63011540</v>
+        <v>5105000000</v>
       </c>
       <c r="L77" s="4">
-        <v>12219614.22563196</v>
+        <v>9326870883.986307</v>
       </c>
       <c r="M77" s="4">
         <v>0</v>
@@ -4889,7 +4877,7 @@
         <v>0</v>
       </c>
       <c r="P77" s="4">
-        <v>-7.575384110212326</v>
+        <v>-0.1534194946289062</v>
       </c>
       <c r="Q77" s="8">
         <v>0</v>
@@ -4909,28 +4897,28 @@
         <v>83</v>
       </c>
       <c r="E78" s="4">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="F78" s="4">
-        <v>986000000</v>
+        <v>119900</v>
       </c>
       <c r="G78" s="4">
-        <v>5105000000</v>
+        <v>2200000</v>
       </c>
       <c r="H78" s="4">
-        <v>9326870883.832888</v>
+        <v>1035949.55371793</v>
       </c>
       <c r="I78" s="4">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="J78" s="4">
-        <v>986000000</v>
+        <v>119900</v>
       </c>
       <c r="K78" s="4">
-        <v>5105000000</v>
+        <v>2200000</v>
       </c>
       <c r="L78" s="4">
-        <v>9326870883.986307</v>
+        <v>1035949.88061497</v>
       </c>
       <c r="M78" s="4">
         <v>0</v>
@@ -4942,7 +4930,7 @@
         <v>0</v>
       </c>
       <c r="P78" s="4">
-        <v>-0.1534194946289062</v>
+        <v>-0.3268970400094986</v>
       </c>
       <c r="Q78" s="8">
         <v>0</v>
@@ -4962,28 +4950,28 @@
         <v>84</v>
       </c>
       <c r="E79" s="4">
-        <v>44</v>
+        <v>608</v>
       </c>
       <c r="F79" s="4">
-        <v>119900</v>
+        <v>104087049244</v>
       </c>
       <c r="G79" s="4">
-        <v>2200000</v>
+        <v>3556325267142</v>
       </c>
       <c r="H79" s="4">
-        <v>1035949.55371793</v>
+        <v>282701385448.1845</v>
       </c>
       <c r="I79" s="4">
-        <v>44</v>
+        <v>608</v>
       </c>
       <c r="J79" s="4">
-        <v>119900</v>
+        <v>104087049244</v>
       </c>
       <c r="K79" s="4">
-        <v>2200000</v>
+        <v>3556325267142</v>
       </c>
       <c r="L79" s="4">
-        <v>1035949.88061497</v>
+        <v>282701385459.466</v>
       </c>
       <c r="M79" s="4">
         <v>0</v>
@@ -4995,7 +4983,7 @@
         <v>0</v>
       </c>
       <c r="P79" s="4">
-        <v>-0.3268970400094986</v>
+        <v>-11.281494140625</v>
       </c>
       <c r="Q79" s="8">
         <v>0</v>
@@ -5015,28 +5003,28 @@
         <v>85</v>
       </c>
       <c r="E80" s="4">
-        <v>608</v>
+        <v>536</v>
       </c>
       <c r="F80" s="4">
-        <v>104087049244</v>
+        <v>8677480</v>
       </c>
       <c r="G80" s="4">
-        <v>3556325267142</v>
+        <v>246986915.488</v>
       </c>
       <c r="H80" s="4">
-        <v>282701385448.1845</v>
+        <v>29252524.07175093</v>
       </c>
       <c r="I80" s="4">
-        <v>608</v>
+        <v>536</v>
       </c>
       <c r="J80" s="4">
-        <v>104087049244</v>
+        <v>8677480</v>
       </c>
       <c r="K80" s="4">
-        <v>3556325267142</v>
+        <v>246986915.488</v>
       </c>
       <c r="L80" s="4">
-        <v>282701385459.466</v>
+        <v>29252533.92000438</v>
       </c>
       <c r="M80" s="4">
         <v>0</v>
@@ -5048,7 +5036,7 @@
         <v>0</v>
       </c>
       <c r="P80" s="4">
-        <v>-11.281494140625</v>
+        <v>-9.848253447562456</v>
       </c>
       <c r="Q80" s="8">
         <v>0</v>
@@ -5068,28 +5056,28 @@
         <v>86</v>
       </c>
       <c r="E81" s="4">
-        <v>536</v>
+        <v>2459</v>
       </c>
       <c r="F81" s="4">
-        <v>8677480</v>
+        <v>152437239800</v>
       </c>
       <c r="G81" s="4">
-        <v>246986915.488</v>
+        <v>2422585100000</v>
       </c>
       <c r="H81" s="4">
-        <v>29252524.07175093</v>
+        <v>487960378190.5455</v>
       </c>
       <c r="I81" s="4">
-        <v>536</v>
+        <v>2459</v>
       </c>
       <c r="J81" s="4">
-        <v>8677480</v>
+        <v>152437239800</v>
       </c>
       <c r="K81" s="4">
-        <v>246986915.488</v>
+        <v>2422585100000</v>
       </c>
       <c r="L81" s="4">
-        <v>29252533.92000438</v>
+        <v>487960378196.8783</v>
       </c>
       <c r="M81" s="4">
         <v>0</v>
@@ -5101,7 +5089,7 @@
         <v>0</v>
       </c>
       <c r="P81" s="4">
-        <v>-9.848253447562456</v>
+        <v>-6.332763671875</v>
       </c>
       <c r="Q81" s="8">
         <v>0</v>
@@ -5121,28 +5109,28 @@
         <v>87</v>
       </c>
       <c r="E82" s="4">
-        <v>2459</v>
+        <v>2199</v>
       </c>
       <c r="F82" s="4">
-        <v>152437239800</v>
+        <v>13039430</v>
       </c>
       <c r="G82" s="4">
-        <v>2422585100000</v>
+        <v>160683100</v>
       </c>
       <c r="H82" s="4">
-        <v>487960378190.5455</v>
+        <v>63129852.61976525</v>
       </c>
       <c r="I82" s="4">
-        <v>2459</v>
+        <v>2199</v>
       </c>
       <c r="J82" s="4">
-        <v>152437239800</v>
+        <v>13039430</v>
       </c>
       <c r="K82" s="4">
-        <v>2422585100000</v>
+        <v>160683100</v>
       </c>
       <c r="L82" s="4">
-        <v>487960378196.8783</v>
+        <v>63129856.19358157</v>
       </c>
       <c r="M82" s="4">
         <v>0</v>
@@ -5154,7 +5142,7 @@
         <v>0</v>
       </c>
       <c r="P82" s="4">
-        <v>-6.332763671875</v>
+        <v>-3.573816321790218</v>
       </c>
       <c r="Q82" s="8">
         <v>0</v>
@@ -5174,28 +5162,28 @@
         <v>88</v>
       </c>
       <c r="E83" s="4">
-        <v>2199</v>
+        <v>150</v>
       </c>
       <c r="F83" s="4">
-        <v>13039430</v>
+        <v>29329999988</v>
       </c>
       <c r="G83" s="4">
-        <v>160683100</v>
+        <v>882080000000</v>
       </c>
       <c r="H83" s="4">
-        <v>63129852.61976525</v>
+        <v>44979220269.72789</v>
       </c>
       <c r="I83" s="4">
-        <v>2199</v>
+        <v>150</v>
       </c>
       <c r="J83" s="4">
-        <v>13039430</v>
+        <v>29329999988</v>
       </c>
       <c r="K83" s="4">
-        <v>160683100</v>
+        <v>882080000000</v>
       </c>
       <c r="L83" s="4">
-        <v>63129856.19358157</v>
+        <v>44979220268.3381</v>
       </c>
       <c r="M83" s="4">
         <v>0</v>
@@ -5207,7 +5195,7 @@
         <v>0</v>
       </c>
       <c r="P83" s="4">
-        <v>-3.573816321790218</v>
+        <v>1.389793395996094</v>
       </c>
       <c r="Q83" s="8">
         <v>0</v>
@@ -5219,7 +5207,7 @@
         <v>0</v>
       </c>
       <c r="T83" s="8">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="4:20">
@@ -5227,28 +5215,28 @@
         <v>89</v>
       </c>
       <c r="E84" s="4">
-        <v>150</v>
+        <v>105</v>
       </c>
       <c r="F84" s="4">
-        <v>29329999988</v>
+        <v>1971016</v>
       </c>
       <c r="G84" s="4">
-        <v>882080000000</v>
+        <v>47710000</v>
       </c>
       <c r="H84" s="4">
-        <v>44979220269.72789</v>
+        <v>3317620.46903965</v>
       </c>
       <c r="I84" s="4">
-        <v>150</v>
+        <v>105</v>
       </c>
       <c r="J84" s="4">
-        <v>29329999988</v>
+        <v>1971016</v>
       </c>
       <c r="K84" s="4">
-        <v>882080000000</v>
+        <v>47710000</v>
       </c>
       <c r="L84" s="4">
-        <v>44979220268.3381</v>
+        <v>3317615.21724855</v>
       </c>
       <c r="M84" s="4">
         <v>0</v>
@@ -5260,7 +5248,7 @@
         <v>0</v>
       </c>
       <c r="P84" s="4">
-        <v>1.389793395996094</v>
+        <v>5.251791099552065</v>
       </c>
       <c r="Q84" s="8">
         <v>0</v>
@@ -5280,28 +5268,28 @@
         <v>90</v>
       </c>
       <c r="E85" s="4">
-        <v>105</v>
+        <v>7</v>
       </c>
       <c r="F85" s="4">
-        <v>1971016</v>
+        <v>860000000</v>
       </c>
       <c r="G85" s="4">
-        <v>47710000</v>
+        <v>1075000000</v>
       </c>
       <c r="H85" s="4">
-        <v>3317620.46903965</v>
+        <v>884190274</v>
       </c>
       <c r="I85" s="4">
-        <v>105</v>
+        <v>7</v>
       </c>
       <c r="J85" s="4">
-        <v>1971016</v>
+        <v>860000000</v>
       </c>
       <c r="K85" s="4">
-        <v>47710000</v>
+        <v>1075000000</v>
       </c>
       <c r="L85" s="4">
-        <v>3317615.21724855</v>
+        <v>884190273.130392</v>
       </c>
       <c r="M85" s="4">
         <v>0</v>
@@ -5313,7 +5301,7 @@
         <v>0</v>
       </c>
       <c r="P85" s="4">
-        <v>5.251791099552065</v>
+        <v>0.8696080446243286</v>
       </c>
       <c r="Q85" s="8">
         <v>0</v>
@@ -5333,28 +5321,28 @@
         <v>91</v>
       </c>
       <c r="E86" s="4">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F86" s="4">
-        <v>860000000</v>
+        <v>1200000000</v>
       </c>
       <c r="G86" s="4">
-        <v>1075000000</v>
+        <v>1500000000</v>
       </c>
       <c r="H86" s="4">
-        <v>884190274</v>
+        <v>81687683</v>
       </c>
       <c r="I86" s="4">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="J86" s="4">
-        <v>860000000</v>
+        <v>1200000000</v>
       </c>
       <c r="K86" s="4">
-        <v>1075000000</v>
+        <v>1500000000</v>
       </c>
       <c r="L86" s="4">
-        <v>884190273.130392</v>
+        <v>81687683.372245</v>
       </c>
       <c r="M86" s="4">
         <v>0</v>
@@ -5366,7 +5354,7 @@
         <v>0</v>
       </c>
       <c r="P86" s="4">
-        <v>0.8696080446243286</v>
+        <v>-0.3722449988126755</v>
       </c>
       <c r="Q86" s="8">
         <v>0</v>
@@ -5378,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="T86" s="8">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="87" spans="4:20">
@@ -5386,28 +5374,28 @@
         <v>92</v>
       </c>
       <c r="E87" s="4">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F87" s="4">
-        <v>1200000000</v>
+        <v>200000000</v>
       </c>
       <c r="G87" s="4">
-        <v>1500000000</v>
+        <v>250000000</v>
       </c>
       <c r="H87" s="4">
-        <v>81687683</v>
+        <v>272297686</v>
       </c>
       <c r="I87" s="4">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J87" s="4">
-        <v>1200000000</v>
+        <v>200000000</v>
       </c>
       <c r="K87" s="4">
-        <v>1500000000</v>
+        <v>250000000</v>
       </c>
       <c r="L87" s="4">
-        <v>81687683.372245</v>
+        <v>272297684.919824</v>
       </c>
       <c r="M87" s="4">
         <v>0</v>
@@ -5419,7 +5407,7 @@
         <v>0</v>
       </c>
       <c r="P87" s="4">
-        <v>-0.3722449988126755</v>
+        <v>1.080175995826721</v>
       </c>
       <c r="Q87" s="8">
         <v>0</v>
@@ -5431,7 +5419,7 @@
         <v>0</v>
       </c>
       <c r="T87" s="8">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="4:20">
@@ -5439,28 +5427,28 @@
         <v>93</v>
       </c>
       <c r="E88" s="4">
-        <v>6</v>
+        <v>176</v>
       </c>
       <c r="F88" s="4">
-        <v>200000000</v>
+        <v>9700000000</v>
       </c>
       <c r="G88" s="4">
-        <v>250000000</v>
+        <v>19400000000</v>
       </c>
       <c r="H88" s="4">
-        <v>272297686</v>
+        <v>84710349761.52534</v>
       </c>
       <c r="I88" s="4">
-        <v>6</v>
+        <v>176</v>
       </c>
       <c r="J88" s="4">
-        <v>200000000</v>
+        <v>9700000000</v>
       </c>
       <c r="K88" s="4">
-        <v>250000000</v>
+        <v>19400000000</v>
       </c>
       <c r="L88" s="4">
-        <v>272297684.919824</v>
+        <v>84710349763.65268</v>
       </c>
       <c r="M88" s="4">
         <v>0</v>
@@ -5472,7 +5460,7 @@
         <v>0</v>
       </c>
       <c r="P88" s="4">
-        <v>1.080175995826721</v>
+        <v>-2.127334594726562</v>
       </c>
       <c r="Q88" s="8">
         <v>0</v>
@@ -5484,7 +5472,7 @@
         <v>0</v>
       </c>
       <c r="T88" s="8">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="89" spans="4:20">
@@ -5492,28 +5480,28 @@
         <v>94</v>
       </c>
       <c r="E89" s="4">
-        <v>176</v>
+        <v>958</v>
       </c>
       <c r="F89" s="4">
-        <v>9700000000</v>
+        <v>4929000</v>
       </c>
       <c r="G89" s="4">
-        <v>19400000000</v>
+        <v>20680000</v>
       </c>
       <c r="H89" s="4">
-        <v>84710349761.52534</v>
+        <v>41289746.28956178</v>
       </c>
       <c r="I89" s="4">
-        <v>176</v>
+        <v>958</v>
       </c>
       <c r="J89" s="4">
-        <v>9700000000</v>
+        <v>4929000</v>
       </c>
       <c r="K89" s="4">
-        <v>19400000000</v>
+        <v>20680000</v>
       </c>
       <c r="L89" s="4">
-        <v>84710349763.65268</v>
+        <v>41289736.75879184</v>
       </c>
       <c r="M89" s="4">
         <v>0</v>
@@ -5525,7 +5513,7 @@
         <v>0</v>
       </c>
       <c r="P89" s="4">
-        <v>-2.127334594726562</v>
+        <v>9.530769936740398</v>
       </c>
       <c r="Q89" s="8">
         <v>0</v>
@@ -5537,7 +5525,7 @@
         <v>0</v>
       </c>
       <c r="T89" s="8">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="4:20">
@@ -5545,28 +5533,28 @@
         <v>95</v>
       </c>
       <c r="E90" s="4">
-        <v>958</v>
+        <v>292</v>
       </c>
       <c r="F90" s="4">
-        <v>4929000</v>
+        <v>3524500000</v>
       </c>
       <c r="G90" s="4">
-        <v>20680000</v>
+        <v>139944000000</v>
       </c>
       <c r="H90" s="4">
-        <v>41289746.28956178</v>
+        <v>8603716577.748323</v>
       </c>
       <c r="I90" s="4">
-        <v>958</v>
+        <v>292</v>
       </c>
       <c r="J90" s="4">
-        <v>4929000</v>
+        <v>3524500000</v>
       </c>
       <c r="K90" s="4">
-        <v>20680000</v>
+        <v>139944000000</v>
       </c>
       <c r="L90" s="4">
-        <v>41289736.75879184</v>
+        <v>8603716582.764887</v>
       </c>
       <c r="M90" s="4">
         <v>0</v>
@@ -5578,7 +5566,7 @@
         <v>0</v>
       </c>
       <c r="P90" s="4">
-        <v>9.530769936740398</v>
+        <v>-5.016563415527344</v>
       </c>
       <c r="Q90" s="8">
         <v>0</v>
@@ -5590,7 +5578,7 @@
         <v>0</v>
       </c>
       <c r="T90" s="8">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="91" spans="4:20">
@@ -5598,28 +5586,28 @@
         <v>96</v>
       </c>
       <c r="E91" s="4">
-        <v>292</v>
+        <v>74</v>
       </c>
       <c r="F91" s="4">
-        <v>3524500000</v>
+        <v>13890000000</v>
       </c>
       <c r="G91" s="4">
-        <v>139944000000</v>
+        <v>460688305012</v>
       </c>
       <c r="H91" s="4">
-        <v>8603716577.748323</v>
+        <v>26800339816.51972</v>
       </c>
       <c r="I91" s="4">
-        <v>292</v>
+        <v>74</v>
       </c>
       <c r="J91" s="4">
-        <v>3524500000</v>
+        <v>13890000000</v>
       </c>
       <c r="K91" s="4">
-        <v>139944000000</v>
+        <v>460688305012</v>
       </c>
       <c r="L91" s="4">
-        <v>8603716582.764887</v>
+        <v>26800339815.43687</v>
       </c>
       <c r="M91" s="4">
         <v>0</v>
@@ -5631,7 +5619,7 @@
         <v>0</v>
       </c>
       <c r="P91" s="4">
-        <v>-5.016563415527344</v>
+        <v>1.082847595214844</v>
       </c>
       <c r="Q91" s="8">
         <v>0</v>
@@ -5643,7 +5631,7 @@
         <v>0</v>
       </c>
       <c r="T91" s="8">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="4:20">
@@ -5651,28 +5639,28 @@
         <v>97</v>
       </c>
       <c r="E92" s="4">
-        <v>74</v>
+        <v>13</v>
       </c>
       <c r="F92" s="4">
-        <v>13890000000</v>
+        <v>206000</v>
       </c>
       <c r="G92" s="4">
-        <v>460688305012</v>
+        <v>5160000</v>
       </c>
       <c r="H92" s="4">
-        <v>26800339816.51972</v>
+        <v>379594.26532534</v>
       </c>
       <c r="I92" s="4">
-        <v>74</v>
+        <v>13</v>
       </c>
       <c r="J92" s="4">
-        <v>13890000000</v>
+        <v>206000</v>
       </c>
       <c r="K92" s="4">
-        <v>460688305012</v>
+        <v>5160000</v>
       </c>
       <c r="L92" s="4">
-        <v>26800339815.43687</v>
+        <v>379594.24535878</v>
       </c>
       <c r="M92" s="4">
         <v>0</v>
@@ -5684,7 +5672,7 @@
         <v>0</v>
       </c>
       <c r="P92" s="4">
-        <v>1.082847595214844</v>
+        <v>0.01996655995026231</v>
       </c>
       <c r="Q92" s="8">
         <v>0</v>
@@ -5704,28 +5692,28 @@
         <v>98</v>
       </c>
       <c r="E93" s="4">
-        <v>13</v>
+        <v>520</v>
       </c>
       <c r="F93" s="4">
-        <v>206000</v>
+        <v>86246999996</v>
       </c>
       <c r="G93" s="4">
-        <v>5160000</v>
+        <v>3049565320061.2</v>
       </c>
       <c r="H93" s="4">
-        <v>379594.26532534</v>
+        <v>279873162626.0379</v>
       </c>
       <c r="I93" s="4">
-        <v>13</v>
+        <v>520</v>
       </c>
       <c r="J93" s="4">
-        <v>206000</v>
+        <v>86246999996</v>
       </c>
       <c r="K93" s="4">
-        <v>5160000</v>
+        <v>3049565320061.2</v>
       </c>
       <c r="L93" s="4">
-        <v>379594.24535878</v>
+        <v>279873162631.6853</v>
       </c>
       <c r="M93" s="4">
         <v>0</v>
@@ -5737,7 +5725,7 @@
         <v>0</v>
       </c>
       <c r="P93" s="4">
-        <v>0.01996655995026231</v>
+        <v>-5.64739990234375</v>
       </c>
       <c r="Q93" s="8">
         <v>0</v>
@@ -5749,7 +5737,7 @@
         <v>0</v>
       </c>
       <c r="T93" s="8">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="94" spans="4:20">
@@ -5757,28 +5745,28 @@
         <v>99</v>
       </c>
       <c r="E94" s="4">
-        <v>520</v>
+        <v>269</v>
       </c>
       <c r="F94" s="4">
-        <v>86246999996</v>
+        <v>4484358</v>
       </c>
       <c r="G94" s="4">
-        <v>3049565320061.2</v>
+        <v>111968334.558</v>
       </c>
       <c r="H94" s="4">
-        <v>279873162626.0379</v>
+        <v>17268040.14025107</v>
       </c>
       <c r="I94" s="4">
-        <v>520</v>
+        <v>269</v>
       </c>
       <c r="J94" s="4">
-        <v>86246999996</v>
+        <v>4484358</v>
       </c>
       <c r="K94" s="4">
-        <v>3049565320061.2</v>
+        <v>111968334.558</v>
       </c>
       <c r="L94" s="4">
-        <v>279873162631.6853</v>
+        <v>17268045.06969848</v>
       </c>
       <c r="M94" s="4">
         <v>0</v>
@@ -5790,7 +5778,7 @@
         <v>0</v>
       </c>
       <c r="P94" s="4">
-        <v>-5.64739990234375</v>
+        <v>-4.929447408765554</v>
       </c>
       <c r="Q94" s="8">
         <v>0</v>
@@ -5810,28 +5798,28 @@
         <v>100</v>
       </c>
       <c r="E95" s="4">
-        <v>269</v>
+        <v>1825</v>
       </c>
       <c r="F95" s="4">
-        <v>4484358</v>
+        <v>84513149936</v>
       </c>
       <c r="G95" s="4">
-        <v>111968334.558</v>
+        <v>956756250000</v>
       </c>
       <c r="H95" s="4">
-        <v>17268040.14025107</v>
+        <v>247611244559.9596</v>
       </c>
       <c r="I95" s="4">
-        <v>269</v>
+        <v>1825</v>
       </c>
       <c r="J95" s="4">
-        <v>4484358</v>
+        <v>84513149936</v>
       </c>
       <c r="K95" s="4">
-        <v>111968334.558</v>
+        <v>956756250000</v>
       </c>
       <c r="L95" s="4">
-        <v>17268045.06969848</v>
+        <v>247611244560.2027</v>
       </c>
       <c r="M95" s="4">
         <v>0</v>
@@ -5843,7 +5831,7 @@
         <v>0</v>
       </c>
       <c r="P95" s="4">
-        <v>-4.929447408765554</v>
+        <v>-0.243072509765625</v>
       </c>
       <c r="Q95" s="8">
         <v>0</v>
@@ -5863,28 +5851,28 @@
         <v>101</v>
       </c>
       <c r="E96" s="4">
-        <v>1825</v>
+        <v>994</v>
       </c>
       <c r="F96" s="4">
-        <v>84513149936</v>
+        <v>59069355004</v>
       </c>
       <c r="G96" s="4">
-        <v>956756250000</v>
+        <v>460078274980</v>
       </c>
       <c r="H96" s="4">
-        <v>247611244559.9596</v>
+        <v>103522911772.0212</v>
       </c>
       <c r="I96" s="4">
-        <v>1825</v>
+        <v>994</v>
       </c>
       <c r="J96" s="4">
-        <v>84513149936</v>
+        <v>59069355004</v>
       </c>
       <c r="K96" s="4">
-        <v>956756250000</v>
+        <v>460078274980</v>
       </c>
       <c r="L96" s="4">
-        <v>247611244560.2027</v>
+        <v>103522911763.4049</v>
       </c>
       <c r="M96" s="4">
         <v>0</v>
@@ -5896,7 +5884,7 @@
         <v>0</v>
       </c>
       <c r="P96" s="4">
-        <v>-0.243072509765625</v>
+        <v>8.616256713867188</v>
       </c>
       <c r="Q96" s="8">
         <v>0</v>
@@ -5908,7 +5896,7 @@
         <v>0</v>
       </c>
       <c r="T96" s="8">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="4:20">
@@ -5916,28 +5904,28 @@
         <v>102</v>
       </c>
       <c r="E97" s="4">
-        <v>994</v>
+        <v>1095</v>
       </c>
       <c r="F97" s="4">
-        <v>59069355004</v>
+        <v>56241204968</v>
       </c>
       <c r="G97" s="4">
-        <v>460078274980</v>
+        <v>616816789658</v>
       </c>
       <c r="H97" s="4">
-        <v>103522911772.0212</v>
+        <v>149701823341.7014</v>
       </c>
       <c r="I97" s="4">
-        <v>994</v>
+        <v>1095</v>
       </c>
       <c r="J97" s="4">
-        <v>59069355004</v>
+        <v>56241204968</v>
       </c>
       <c r="K97" s="4">
-        <v>460078274980</v>
+        <v>616816789658</v>
       </c>
       <c r="L97" s="4">
-        <v>103522911763.4049</v>
+        <v>149701823349.1089</v>
       </c>
       <c r="M97" s="4">
         <v>0</v>
@@ -5949,7 +5937,7 @@
         <v>0</v>
       </c>
       <c r="P97" s="4">
-        <v>8.616256713867188</v>
+        <v>-7.407501220703125</v>
       </c>
       <c r="Q97" s="8">
         <v>0</v>
@@ -5961,7 +5949,7 @@
         <v>0</v>
       </c>
       <c r="T97" s="8">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="98" spans="4:20">
@@ -5969,28 +5957,28 @@
         <v>103</v>
       </c>
       <c r="E98" s="4">
-        <v>1095</v>
+        <v>75</v>
       </c>
       <c r="F98" s="4">
-        <v>56241204968</v>
+        <v>419096</v>
       </c>
       <c r="G98" s="4">
-        <v>616816789658</v>
+        <v>3710500</v>
       </c>
       <c r="H98" s="4">
-        <v>149701823341.7014</v>
+        <v>1461920.11234057</v>
       </c>
       <c r="I98" s="4">
-        <v>1095</v>
+        <v>75</v>
       </c>
       <c r="J98" s="4">
-        <v>56241204968</v>
+        <v>419096</v>
       </c>
       <c r="K98" s="4">
-        <v>616816789658</v>
+        <v>3710500</v>
       </c>
       <c r="L98" s="4">
-        <v>149701823349.1089</v>
+        <v>1461915.65247695</v>
       </c>
       <c r="M98" s="4">
         <v>0</v>
@@ -6002,7 +5990,7 @@
         <v>0</v>
       </c>
       <c r="P98" s="4">
-        <v>-7.407501220703125</v>
+        <v>4.459863619878888</v>
       </c>
       <c r="Q98" s="8">
         <v>0</v>
@@ -6014,7 +6002,7 @@
         <v>0</v>
       </c>
       <c r="T98" s="8">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="4:20">
@@ -6022,28 +6010,28 @@
         <v>104</v>
       </c>
       <c r="E99" s="4">
-        <v>75</v>
+        <v>4265</v>
       </c>
       <c r="F99" s="4">
-        <v>419096</v>
+        <v>192416028664</v>
       </c>
       <c r="G99" s="4">
-        <v>3710500</v>
+        <v>2960407000020</v>
       </c>
       <c r="H99" s="4">
-        <v>1461920.11234057</v>
+        <v>636261785289.8057</v>
       </c>
       <c r="I99" s="4">
-        <v>75</v>
+        <v>4265</v>
       </c>
       <c r="J99" s="4">
-        <v>419096</v>
+        <v>192416028664</v>
       </c>
       <c r="K99" s="4">
-        <v>3710500</v>
+        <v>2960407000020</v>
       </c>
       <c r="L99" s="4">
-        <v>1461915.65247695</v>
+        <v>636261785303.7876</v>
       </c>
       <c r="M99" s="4">
         <v>0</v>
@@ -6055,7 +6043,7 @@
         <v>0</v>
       </c>
       <c r="P99" s="4">
-        <v>4.459863619878888</v>
+        <v>-13.98193359375</v>
       </c>
       <c r="Q99" s="8">
         <v>0</v>
@@ -6067,7 +6055,7 @@
         <v>0</v>
       </c>
       <c r="T99" s="8">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="100" spans="4:20">
@@ -6075,28 +6063,28 @@
         <v>105</v>
       </c>
       <c r="E100" s="4">
-        <v>4265</v>
+        <v>641</v>
       </c>
       <c r="F100" s="4">
-        <v>192416028664</v>
+        <v>2783880</v>
       </c>
       <c r="G100" s="4">
-        <v>2960407000020</v>
+        <v>20367000</v>
       </c>
       <c r="H100" s="4">
-        <v>636261785289.8057</v>
+        <v>10994139.95426894</v>
       </c>
       <c r="I100" s="4">
-        <v>4265</v>
+        <v>641</v>
       </c>
       <c r="J100" s="4">
-        <v>192416028664</v>
+        <v>2783880</v>
       </c>
       <c r="K100" s="4">
-        <v>2960407000020</v>
+        <v>20367000</v>
       </c>
       <c r="L100" s="4">
-        <v>636261785303.7876</v>
+        <v>10994125.69856169</v>
       </c>
       <c r="M100" s="4">
         <v>0</v>
@@ -6108,7 +6096,7 @@
         <v>0</v>
       </c>
       <c r="P100" s="4">
-        <v>-13.98193359375</v>
+        <v>14.25570725090802</v>
       </c>
       <c r="Q100" s="8">
         <v>0</v>
@@ -6120,7 +6108,7 @@
         <v>0</v>
       </c>
       <c r="T100" s="8">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="4:20">
@@ -6128,28 +6116,28 @@
         <v>106</v>
       </c>
       <c r="E101" s="4">
-        <v>641</v>
+        <v>1556</v>
       </c>
       <c r="F101" s="4">
-        <v>2783880</v>
+        <v>14901432928</v>
       </c>
       <c r="G101" s="4">
-        <v>20367000</v>
+        <v>961019165000</v>
       </c>
       <c r="H101" s="4">
-        <v>10994139.95426894</v>
+        <v>19545790332.38784</v>
       </c>
       <c r="I101" s="4">
-        <v>641</v>
+        <v>1556</v>
       </c>
       <c r="J101" s="4">
-        <v>2783880</v>
+        <v>14901432928</v>
       </c>
       <c r="K101" s="4">
-        <v>20367000</v>
+        <v>961019165000</v>
       </c>
       <c r="L101" s="4">
-        <v>10994125.69856169</v>
+        <v>19545790319.09257</v>
       </c>
       <c r="M101" s="4">
         <v>0</v>
@@ -6161,7 +6149,7 @@
         <v>0</v>
       </c>
       <c r="P101" s="4">
-        <v>14.25570725090802</v>
+        <v>13.29526519775391</v>
       </c>
       <c r="Q101" s="8">
         <v>0</v>
@@ -6181,28 +6169,28 @@
         <v>107</v>
       </c>
       <c r="E102" s="4">
-        <v>1556</v>
+        <v>499</v>
       </c>
       <c r="F102" s="4">
-        <v>14901432928</v>
+        <v>26702000000</v>
       </c>
       <c r="G102" s="4">
-        <v>961019165000</v>
+        <v>53404000000</v>
       </c>
       <c r="H102" s="4">
-        <v>19545790332.38784</v>
+        <v>257480166690.673</v>
       </c>
       <c r="I102" s="4">
-        <v>1556</v>
+        <v>499</v>
       </c>
       <c r="J102" s="4">
-        <v>14901432928</v>
+        <v>26702000000</v>
       </c>
       <c r="K102" s="4">
-        <v>961019165000</v>
+        <v>53404000000</v>
       </c>
       <c r="L102" s="4">
-        <v>19545790319.09257</v>
+        <v>257480166691.687</v>
       </c>
       <c r="M102" s="4">
         <v>0</v>
@@ -6214,7 +6202,7 @@
         <v>0</v>
       </c>
       <c r="P102" s="4">
-        <v>13.29526519775391</v>
+        <v>-1.014007568359375</v>
       </c>
       <c r="Q102" s="8">
         <v>0</v>
@@ -6226,7 +6214,7 @@
         <v>0</v>
       </c>
       <c r="T102" s="8">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="103" spans="4:20">
@@ -6234,28 +6222,28 @@
         <v>108</v>
       </c>
       <c r="E103" s="4">
-        <v>499</v>
+        <v>292</v>
       </c>
       <c r="F103" s="4">
-        <v>26702000000</v>
+        <v>5286000</v>
       </c>
       <c r="G103" s="4">
-        <v>53404000000</v>
+        <v>10572000</v>
       </c>
       <c r="H103" s="4">
-        <v>257480166690.673</v>
+        <v>17335951.1741857</v>
       </c>
       <c r="I103" s="4">
-        <v>499</v>
+        <v>292</v>
       </c>
       <c r="J103" s="4">
-        <v>26702000000</v>
+        <v>5286000</v>
       </c>
       <c r="K103" s="4">
-        <v>53404000000</v>
+        <v>10572000</v>
       </c>
       <c r="L103" s="4">
-        <v>257480166691.687</v>
+        <v>17335954.47177726</v>
       </c>
       <c r="M103" s="4">
         <v>0</v>
@@ -6267,7 +6255,7 @@
         <v>0</v>
       </c>
       <c r="P103" s="4">
-        <v>-1.014007568359375</v>
+        <v>-3.297591559588909</v>
       </c>
       <c r="Q103" s="8">
         <v>0</v>
@@ -6287,28 +6275,28 @@
         <v>109</v>
       </c>
       <c r="E104" s="4">
-        <v>292</v>
+        <v>1038</v>
       </c>
       <c r="F104" s="4">
-        <v>5286000</v>
+        <v>17357850000</v>
       </c>
       <c r="G104" s="4">
-        <v>10572000</v>
+        <v>26036775000</v>
       </c>
       <c r="H104" s="4">
-        <v>17335951.1741857</v>
+        <v>230539301424.9106</v>
       </c>
       <c r="I104" s="4">
-        <v>292</v>
+        <v>1038</v>
       </c>
       <c r="J104" s="4">
-        <v>5286000</v>
+        <v>17357850000</v>
       </c>
       <c r="K104" s="4">
-        <v>10572000</v>
+        <v>26036775000</v>
       </c>
       <c r="L104" s="4">
-        <v>17335954.47177726</v>
+        <v>230539301433.7097</v>
       </c>
       <c r="M104" s="4">
         <v>0</v>
@@ -6320,7 +6308,7 @@
         <v>0</v>
       </c>
       <c r="P104" s="4">
-        <v>-3.297591559588909</v>
+        <v>-8.799102783203125</v>
       </c>
       <c r="Q104" s="8">
         <v>0</v>
@@ -6340,28 +6328,28 @@
         <v>110</v>
       </c>
       <c r="E105" s="4">
-        <v>1038</v>
+        <v>609</v>
       </c>
       <c r="F105" s="4">
-        <v>17357850000</v>
+        <v>922500</v>
       </c>
       <c r="G105" s="4">
-        <v>26036775000</v>
+        <v>1383750</v>
       </c>
       <c r="H105" s="4">
-        <v>230539301424.9106</v>
+        <v>10410180.53041196</v>
       </c>
       <c r="I105" s="4">
-        <v>1038</v>
+        <v>609</v>
       </c>
       <c r="J105" s="4">
-        <v>17357850000</v>
+        <v>922500</v>
       </c>
       <c r="K105" s="4">
-        <v>26036775000</v>
+        <v>1383750</v>
       </c>
       <c r="L105" s="4">
-        <v>230539301433.7097</v>
+        <v>10410186.82969895</v>
       </c>
       <c r="M105" s="4">
         <v>0</v>
@@ -6373,7 +6361,7 @@
         <v>0</v>
       </c>
       <c r="P105" s="4">
-        <v>-8.799102783203125</v>
+        <v>-6.299286983907223</v>
       </c>
       <c r="Q105" s="8">
         <v>0</v>
@@ -6393,52 +6381,52 @@
         <v>111</v>
       </c>
       <c r="E106" s="4">
-        <v>609</v>
+        <v>0</v>
       </c>
       <c r="F106" s="4">
-        <v>922500</v>
+        <v>0</v>
       </c>
       <c r="G106" s="4">
-        <v>1383750</v>
+        <v>0</v>
       </c>
       <c r="H106" s="4">
-        <v>10410180.53041196</v>
+        <v>0</v>
       </c>
       <c r="I106" s="4">
-        <v>609</v>
+        <v>2246</v>
       </c>
       <c r="J106" s="4">
-        <v>922500</v>
+        <v>85480971455</v>
       </c>
       <c r="K106" s="4">
-        <v>1383750</v>
+        <v>813790230000</v>
       </c>
       <c r="L106" s="4">
-        <v>10410186.82969895</v>
+        <v>35063504837.30567</v>
       </c>
       <c r="M106" s="4">
-        <v>0</v>
+        <v>-2246</v>
       </c>
       <c r="N106" s="4">
-        <v>0</v>
+        <v>-85480971455</v>
       </c>
       <c r="O106" s="4">
-        <v>0</v>
+        <v>-813790230000</v>
       </c>
       <c r="P106" s="4">
-        <v>-6.299286983907223</v>
+        <v>-35063504837.30567</v>
       </c>
       <c r="Q106" s="8">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R106" s="8">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S106" s="8">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="T106" s="8">
-        <v>-0</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="107" spans="4:20">
@@ -6446,52 +6434,52 @@
         <v>112</v>
       </c>
       <c r="E107" s="4">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="F107" s="4">
-        <v>0</v>
+        <v>3425115000</v>
       </c>
       <c r="G107" s="4">
-        <v>0</v>
+        <v>107127500000</v>
       </c>
       <c r="H107" s="4">
-        <v>0</v>
+        <v>4289439006.71462</v>
       </c>
       <c r="I107" s="4">
-        <v>2246</v>
+        <v>47</v>
       </c>
       <c r="J107" s="4">
-        <v>85480971455</v>
+        <v>3425115000</v>
       </c>
       <c r="K107" s="4">
-        <v>813790230000</v>
+        <v>107127500000</v>
       </c>
       <c r="L107" s="4">
-        <v>35063504837.30567</v>
+        <v>4289439005.239581</v>
       </c>
       <c r="M107" s="4">
-        <v>-2246</v>
+        <v>0</v>
       </c>
       <c r="N107" s="4">
-        <v>-85480971455</v>
+        <v>0</v>
       </c>
       <c r="O107" s="4">
-        <v>-813790230000</v>
+        <v>0</v>
       </c>
       <c r="P107" s="4">
-        <v>-35063504837.30567</v>
+        <v>1.475039005279541</v>
       </c>
       <c r="Q107" s="8">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R107" s="8">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S107" s="8">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T107" s="8">
-        <v>-100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="4:20">
@@ -6499,28 +6487,28 @@
         <v>113</v>
       </c>
       <c r="E108" s="4">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="F108" s="4">
-        <v>3425115000</v>
+        <v>123497</v>
       </c>
       <c r="G108" s="4">
-        <v>107127500000</v>
+        <v>3327525</v>
       </c>
       <c r="H108" s="4">
-        <v>4289439006.71462</v>
+        <v>159782.96886387</v>
       </c>
       <c r="I108" s="4">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="J108" s="4">
-        <v>3425115000</v>
+        <v>123497</v>
       </c>
       <c r="K108" s="4">
-        <v>107127500000</v>
+        <v>3327525</v>
       </c>
       <c r="L108" s="4">
-        <v>4289439005.239581</v>
+        <v>159782.36608819</v>
       </c>
       <c r="M108" s="4">
         <v>0</v>
@@ -6532,7 +6520,7 @@
         <v>0</v>
       </c>
       <c r="P108" s="4">
-        <v>1.475039005279541</v>
+        <v>0.6027756800176576</v>
       </c>
       <c r="Q108" s="8">
         <v>0</v>
@@ -6552,28 +6540,28 @@
         <v>114</v>
       </c>
       <c r="E109" s="4">
-        <v>17</v>
+        <v>202</v>
       </c>
       <c r="F109" s="4">
-        <v>123497</v>
+        <v>14987400000</v>
       </c>
       <c r="G109" s="4">
-        <v>3327525</v>
+        <v>475200000000</v>
       </c>
       <c r="H109" s="4">
-        <v>159782.96886387</v>
+        <v>39590969650.67671</v>
       </c>
       <c r="I109" s="4">
-        <v>17</v>
+        <v>202</v>
       </c>
       <c r="J109" s="4">
-        <v>123497</v>
+        <v>14987400000</v>
       </c>
       <c r="K109" s="4">
-        <v>3327525</v>
+        <v>475200000000</v>
       </c>
       <c r="L109" s="4">
-        <v>159782.36608819</v>
+        <v>39590969644.66687</v>
       </c>
       <c r="M109" s="4">
         <v>0</v>
@@ -6585,7 +6573,7 @@
         <v>0</v>
       </c>
       <c r="P109" s="4">
-        <v>0.6027756800176576</v>
+        <v>6.009841918945312</v>
       </c>
       <c r="Q109" s="8">
         <v>0</v>
@@ -6605,28 +6593,28 @@
         <v>115</v>
       </c>
       <c r="E110" s="4">
-        <v>202</v>
+        <v>40</v>
       </c>
       <c r="F110" s="4">
-        <v>14987400000</v>
+        <v>304900</v>
       </c>
       <c r="G110" s="4">
-        <v>475200000000</v>
+        <v>7852999.82</v>
       </c>
       <c r="H110" s="4">
-        <v>39590969650.67671</v>
+        <v>1242377.18122621</v>
       </c>
       <c r="I110" s="4">
-        <v>202</v>
+        <v>40</v>
       </c>
       <c r="J110" s="4">
-        <v>14987400000</v>
+        <v>304900</v>
       </c>
       <c r="K110" s="4">
-        <v>475200000000</v>
+        <v>7852999.82</v>
       </c>
       <c r="L110" s="4">
-        <v>39590969644.66687</v>
+        <v>1242375.47382279</v>
       </c>
       <c r="M110" s="4">
         <v>0</v>
@@ -6638,7 +6626,7 @@
         <v>0</v>
       </c>
       <c r="P110" s="4">
-        <v>6.009841918945312</v>
+        <v>1.707403420004994</v>
       </c>
       <c r="Q110" s="8">
         <v>0</v>
@@ -6658,52 +6646,52 @@
         <v>116</v>
       </c>
       <c r="E111" s="4">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="F111" s="4">
-        <v>304900</v>
+        <v>0</v>
       </c>
       <c r="G111" s="4">
-        <v>7852999.82</v>
+        <v>0</v>
       </c>
       <c r="H111" s="4">
-        <v>1242377.18122621</v>
+        <v>0</v>
       </c>
       <c r="I111" s="4">
-        <v>40</v>
+        <v>94</v>
       </c>
       <c r="J111" s="4">
-        <v>304900</v>
+        <v>3634130451</v>
       </c>
       <c r="K111" s="4">
-        <v>7852999.82</v>
+        <v>29161392193</v>
       </c>
       <c r="L111" s="4">
-        <v>1242375.47382279</v>
+        <v>423702712.009486</v>
       </c>
       <c r="M111" s="4">
-        <v>0</v>
+        <v>-94</v>
       </c>
       <c r="N111" s="4">
-        <v>0</v>
+        <v>-3634130451</v>
       </c>
       <c r="O111" s="4">
-        <v>0</v>
+        <v>-29161392193</v>
       </c>
       <c r="P111" s="4">
-        <v>1.707403420004994</v>
+        <v>-423702712.009486</v>
       </c>
       <c r="Q111" s="8">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R111" s="8">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S111" s="8">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="T111" s="8">
-        <v>0</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="112" spans="4:20">
@@ -6711,52 +6699,52 @@
         <v>117</v>
       </c>
       <c r="E112" s="4">
-        <v>0</v>
+        <v>303</v>
       </c>
       <c r="F112" s="4">
-        <v>0</v>
+        <v>3030000000</v>
       </c>
       <c r="G112" s="4">
-        <v>0</v>
+        <v>4545000000</v>
       </c>
       <c r="H112" s="4">
-        <v>0</v>
+        <v>10401027770.29956</v>
       </c>
       <c r="I112" s="4">
-        <v>94</v>
+        <v>303</v>
       </c>
       <c r="J112" s="4">
-        <v>3634130451</v>
+        <v>3030000000</v>
       </c>
       <c r="K112" s="4">
-        <v>29161392193</v>
+        <v>4545000000</v>
       </c>
       <c r="L112" s="4">
-        <v>423702712.009486</v>
+        <v>10401027770.54882</v>
       </c>
       <c r="M112" s="4">
-        <v>-94</v>
+        <v>0</v>
       </c>
       <c r="N112" s="4">
-        <v>-3634130451</v>
+        <v>0</v>
       </c>
       <c r="O112" s="4">
-        <v>-29161392193</v>
+        <v>0</v>
       </c>
       <c r="P112" s="4">
-        <v>-423702712.009486</v>
+        <v>-0.2492580413818359</v>
       </c>
       <c r="Q112" s="8">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R112" s="8">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S112" s="8">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T112" s="8">
-        <v>-100</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="113" spans="4:20">
@@ -6764,52 +6752,52 @@
         <v>118</v>
       </c>
       <c r="E113" s="4">
-        <v>0</v>
+        <v>104</v>
       </c>
       <c r="F113" s="4">
-        <v>0</v>
+        <v>1040000000</v>
       </c>
       <c r="G113" s="4">
-        <v>0</v>
+        <v>1560000000</v>
       </c>
       <c r="H113" s="4">
-        <v>0</v>
+        <v>12075517337.63058</v>
       </c>
       <c r="I113" s="4">
-        <v>52248</v>
+        <v>104</v>
       </c>
       <c r="J113" s="4">
-        <v>872885262339.7534</v>
+        <v>1040000000</v>
       </c>
       <c r="K113" s="4">
-        <v>13303574343873</v>
+        <v>1560000000</v>
       </c>
       <c r="L113" s="4">
-        <v>282209916916.2486</v>
+        <v>12075517333.26741</v>
       </c>
       <c r="M113" s="4">
-        <v>-52248</v>
+        <v>0</v>
       </c>
       <c r="N113" s="4">
-        <v>-872885262339.7534</v>
+        <v>0</v>
       </c>
       <c r="O113" s="4">
-        <v>-13303574343873</v>
+        <v>0</v>
       </c>
       <c r="P113" s="4">
-        <v>-282209916916.2486</v>
+        <v>4.363166809082031</v>
       </c>
       <c r="Q113" s="8">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R113" s="8">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S113" s="8">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T113" s="8">
-        <v>-100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="4:20">
@@ -6817,28 +6805,28 @@
         <v>119</v>
       </c>
       <c r="E114" s="4">
-        <v>303</v>
+        <v>61</v>
       </c>
       <c r="F114" s="4">
-        <v>3030000000</v>
+        <v>610000000</v>
       </c>
       <c r="G114" s="4">
-        <v>4545000000</v>
+        <v>915000000</v>
       </c>
       <c r="H114" s="4">
-        <v>10401027770.29956</v>
+        <v>21104278485.54998</v>
       </c>
       <c r="I114" s="4">
-        <v>303</v>
+        <v>61</v>
       </c>
       <c r="J114" s="4">
-        <v>3030000000</v>
+        <v>610000000</v>
       </c>
       <c r="K114" s="4">
-        <v>4545000000</v>
+        <v>915000000</v>
       </c>
       <c r="L114" s="4">
-        <v>10401027770.54882</v>
+        <v>21104278485.64953</v>
       </c>
       <c r="M114" s="4">
         <v>0</v>
@@ -6850,7 +6838,7 @@
         <v>0</v>
       </c>
       <c r="P114" s="4">
-        <v>-0.2492580413818359</v>
+        <v>-0.09954833984375</v>
       </c>
       <c r="Q114" s="8">
         <v>0</v>
@@ -6870,28 +6858,28 @@
         <v>120</v>
       </c>
       <c r="E115" s="4">
-        <v>104</v>
+        <v>381</v>
       </c>
       <c r="F115" s="4">
-        <v>1040000000</v>
+        <v>4902000000</v>
       </c>
       <c r="G115" s="4">
-        <v>1560000000</v>
+        <v>7353000000</v>
       </c>
       <c r="H115" s="4">
-        <v>12075517337.63058</v>
+        <v>99115528633.85805</v>
       </c>
       <c r="I115" s="4">
-        <v>104</v>
+        <v>381</v>
       </c>
       <c r="J115" s="4">
-        <v>1040000000</v>
+        <v>4902000000</v>
       </c>
       <c r="K115" s="4">
-        <v>1560000000</v>
+        <v>7353000000</v>
       </c>
       <c r="L115" s="4">
-        <v>12075517333.26741</v>
+        <v>99115528642.65508</v>
       </c>
       <c r="M115" s="4">
         <v>0</v>
@@ -6903,7 +6891,7 @@
         <v>0</v>
       </c>
       <c r="P115" s="4">
-        <v>4.363166809082031</v>
+        <v>-8.797027587890625</v>
       </c>
       <c r="Q115" s="8">
         <v>0</v>
@@ -6915,7 +6903,7 @@
         <v>0</v>
       </c>
       <c r="T115" s="8">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="116" spans="4:20">
@@ -6923,28 +6911,28 @@
         <v>121</v>
       </c>
       <c r="E116" s="4">
-        <v>61</v>
+        <v>888</v>
       </c>
       <c r="F116" s="4">
-        <v>610000000</v>
+        <v>1140097</v>
       </c>
       <c r="G116" s="4">
-        <v>915000000</v>
+        <v>1710145.5</v>
       </c>
       <c r="H116" s="4">
-        <v>21104278485.54998</v>
+        <v>26334697.23952883</v>
       </c>
       <c r="I116" s="4">
-        <v>61</v>
+        <v>888</v>
       </c>
       <c r="J116" s="4">
-        <v>610000000</v>
+        <v>1140097</v>
       </c>
       <c r="K116" s="4">
-        <v>915000000</v>
+        <v>1710145.5</v>
       </c>
       <c r="L116" s="4">
-        <v>21104278485.64953</v>
+        <v>26334698.55652657</v>
       </c>
       <c r="M116" s="4">
         <v>0</v>
@@ -6956,7 +6944,7 @@
         <v>0</v>
       </c>
       <c r="P116" s="4">
-        <v>-0.09954833984375</v>
+        <v>-1.316997736692429</v>
       </c>
       <c r="Q116" s="8">
         <v>0</v>
@@ -6976,52 +6964,52 @@
         <v>122</v>
       </c>
       <c r="E117" s="4">
-        <v>0</v>
+        <v>1166</v>
       </c>
       <c r="F117" s="4">
-        <v>0</v>
+        <v>16083342400</v>
       </c>
       <c r="G117" s="4">
-        <v>0</v>
+        <v>465220900000</v>
       </c>
       <c r="H117" s="4">
-        <v>0</v>
+        <v>17156555404.4443</v>
       </c>
       <c r="I117" s="4">
-        <v>202649</v>
+        <v>1166</v>
       </c>
       <c r="J117" s="4">
-        <v>3709289091386.167</v>
+        <v>16083342400</v>
       </c>
       <c r="K117" s="4">
-        <v>49346112724551</v>
+        <v>465220900000</v>
       </c>
       <c r="L117" s="4">
-        <v>1311058529563.792</v>
+        <v>17156555398.85904</v>
       </c>
       <c r="M117" s="4">
-        <v>-202649</v>
+        <v>0</v>
       </c>
       <c r="N117" s="4">
-        <v>-3709289091386.167</v>
+        <v>0</v>
       </c>
       <c r="O117" s="4">
-        <v>-49346112724551</v>
+        <v>0</v>
       </c>
       <c r="P117" s="4">
-        <v>-1311058529563.792</v>
+        <v>5.585264205932617</v>
       </c>
       <c r="Q117" s="8">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R117" s="8">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S117" s="8">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T117" s="8">
-        <v>-100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="4:20">
@@ -7029,28 +7017,28 @@
         <v>123</v>
       </c>
       <c r="E118" s="4">
-        <v>381</v>
+        <v>2412</v>
       </c>
       <c r="F118" s="4">
-        <v>4902000000</v>
+        <v>11792067792</v>
       </c>
       <c r="G118" s="4">
-        <v>7353000000</v>
+        <v>455556100000</v>
       </c>
       <c r="H118" s="4">
-        <v>99115528633.85805</v>
+        <v>50038060429.84172</v>
       </c>
       <c r="I118" s="4">
-        <v>381</v>
+        <v>2412</v>
       </c>
       <c r="J118" s="4">
-        <v>4902000000</v>
+        <v>11792067792</v>
       </c>
       <c r="K118" s="4">
-        <v>7353000000</v>
+        <v>455556100000</v>
       </c>
       <c r="L118" s="4">
-        <v>99115528642.65508</v>
+        <v>50038060421.54567</v>
       </c>
       <c r="M118" s="4">
         <v>0</v>
@@ -7062,7 +7050,7 @@
         <v>0</v>
       </c>
       <c r="P118" s="4">
-        <v>-8.797027587890625</v>
+        <v>8.296051025390625</v>
       </c>
       <c r="Q118" s="8">
         <v>0</v>
@@ -7074,7 +7062,7 @@
         <v>0</v>
       </c>
       <c r="T118" s="8">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="4:20">
@@ -7082,28 +7070,28 @@
         <v>124</v>
       </c>
       <c r="E119" s="4">
-        <v>888</v>
+        <v>12492</v>
       </c>
       <c r="F119" s="4">
-        <v>1140097</v>
+        <v>69232172925.84</v>
       </c>
       <c r="G119" s="4">
-        <v>1710145.5</v>
+        <v>2695444976000</v>
       </c>
       <c r="H119" s="4">
-        <v>26334697.23952883</v>
+        <v>421046506505.0898</v>
       </c>
       <c r="I119" s="4">
-        <v>888</v>
+        <v>12492</v>
       </c>
       <c r="J119" s="4">
-        <v>1140097</v>
+        <v>69232172925.84</v>
       </c>
       <c r="K119" s="4">
-        <v>1710145.5</v>
+        <v>2695444976000</v>
       </c>
       <c r="L119" s="4">
-        <v>26334698.55652657</v>
+        <v>421046506544.4232</v>
       </c>
       <c r="M119" s="4">
         <v>0</v>
@@ -7115,7 +7103,7 @@
         <v>0</v>
       </c>
       <c r="P119" s="4">
-        <v>-1.316997736692429</v>
+        <v>-39.33343505859375</v>
       </c>
       <c r="Q119" s="8">
         <v>0</v>
@@ -7135,28 +7123,28 @@
         <v>125</v>
       </c>
       <c r="E120" s="4">
-        <v>1166</v>
+        <v>229</v>
       </c>
       <c r="F120" s="4">
-        <v>16083342400</v>
+        <v>709733</v>
       </c>
       <c r="G120" s="4">
-        <v>465220900000</v>
+        <v>20157520</v>
       </c>
       <c r="H120" s="4">
-        <v>17156555404.4443</v>
+        <v>4036405.5117764</v>
       </c>
       <c r="I120" s="4">
-        <v>1166</v>
+        <v>229</v>
       </c>
       <c r="J120" s="4">
-        <v>16083342400</v>
+        <v>709733</v>
       </c>
       <c r="K120" s="4">
-        <v>465220900000</v>
+        <v>20157520</v>
       </c>
       <c r="L120" s="4">
-        <v>17156555398.85904</v>
+        <v>4036401.1398084</v>
       </c>
       <c r="M120" s="4">
         <v>0</v>
@@ -7168,7 +7156,7 @@
         <v>0</v>
       </c>
       <c r="P120" s="4">
-        <v>5.585264205932617</v>
+        <v>4.371967999730259</v>
       </c>
       <c r="Q120" s="8">
         <v>0</v>
@@ -7188,52 +7176,52 @@
         <v>126</v>
       </c>
       <c r="E121" s="4">
-        <v>0</v>
+        <v>121</v>
       </c>
       <c r="F121" s="4">
-        <v>0</v>
+        <v>614000004</v>
       </c>
       <c r="G121" s="4">
-        <v>0</v>
+        <v>18504000000</v>
       </c>
       <c r="H121" s="4">
-        <v>0</v>
+        <v>5075761191.041948</v>
       </c>
       <c r="I121" s="4">
-        <v>5047</v>
+        <v>121</v>
       </c>
       <c r="J121" s="4">
-        <v>91012356553.09792</v>
+        <v>614000004</v>
       </c>
       <c r="K121" s="4">
-        <v>1772975879559</v>
+        <v>18504000000</v>
       </c>
       <c r="L121" s="4">
-        <v>75201186956.06857</v>
+        <v>5075761187.493358</v>
       </c>
       <c r="M121" s="4">
-        <v>-5047</v>
+        <v>0</v>
       </c>
       <c r="N121" s="4">
-        <v>-91012356553.09792</v>
+        <v>0</v>
       </c>
       <c r="O121" s="4">
-        <v>-1772975879559</v>
+        <v>0</v>
       </c>
       <c r="P121" s="4">
-        <v>-75201186956.06857</v>
+        <v>3.548590660095215</v>
       </c>
       <c r="Q121" s="8">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R121" s="8">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S121" s="8">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T121" s="8">
-        <v>-100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="4:20">
@@ -7241,28 +7229,28 @@
         <v>127</v>
       </c>
       <c r="E122" s="4">
-        <v>2412</v>
+        <v>47</v>
       </c>
       <c r="F122" s="4">
-        <v>11792067792</v>
+        <v>1900000000</v>
       </c>
       <c r="G122" s="4">
-        <v>455556100000</v>
+        <v>17900000000</v>
       </c>
       <c r="H122" s="4">
-        <v>50038060429.84172</v>
+        <v>6851493656</v>
       </c>
       <c r="I122" s="4">
-        <v>2412</v>
+        <v>47</v>
       </c>
       <c r="J122" s="4">
-        <v>11792067792</v>
+        <v>1900000000</v>
       </c>
       <c r="K122" s="4">
-        <v>455556100000</v>
+        <v>17900000000</v>
       </c>
       <c r="L122" s="4">
-        <v>50038060421.54567</v>
+        <v>6851493653.961264</v>
       </c>
       <c r="M122" s="4">
         <v>0</v>
@@ -7274,7 +7262,7 @@
         <v>0</v>
       </c>
       <c r="P122" s="4">
-        <v>8.296051025390625</v>
+        <v>2.038736343383789</v>
       </c>
       <c r="Q122" s="8">
         <v>0</v>
@@ -7294,28 +7282,28 @@
         <v>128</v>
       </c>
       <c r="E123" s="4">
-        <v>12492</v>
+        <v>57295</v>
       </c>
       <c r="F123" s="4">
-        <v>69232172925.84</v>
+        <v>963897618892.8513</v>
       </c>
       <c r="G123" s="4">
-        <v>2695444976000</v>
+        <v>15076550223432</v>
       </c>
       <c r="H123" s="4">
-        <v>421046506505.0898</v>
+        <v>357411103966.7427</v>
       </c>
       <c r="I123" s="4">
-        <v>12492</v>
+        <v>57295</v>
       </c>
       <c r="J123" s="4">
-        <v>69232172925.84</v>
+        <v>963897618892.8513</v>
       </c>
       <c r="K123" s="4">
-        <v>2695444976000</v>
+        <v>15076550223432</v>
       </c>
       <c r="L123" s="4">
-        <v>421046506544.4232</v>
+        <v>357411103872.3171</v>
       </c>
       <c r="M123" s="4">
         <v>0</v>
@@ -7327,7 +7315,7 @@
         <v>0</v>
       </c>
       <c r="P123" s="4">
-        <v>-39.33343505859375</v>
+        <v>94.425537109375</v>
       </c>
       <c r="Q123" s="8">
         <v>0</v>
@@ -7339,7 +7327,7 @@
         <v>0</v>
       </c>
       <c r="T123" s="8">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="4:20">
@@ -7347,52 +7335,52 @@
         <v>129</v>
       </c>
       <c r="E124" s="4">
-        <v>229</v>
+        <v>241510</v>
       </c>
       <c r="F124" s="4">
-        <v>709733</v>
+        <v>4458950113323.912</v>
       </c>
       <c r="G124" s="4">
-        <v>20157520</v>
+        <v>64213299870568</v>
       </c>
       <c r="H124" s="4">
-        <v>4036405.5117764</v>
+        <v>1986594661695.707</v>
       </c>
       <c r="I124" s="4">
-        <v>229</v>
+        <v>202649</v>
       </c>
       <c r="J124" s="4">
-        <v>709733</v>
+        <v>3709289091386.167</v>
       </c>
       <c r="K124" s="4">
-        <v>20157520</v>
+        <v>49346112724551</v>
       </c>
       <c r="L124" s="4">
-        <v>4036401.1398084</v>
+        <v>1311058529563.792</v>
       </c>
       <c r="M124" s="4">
-        <v>0</v>
+        <v>38861</v>
       </c>
       <c r="N124" s="4">
-        <v>0</v>
+        <v>749661021937.7451</v>
       </c>
       <c r="O124" s="4">
-        <v>0</v>
+        <v>14867187146017</v>
       </c>
       <c r="P124" s="4">
-        <v>4.371967999730259</v>
+        <v>675536132131.915</v>
       </c>
       <c r="Q124" s="8">
-        <v>0</v>
+        <v>19.2</v>
       </c>
       <c r="R124" s="8">
-        <v>0</v>
+        <v>20.2</v>
       </c>
       <c r="S124" s="8">
-        <v>0</v>
+        <v>30.1</v>
       </c>
       <c r="T124" s="8">
-        <v>0</v>
+        <v>51.5</v>
       </c>
     </row>
     <row r="125" spans="4:20">
@@ -7400,28 +7388,28 @@
         <v>130</v>
       </c>
       <c r="E125" s="4">
-        <v>121</v>
+        <v>815</v>
       </c>
       <c r="F125" s="4">
-        <v>614000004</v>
+        <v>1692235560</v>
       </c>
       <c r="G125" s="4">
-        <v>18504000000</v>
+        <v>44103500001</v>
       </c>
       <c r="H125" s="4">
-        <v>5075761191.041948</v>
+        <v>12580796119.42102</v>
       </c>
       <c r="I125" s="4">
-        <v>121</v>
+        <v>815</v>
       </c>
       <c r="J125" s="4">
-        <v>614000004</v>
+        <v>1692235560</v>
       </c>
       <c r="K125" s="4">
-        <v>18504000000</v>
+        <v>44103500001</v>
       </c>
       <c r="L125" s="4">
-        <v>5075761187.493358</v>
+        <v>12580796116.31516</v>
       </c>
       <c r="M125" s="4">
         <v>0</v>
@@ -7433,7 +7421,7 @@
         <v>0</v>
       </c>
       <c r="P125" s="4">
-        <v>3.548590660095215</v>
+        <v>3.105855941772461</v>
       </c>
       <c r="Q125" s="8">
         <v>0</v>
@@ -7453,28 +7441,28 @@
         <v>131</v>
       </c>
       <c r="E126" s="4">
-        <v>47</v>
+        <v>122</v>
       </c>
       <c r="F126" s="4">
-        <v>1900000000</v>
+        <v>2761308004</v>
       </c>
       <c r="G126" s="4">
-        <v>17900000000</v>
+        <v>69415000000</v>
       </c>
       <c r="H126" s="4">
-        <v>6851493656</v>
+        <v>10402212285.38851</v>
       </c>
       <c r="I126" s="4">
-        <v>47</v>
+        <v>122</v>
       </c>
       <c r="J126" s="4">
-        <v>1900000000</v>
+        <v>2761308004</v>
       </c>
       <c r="K126" s="4">
-        <v>17900000000</v>
+        <v>69415000000</v>
       </c>
       <c r="L126" s="4">
-        <v>6851493653.961264</v>
+        <v>10402212285.44675</v>
       </c>
       <c r="M126" s="4">
         <v>0</v>
@@ -7486,7 +7474,7 @@
         <v>0</v>
       </c>
       <c r="P126" s="4">
-        <v>2.038736343383789</v>
+        <v>-0.05823898315429688</v>
       </c>
       <c r="Q126" s="8">
         <v>0</v>
@@ -7498,7 +7486,7 @@
         <v>0</v>
       </c>
       <c r="T126" s="8">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="127" spans="4:20">
@@ -7506,40 +7494,40 @@
         <v>132</v>
       </c>
       <c r="E127" s="4">
-        <v>57295</v>
+        <v>13</v>
       </c>
       <c r="F127" s="4">
-        <v>963897618892.8513</v>
+        <v>32750</v>
       </c>
       <c r="G127" s="4">
-        <v>15076550223432</v>
+        <v>665000</v>
       </c>
       <c r="H127" s="4">
-        <v>357411103966.7427</v>
+        <v>156142.741174</v>
       </c>
       <c r="I127" s="4">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="J127" s="4">
-        <v>0</v>
+        <v>32750</v>
       </c>
       <c r="K127" s="4">
-        <v>0</v>
+        <v>665000</v>
       </c>
       <c r="L127" s="4">
-        <v>0</v>
+        <v>156143.18049</v>
       </c>
       <c r="M127" s="4">
-        <v>57295</v>
+        <v>0</v>
       </c>
       <c r="N127" s="4">
-        <v>963897618892.8513</v>
+        <v>0</v>
       </c>
       <c r="O127" s="4">
-        <v>15076550223432</v>
+        <v>0</v>
       </c>
       <c r="P127" s="4">
-        <v>357411103966.7427</v>
+        <v>-0.4393160000036005</v>
       </c>
       <c r="Q127" s="8">
         <v>0</v>
@@ -7551,7 +7539,7 @@
         <v>0</v>
       </c>
       <c r="T127" s="8">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="128" spans="4:20">
@@ -7559,40 +7547,40 @@
         <v>133</v>
       </c>
       <c r="E128" s="4">
-        <v>241510</v>
+        <v>176</v>
       </c>
       <c r="F128" s="4">
-        <v>4458950113323.912</v>
+        <v>11879200012</v>
       </c>
       <c r="G128" s="4">
-        <v>64213299870568</v>
+        <v>85565000000</v>
       </c>
       <c r="H128" s="4">
-        <v>1986594661695.707</v>
+        <v>23542689928.30033</v>
       </c>
       <c r="I128" s="4">
-        <v>0</v>
+        <v>176</v>
       </c>
       <c r="J128" s="4">
-        <v>0</v>
+        <v>11879200012</v>
       </c>
       <c r="K128" s="4">
-        <v>0</v>
+        <v>85565000000</v>
       </c>
       <c r="L128" s="4">
-        <v>0</v>
+        <v>23542689923.20346</v>
       </c>
       <c r="M128" s="4">
-        <v>241510</v>
+        <v>0</v>
       </c>
       <c r="N128" s="4">
-        <v>4458950113323.912</v>
+        <v>0</v>
       </c>
       <c r="O128" s="4">
-        <v>64213299870568</v>
+        <v>0</v>
       </c>
       <c r="P128" s="4">
-        <v>1986594661695.707</v>
+        <v>5.096870422363281</v>
       </c>
       <c r="Q128" s="8">
         <v>0</v>
@@ -7612,28 +7600,28 @@
         <v>134</v>
       </c>
       <c r="E129" s="4">
-        <v>815</v>
+        <v>2100</v>
       </c>
       <c r="F129" s="4">
-        <v>1692235560</v>
+        <v>10942799984</v>
       </c>
       <c r="G129" s="4">
-        <v>44103500001</v>
+        <v>314414200040</v>
       </c>
       <c r="H129" s="4">
-        <v>12580796119.42102</v>
+        <v>95950486652.80112</v>
       </c>
       <c r="I129" s="4">
-        <v>815</v>
+        <v>2100</v>
       </c>
       <c r="J129" s="4">
-        <v>1692235560</v>
+        <v>10942799984</v>
       </c>
       <c r="K129" s="4">
-        <v>44103500001</v>
+        <v>314414200040</v>
       </c>
       <c r="L129" s="4">
-        <v>12580796116.31516</v>
+        <v>95950486638.53259</v>
       </c>
       <c r="M129" s="4">
         <v>0</v>
@@ -7645,7 +7633,7 @@
         <v>0</v>
       </c>
       <c r="P129" s="4">
-        <v>3.105855941772461</v>
+        <v>14.26852416992188</v>
       </c>
       <c r="Q129" s="8">
         <v>0</v>
@@ -7665,28 +7653,28 @@
         <v>135</v>
       </c>
       <c r="E130" s="4">
-        <v>122</v>
+        <v>14</v>
       </c>
       <c r="F130" s="4">
-        <v>2761308004</v>
+        <v>13650</v>
       </c>
       <c r="G130" s="4">
-        <v>69415000000</v>
+        <v>462000</v>
       </c>
       <c r="H130" s="4">
-        <v>10402212285.38851</v>
+        <v>210324.6436604</v>
       </c>
       <c r="I130" s="4">
-        <v>122</v>
+        <v>14</v>
       </c>
       <c r="J130" s="4">
-        <v>2761308004</v>
+        <v>13650</v>
       </c>
       <c r="K130" s="4">
-        <v>69415000000</v>
+        <v>462000</v>
       </c>
       <c r="L130" s="4">
-        <v>10402212285.44675</v>
+        <v>210324.1334568</v>
       </c>
       <c r="M130" s="4">
         <v>0</v>
@@ -7698,7 +7686,7 @@
         <v>0</v>
       </c>
       <c r="P130" s="4">
-        <v>-0.05823898315429688</v>
+        <v>0.5102036000171211</v>
       </c>
       <c r="Q130" s="8">
         <v>0</v>
@@ -7710,7 +7698,7 @@
         <v>0</v>
       </c>
       <c r="T130" s="8">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="4:20">
@@ -7718,52 +7706,52 @@
         <v>136</v>
       </c>
       <c r="E131" s="4">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="F131" s="4">
-        <v>32750</v>
+        <v>0</v>
       </c>
       <c r="G131" s="4">
-        <v>665000</v>
+        <v>0</v>
       </c>
       <c r="H131" s="4">
-        <v>156142.741174</v>
+        <v>0</v>
       </c>
       <c r="I131" s="4">
-        <v>13</v>
+        <v>38861</v>
       </c>
       <c r="J131" s="4">
-        <v>32750</v>
+        <v>749661021937.7465</v>
       </c>
       <c r="K131" s="4">
-        <v>665000</v>
+        <v>14867187146017</v>
       </c>
       <c r="L131" s="4">
-        <v>156143.18049</v>
+        <v>675536132111.6976</v>
       </c>
       <c r="M131" s="4">
-        <v>0</v>
+        <v>-38861</v>
       </c>
       <c r="N131" s="4">
-        <v>0</v>
+        <v>-749661021937.7465</v>
       </c>
       <c r="O131" s="4">
-        <v>0</v>
+        <v>-14867187146017</v>
       </c>
       <c r="P131" s="4">
-        <v>-0.4393160000036005</v>
+        <v>-675536132111.6976</v>
       </c>
       <c r="Q131" s="8">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R131" s="8">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S131" s="8">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="T131" s="8">
-        <v>-0</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="132" spans="4:20">
@@ -7771,28 +7759,28 @@
         <v>137</v>
       </c>
       <c r="E132" s="4">
-        <v>176</v>
+        <v>22</v>
       </c>
       <c r="F132" s="4">
-        <v>11879200012</v>
+        <v>88300000</v>
       </c>
       <c r="G132" s="4">
-        <v>85565000000</v>
+        <v>5075000000</v>
       </c>
       <c r="H132" s="4">
-        <v>23542689928.30033</v>
+        <v>413385170.146046</v>
       </c>
       <c r="I132" s="4">
-        <v>176</v>
+        <v>22</v>
       </c>
       <c r="J132" s="4">
-        <v>11879200012</v>
+        <v>88300000</v>
       </c>
       <c r="K132" s="4">
-        <v>85565000000</v>
+        <v>5075000000</v>
       </c>
       <c r="L132" s="4">
-        <v>23542689923.20346</v>
+        <v>413385171.193835</v>
       </c>
       <c r="M132" s="4">
         <v>0</v>
@@ -7804,7 +7792,7 @@
         <v>0</v>
       </c>
       <c r="P132" s="4">
-        <v>5.096870422363281</v>
+        <v>-1.047789037227631</v>
       </c>
       <c r="Q132" s="8">
         <v>0</v>
@@ -7816,7 +7804,7 @@
         <v>0</v>
       </c>
       <c r="T132" s="8">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="133" spans="4:20">
@@ -7824,52 +7812,52 @@
         <v>138</v>
       </c>
       <c r="E133" s="4">
-        <v>2100</v>
+        <v>47</v>
       </c>
       <c r="F133" s="4">
-        <v>10942799984</v>
+        <v>9886705.640000001</v>
       </c>
       <c r="G133" s="4">
-        <v>314414200040</v>
+        <v>21480000</v>
       </c>
       <c r="H133" s="4">
-        <v>95950486652.80112</v>
+        <v>12164231</v>
       </c>
       <c r="I133" s="4">
-        <v>2100</v>
+        <v>43</v>
       </c>
       <c r="J133" s="4">
-        <v>10942799984</v>
+        <v>9162252.640000001</v>
       </c>
       <c r="K133" s="4">
-        <v>314414200040</v>
+        <v>20180000</v>
       </c>
       <c r="L133" s="4">
-        <v>95950486638.53259</v>
+        <v>11330070.6871</v>
       </c>
       <c r="M133" s="4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N133" s="4">
-        <v>0</v>
+        <v>724453</v>
       </c>
       <c r="O133" s="4">
-        <v>0</v>
+        <v>1300000</v>
       </c>
       <c r="P133" s="4">
-        <v>14.26852416992188</v>
+        <v>834160.3128999993</v>
       </c>
       <c r="Q133" s="8">
-        <v>0</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="R133" s="8">
-        <v>0</v>
+        <v>7.9</v>
       </c>
       <c r="S133" s="8">
-        <v>0</v>
+        <v>6.4</v>
       </c>
       <c r="T133" s="8">
-        <v>0</v>
+        <v>7.4</v>
       </c>
     </row>
     <row r="134" spans="4:20">
@@ -7877,28 +7865,28 @@
         <v>139</v>
       </c>
       <c r="E134" s="4">
-        <v>14</v>
+        <v>123</v>
       </c>
       <c r="F134" s="4">
-        <v>13650</v>
+        <v>1001199996</v>
       </c>
       <c r="G134" s="4">
-        <v>462000</v>
+        <v>36435000000</v>
       </c>
       <c r="H134" s="4">
-        <v>210324.6436604</v>
+        <v>2959131279.061201</v>
       </c>
       <c r="I134" s="4">
-        <v>14</v>
+        <v>123</v>
       </c>
       <c r="J134" s="4">
-        <v>13650</v>
+        <v>1001199996</v>
       </c>
       <c r="K134" s="4">
-        <v>462000</v>
+        <v>36435000000</v>
       </c>
       <c r="L134" s="4">
-        <v>210324.1334568</v>
+        <v>2959131276.193776</v>
       </c>
       <c r="M134" s="4">
         <v>0</v>
@@ -7910,7 +7898,7 @@
         <v>0</v>
       </c>
       <c r="P134" s="4">
-        <v>0.5102036000171211</v>
+        <v>2.867424964904785</v>
       </c>
       <c r="Q134" s="8">
         <v>0</v>
@@ -7930,52 +7918,52 @@
         <v>140</v>
       </c>
       <c r="E135" s="4">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F135" s="4">
-        <v>0</v>
+        <v>425000000</v>
       </c>
       <c r="G135" s="4">
-        <v>0</v>
+        <v>4250000000</v>
       </c>
       <c r="H135" s="4">
-        <v>0</v>
+        <v>599140978</v>
       </c>
       <c r="I135" s="4">
-        <v>38861</v>
+        <v>7</v>
       </c>
       <c r="J135" s="4">
-        <v>749661021937.7465</v>
+        <v>425000000</v>
       </c>
       <c r="K135" s="4">
-        <v>14867187146017</v>
+        <v>4250000000</v>
       </c>
       <c r="L135" s="4">
-        <v>675536132111.6976</v>
+        <v>599140978.9923249</v>
       </c>
       <c r="M135" s="4">
-        <v>-38861</v>
+        <v>0</v>
       </c>
       <c r="N135" s="4">
-        <v>-749661021937.7465</v>
+        <v>0</v>
       </c>
       <c r="O135" s="4">
-        <v>-14867187146017</v>
+        <v>0</v>
       </c>
       <c r="P135" s="4">
-        <v>-675536132111.6976</v>
+        <v>-0.9923249483108521</v>
       </c>
       <c r="Q135" s="8">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R135" s="8">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S135" s="8">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T135" s="8">
-        <v>-100</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="136" spans="4:20">
@@ -7983,28 +7971,28 @@
         <v>141</v>
       </c>
       <c r="E136" s="4">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="F136" s="4">
-        <v>88300000</v>
+        <v>7500</v>
       </c>
       <c r="G136" s="4">
-        <v>5075000000</v>
+        <v>210000</v>
       </c>
       <c r="H136" s="4">
-        <v>413385170.146046</v>
+        <v>13198</v>
       </c>
       <c r="I136" s="4">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="J136" s="4">
-        <v>88300000</v>
+        <v>7500</v>
       </c>
       <c r="K136" s="4">
-        <v>5075000000</v>
+        <v>210000</v>
       </c>
       <c r="L136" s="4">
-        <v>413385171.193835</v>
+        <v>13198.71757230894</v>
       </c>
       <c r="M136" s="4">
         <v>0</v>
@@ -8016,7 +8004,7 @@
         <v>0</v>
       </c>
       <c r="P136" s="4">
-        <v>-1.047789037227631</v>
+        <v>-0.7175723089403618</v>
       </c>
       <c r="Q136" s="8">
         <v>0</v>
@@ -8036,52 +8024,52 @@
         <v>142</v>
       </c>
       <c r="E137" s="4">
-        <v>47</v>
+        <v>4</v>
       </c>
       <c r="F137" s="4">
-        <v>9886705.640000001</v>
+        <v>225000000</v>
       </c>
       <c r="G137" s="4">
-        <v>21480000</v>
+        <v>1950000000</v>
       </c>
       <c r="H137" s="4">
-        <v>12164231</v>
+        <v>619161755</v>
       </c>
       <c r="I137" s="4">
-        <v>43</v>
+        <v>4</v>
       </c>
       <c r="J137" s="4">
-        <v>9162252.640000001</v>
+        <v>225000000</v>
       </c>
       <c r="K137" s="4">
-        <v>20180000</v>
+        <v>1950000000</v>
       </c>
       <c r="L137" s="4">
-        <v>11330070.6871</v>
+        <v>619161755.423327</v>
       </c>
       <c r="M137" s="4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N137" s="4">
-        <v>724453</v>
+        <v>0</v>
       </c>
       <c r="O137" s="4">
-        <v>1300000</v>
+        <v>0</v>
       </c>
       <c r="P137" s="4">
-        <v>834160.3128999993</v>
+        <v>-0.4233269691467285</v>
       </c>
       <c r="Q137" s="8">
-        <v>9.300000000000001</v>
+        <v>0</v>
       </c>
       <c r="R137" s="8">
-        <v>7.9</v>
+        <v>0</v>
       </c>
       <c r="S137" s="8">
-        <v>6.4</v>
+        <v>0</v>
       </c>
       <c r="T137" s="8">
-        <v>7.4</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="138" spans="4:20">
@@ -8089,28 +8077,28 @@
         <v>143</v>
       </c>
       <c r="E138" s="4">
-        <v>123</v>
+        <v>2268</v>
       </c>
       <c r="F138" s="4">
-        <v>1001199996</v>
+        <v>153644591097</v>
       </c>
       <c r="G138" s="4">
-        <v>36435000000</v>
+        <v>2056968000001</v>
       </c>
       <c r="H138" s="4">
-        <v>2959131279.061201</v>
+        <v>335424024200.2858</v>
       </c>
       <c r="I138" s="4">
-        <v>123</v>
+        <v>2268</v>
       </c>
       <c r="J138" s="4">
-        <v>1001199996</v>
+        <v>153644591097</v>
       </c>
       <c r="K138" s="4">
-        <v>36435000000</v>
+        <v>2056968000001</v>
       </c>
       <c r="L138" s="4">
-        <v>2959131276.193776</v>
+        <v>335424024204.9677</v>
       </c>
       <c r="M138" s="4">
         <v>0</v>
@@ -8122,7 +8110,7 @@
         <v>0</v>
       </c>
       <c r="P138" s="4">
-        <v>2.867424964904785</v>
+        <v>-4.68182373046875</v>
       </c>
       <c r="Q138" s="8">
         <v>0</v>
@@ -8134,7 +8122,7 @@
         <v>0</v>
       </c>
       <c r="T138" s="8">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="139" spans="4:20">
@@ -8142,28 +8130,28 @@
         <v>144</v>
       </c>
       <c r="E139" s="4">
-        <v>7</v>
+        <v>195</v>
       </c>
       <c r="F139" s="4">
-        <v>425000000</v>
+        <v>1681000</v>
       </c>
       <c r="G139" s="4">
-        <v>4250000000</v>
+        <v>19581125</v>
       </c>
       <c r="H139" s="4">
-        <v>599140978</v>
+        <v>4428074.994933384</v>
       </c>
       <c r="I139" s="4">
-        <v>7</v>
+        <v>195</v>
       </c>
       <c r="J139" s="4">
-        <v>425000000</v>
+        <v>1681000</v>
       </c>
       <c r="K139" s="4">
-        <v>4250000000</v>
+        <v>19581125</v>
       </c>
       <c r="L139" s="4">
-        <v>599140978.9923249</v>
+        <v>4428077.679484239</v>
       </c>
       <c r="M139" s="4">
         <v>0</v>
@@ -8175,7 +8163,7 @@
         <v>0</v>
       </c>
       <c r="P139" s="4">
-        <v>-0.9923249483108521</v>
+        <v>-2.684550855308771</v>
       </c>
       <c r="Q139" s="8">
         <v>0</v>
@@ -8195,28 +8183,28 @@
         <v>145</v>
       </c>
       <c r="E140" s="4">
-        <v>3</v>
+        <v>145</v>
       </c>
       <c r="F140" s="4">
-        <v>7500</v>
+        <v>296100000</v>
       </c>
       <c r="G140" s="4">
-        <v>210000</v>
+        <v>10966500000</v>
       </c>
       <c r="H140" s="4">
-        <v>13198</v>
+        <v>4325659369.123914</v>
       </c>
       <c r="I140" s="4">
-        <v>3</v>
+        <v>145</v>
       </c>
       <c r="J140" s="4">
-        <v>7500</v>
+        <v>296100000</v>
       </c>
       <c r="K140" s="4">
-        <v>210000</v>
+        <v>10966500000</v>
       </c>
       <c r="L140" s="4">
-        <v>13198.71757230894</v>
+        <v>4325659368.193277</v>
       </c>
       <c r="M140" s="4">
         <v>0</v>
@@ -8228,7 +8216,7 @@
         <v>0</v>
       </c>
       <c r="P140" s="4">
-        <v>-0.7175723089403618</v>
+        <v>0.9306364059448242</v>
       </c>
       <c r="Q140" s="8">
         <v>0</v>
@@ -8240,7 +8228,7 @@
         <v>0</v>
       </c>
       <c r="T140" s="8">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="4:20">
@@ -8248,28 +8236,28 @@
         <v>146</v>
       </c>
       <c r="E141" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F141" s="4">
-        <v>225000000</v>
+        <v>225000</v>
       </c>
       <c r="G141" s="4">
-        <v>1950000000</v>
+        <v>450000</v>
       </c>
       <c r="H141" s="4">
-        <v>619161755</v>
+        <v>65829</v>
       </c>
       <c r="I141" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J141" s="4">
-        <v>225000000</v>
+        <v>225000</v>
       </c>
       <c r="K141" s="4">
-        <v>1950000000</v>
+        <v>450000</v>
       </c>
       <c r="L141" s="4">
-        <v>619161755.423327</v>
+        <v>65829.029178</v>
       </c>
       <c r="M141" s="4">
         <v>0</v>
@@ -8281,7 +8269,7 @@
         <v>0</v>
       </c>
       <c r="P141" s="4">
-        <v>-0.4233269691467285</v>
+        <v>-0.02917799999704584</v>
       </c>
       <c r="Q141" s="8">
         <v>0</v>
@@ -8301,28 +8289,28 @@
         <v>147</v>
       </c>
       <c r="E142" s="4">
-        <v>2268</v>
+        <v>63</v>
       </c>
       <c r="F142" s="4">
-        <v>153644591097</v>
+        <v>339700000</v>
       </c>
       <c r="G142" s="4">
-        <v>2056968000001</v>
+        <v>20073000000</v>
       </c>
       <c r="H142" s="4">
-        <v>335424024200.2858</v>
+        <v>2479949930.248397</v>
       </c>
       <c r="I142" s="4">
-        <v>2268</v>
+        <v>63</v>
       </c>
       <c r="J142" s="4">
-        <v>153644591097</v>
+        <v>339700000</v>
       </c>
       <c r="K142" s="4">
-        <v>2056968000001</v>
+        <v>20073000000</v>
       </c>
       <c r="L142" s="4">
-        <v>335424024204.9677</v>
+        <v>2479949930.6094</v>
       </c>
       <c r="M142" s="4">
         <v>0</v>
@@ -8334,7 +8322,7 @@
         <v>0</v>
       </c>
       <c r="P142" s="4">
-        <v>-4.68182373046875</v>
+        <v>-0.3610029220581055</v>
       </c>
       <c r="Q142" s="8">
         <v>0</v>
@@ -8354,28 +8342,28 @@
         <v>148</v>
       </c>
       <c r="E143" s="4">
-        <v>195</v>
+        <v>1194</v>
       </c>
       <c r="F143" s="4">
-        <v>1681000</v>
+        <v>6690693572</v>
       </c>
       <c r="G143" s="4">
-        <v>19581125</v>
+        <v>147250093700</v>
       </c>
       <c r="H143" s="4">
-        <v>4428074.994933384</v>
+        <v>44884387196.38605</v>
       </c>
       <c r="I143" s="4">
-        <v>195</v>
+        <v>1194</v>
       </c>
       <c r="J143" s="4">
-        <v>1681000</v>
+        <v>6690693572</v>
       </c>
       <c r="K143" s="4">
-        <v>19581125</v>
+        <v>147250093700</v>
       </c>
       <c r="L143" s="4">
-        <v>4428077.679484239</v>
+        <v>44884387200.34906</v>
       </c>
       <c r="M143" s="4">
         <v>0</v>
@@ -8387,7 +8375,7 @@
         <v>0</v>
       </c>
       <c r="P143" s="4">
-        <v>-2.684550855308771</v>
+        <v>-3.9630126953125</v>
       </c>
       <c r="Q143" s="8">
         <v>0</v>
@@ -8407,28 +8395,28 @@
         <v>149</v>
       </c>
       <c r="E144" s="4">
-        <v>145</v>
+        <v>88</v>
       </c>
       <c r="F144" s="4">
-        <v>296100000</v>
+        <v>1726999996</v>
       </c>
       <c r="G144" s="4">
-        <v>10966500000</v>
+        <v>41348500000</v>
       </c>
       <c r="H144" s="4">
-        <v>4325659369.123914</v>
+        <v>5503152634.028619</v>
       </c>
       <c r="I144" s="4">
-        <v>145</v>
+        <v>88</v>
       </c>
       <c r="J144" s="4">
-        <v>296100000</v>
+        <v>1726999996</v>
       </c>
       <c r="K144" s="4">
-        <v>10966500000</v>
+        <v>41348500000</v>
       </c>
       <c r="L144" s="4">
-        <v>4325659368.193277</v>
+        <v>5503152635.543262</v>
       </c>
       <c r="M144" s="4">
         <v>0</v>
@@ -8440,7 +8428,7 @@
         <v>0</v>
       </c>
       <c r="P144" s="4">
-        <v>0.9306364059448242</v>
+        <v>-1.514642715454102</v>
       </c>
       <c r="Q144" s="8">
         <v>0</v>
@@ -8452,7 +8440,7 @@
         <v>0</v>
       </c>
       <c r="T144" s="8">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="145" spans="4:20">
@@ -8460,28 +8448,28 @@
         <v>150</v>
       </c>
       <c r="E145" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F145" s="4">
-        <v>225000</v>
+        <v>17500</v>
       </c>
       <c r="G145" s="4">
-        <v>450000</v>
+        <v>180500</v>
       </c>
       <c r="H145" s="4">
-        <v>65829</v>
+        <v>31946.7136568</v>
       </c>
       <c r="I145" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J145" s="4">
-        <v>225000</v>
+        <v>17500</v>
       </c>
       <c r="K145" s="4">
-        <v>450000</v>
+        <v>180500</v>
       </c>
       <c r="L145" s="4">
-        <v>65829.029178</v>
+        <v>31946.8783392</v>
       </c>
       <c r="M145" s="4">
         <v>0</v>
@@ -8493,7 +8481,7 @@
         <v>0</v>
       </c>
       <c r="P145" s="4">
-        <v>-0.02917799999704584</v>
+        <v>-0.1646824000017659</v>
       </c>
       <c r="Q145" s="8">
         <v>0</v>
@@ -8513,28 +8501,28 @@
         <v>151</v>
       </c>
       <c r="E146" s="4">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="F146" s="4">
-        <v>339700000</v>
+        <v>4590300000</v>
       </c>
       <c r="G146" s="4">
-        <v>20073000000</v>
+        <v>7430875000</v>
       </c>
       <c r="H146" s="4">
-        <v>2479949930.248397</v>
+        <v>7652757926.915057</v>
       </c>
       <c r="I146" s="4">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="J146" s="4">
-        <v>339700000</v>
+        <v>4590300000</v>
       </c>
       <c r="K146" s="4">
-        <v>20073000000</v>
+        <v>7430875000</v>
       </c>
       <c r="L146" s="4">
-        <v>2479949930.6094</v>
+        <v>7652757929.007576</v>
       </c>
       <c r="M146" s="4">
         <v>0</v>
@@ -8546,7 +8534,7 @@
         <v>0</v>
       </c>
       <c r="P146" s="4">
-        <v>-0.3610029220581055</v>
+        <v>-2.09251880645752</v>
       </c>
       <c r="Q146" s="8">
         <v>0</v>
@@ -8566,28 +8554,28 @@
         <v>152</v>
       </c>
       <c r="E147" s="4">
-        <v>1194</v>
+        <v>16</v>
       </c>
       <c r="F147" s="4">
-        <v>6690693572</v>
+        <v>167650</v>
       </c>
       <c r="G147" s="4">
-        <v>147250093700</v>
+        <v>227925</v>
       </c>
       <c r="H147" s="4">
-        <v>44884387196.38605</v>
+        <v>413080.9777928</v>
       </c>
       <c r="I147" s="4">
-        <v>1194</v>
+        <v>16</v>
       </c>
       <c r="J147" s="4">
-        <v>6690693572</v>
+        <v>167650</v>
       </c>
       <c r="K147" s="4">
-        <v>147250093700</v>
+        <v>227925</v>
       </c>
       <c r="L147" s="4">
-        <v>44884387200.34906</v>
+        <v>413080.9480116</v>
       </c>
       <c r="M147" s="4">
         <v>0</v>
@@ -8599,7 +8587,7 @@
         <v>0</v>
       </c>
       <c r="P147" s="4">
-        <v>-3.9630126953125</v>
+        <v>0.02978119999170303</v>
       </c>
       <c r="Q147" s="8">
         <v>0</v>
@@ -8611,7 +8599,7 @@
         <v>0</v>
       </c>
       <c r="T147" s="8">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="4:20">
@@ -8619,28 +8607,28 @@
         <v>153</v>
       </c>
       <c r="E148" s="4">
-        <v>88</v>
+        <v>543</v>
       </c>
       <c r="F148" s="4">
-        <v>1726999996</v>
+        <v>25966183030</v>
       </c>
       <c r="G148" s="4">
-        <v>41348500000</v>
+        <v>39172884023</v>
       </c>
       <c r="H148" s="4">
-        <v>5503152634.028619</v>
+        <v>24385776397.54791</v>
       </c>
       <c r="I148" s="4">
-        <v>88</v>
+        <v>543</v>
       </c>
       <c r="J148" s="4">
-        <v>1726999996</v>
+        <v>25966183030</v>
       </c>
       <c r="K148" s="4">
-        <v>41348500000</v>
+        <v>39172884023</v>
       </c>
       <c r="L148" s="4">
-        <v>5503152635.543262</v>
+        <v>24385776401.90359</v>
       </c>
       <c r="M148" s="4">
         <v>0</v>
@@ -8652,7 +8640,7 @@
         <v>0</v>
       </c>
       <c r="P148" s="4">
-        <v>-1.514642715454102</v>
+        <v>-4.355682373046875</v>
       </c>
       <c r="Q148" s="8">
         <v>0</v>
@@ -8672,28 +8660,28 @@
         <v>154</v>
       </c>
       <c r="E149" s="4">
-        <v>5</v>
+        <v>66</v>
       </c>
       <c r="F149" s="4">
-        <v>17500</v>
+        <v>526900</v>
       </c>
       <c r="G149" s="4">
-        <v>180500</v>
+        <v>695325</v>
       </c>
       <c r="H149" s="4">
-        <v>31946.7136568</v>
+        <v>644414.9417756</v>
       </c>
       <c r="I149" s="4">
-        <v>5</v>
+        <v>66</v>
       </c>
       <c r="J149" s="4">
-        <v>17500</v>
+        <v>526900</v>
       </c>
       <c r="K149" s="4">
-        <v>180500</v>
+        <v>695325</v>
       </c>
       <c r="L149" s="4">
-        <v>31946.8783392</v>
+        <v>644416.494744</v>
       </c>
       <c r="M149" s="4">
         <v>0</v>
@@ -8705,7 +8693,7 @@
         <v>0</v>
       </c>
       <c r="P149" s="4">
-        <v>-0.1646824000017659</v>
+        <v>-1.552968400064856</v>
       </c>
       <c r="Q149" s="8">
         <v>0</v>
@@ -8725,28 +8713,28 @@
         <v>155</v>
       </c>
       <c r="E150" s="4">
-        <v>82</v>
+        <v>7</v>
       </c>
       <c r="F150" s="4">
-        <v>4590300000</v>
+        <v>22000000</v>
       </c>
       <c r="G150" s="4">
-        <v>7430875000</v>
+        <v>550000000</v>
       </c>
       <c r="H150" s="4">
-        <v>7652757926.915057</v>
+        <v>310278277.413785</v>
       </c>
       <c r="I150" s="4">
-        <v>82</v>
+        <v>7</v>
       </c>
       <c r="J150" s="4">
-        <v>4590300000</v>
+        <v>22000000</v>
       </c>
       <c r="K150" s="4">
-        <v>7430875000</v>
+        <v>550000000</v>
       </c>
       <c r="L150" s="4">
-        <v>7652757929.007576</v>
+        <v>310278276.867402</v>
       </c>
       <c r="M150" s="4">
         <v>0</v>
@@ -8758,7 +8746,7 @@
         <v>0</v>
       </c>
       <c r="P150" s="4">
-        <v>-2.09251880645752</v>
+        <v>0.5463829636573792</v>
       </c>
       <c r="Q150" s="8">
         <v>0</v>
@@ -8770,7 +8758,7 @@
         <v>0</v>
       </c>
       <c r="T150" s="8">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="4:20">
@@ -8778,28 +8766,28 @@
         <v>156</v>
       </c>
       <c r="E151" s="4">
-        <v>16</v>
+        <v>218</v>
       </c>
       <c r="F151" s="4">
-        <v>167650</v>
+        <v>11060951652</v>
       </c>
       <c r="G151" s="4">
-        <v>227925</v>
+        <v>20515050000</v>
       </c>
       <c r="H151" s="4">
-        <v>413080.9777928</v>
+        <v>10621929056.70466</v>
       </c>
       <c r="I151" s="4">
-        <v>16</v>
+        <v>218</v>
       </c>
       <c r="J151" s="4">
-        <v>167650</v>
+        <v>11060951652</v>
       </c>
       <c r="K151" s="4">
-        <v>227925</v>
+        <v>20515050000</v>
       </c>
       <c r="L151" s="4">
-        <v>413080.9480116</v>
+        <v>10621929059.35362</v>
       </c>
       <c r="M151" s="4">
         <v>0</v>
@@ -8811,7 +8799,7 @@
         <v>0</v>
       </c>
       <c r="P151" s="4">
-        <v>0.02978119999170303</v>
+        <v>-2.648956298828125</v>
       </c>
       <c r="Q151" s="8">
         <v>0</v>
@@ -8823,7 +8811,7 @@
         <v>0</v>
       </c>
       <c r="T151" s="8">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="152" spans="4:20">
@@ -8831,28 +8819,28 @@
         <v>157</v>
       </c>
       <c r="E152" s="4">
-        <v>543</v>
+        <v>39</v>
       </c>
       <c r="F152" s="4">
-        <v>25966183030</v>
+        <v>639500</v>
       </c>
       <c r="G152" s="4">
-        <v>39172884023</v>
+        <v>1153750</v>
       </c>
       <c r="H152" s="4">
-        <v>24385776397.54791</v>
+        <v>708720.3608964001</v>
       </c>
       <c r="I152" s="4">
-        <v>543</v>
+        <v>39</v>
       </c>
       <c r="J152" s="4">
-        <v>25966183030</v>
+        <v>639500</v>
       </c>
       <c r="K152" s="4">
-        <v>39172884023</v>
+        <v>1153750</v>
       </c>
       <c r="L152" s="4">
-        <v>24385776401.90359</v>
+        <v>708717.6736332</v>
       </c>
       <c r="M152" s="4">
         <v>0</v>
@@ -8864,7 +8852,7 @@
         <v>0</v>
       </c>
       <c r="P152" s="4">
-        <v>-4.355682373046875</v>
+        <v>2.687263200059533</v>
       </c>
       <c r="Q152" s="8">
         <v>0</v>
@@ -8876,7 +8864,7 @@
         <v>0</v>
       </c>
       <c r="T152" s="8">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="4:20">
@@ -8884,28 +8872,28 @@
         <v>158</v>
       </c>
       <c r="E153" s="4">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="F153" s="4">
-        <v>526900</v>
+        <v>274000000</v>
       </c>
       <c r="G153" s="4">
-        <v>695325</v>
+        <v>9160000000</v>
       </c>
       <c r="H153" s="4">
-        <v>644414.9417756</v>
+        <v>3415683027.727575</v>
       </c>
       <c r="I153" s="4">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="J153" s="4">
-        <v>526900</v>
+        <v>274000000</v>
       </c>
       <c r="K153" s="4">
-        <v>695325</v>
+        <v>9160000000</v>
       </c>
       <c r="L153" s="4">
-        <v>644416.494744</v>
+        <v>3415683023.809613</v>
       </c>
       <c r="M153" s="4">
         <v>0</v>
@@ -8917,7 +8905,7 @@
         <v>0</v>
       </c>
       <c r="P153" s="4">
-        <v>-1.552968400064856</v>
+        <v>3.917961597442627</v>
       </c>
       <c r="Q153" s="8">
         <v>0</v>
@@ -8929,7 +8917,7 @@
         <v>0</v>
       </c>
       <c r="T153" s="8">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="4:20">
@@ -8937,28 +8925,28 @@
         <v>159</v>
       </c>
       <c r="E154" s="4">
-        <v>7</v>
+        <v>159</v>
       </c>
       <c r="F154" s="4">
-        <v>22000000</v>
+        <v>2445000000</v>
       </c>
       <c r="G154" s="4">
-        <v>550000000</v>
+        <v>3056250000</v>
       </c>
       <c r="H154" s="4">
-        <v>310278277.413785</v>
+        <v>26366765585.8746</v>
       </c>
       <c r="I154" s="4">
-        <v>7</v>
+        <v>159</v>
       </c>
       <c r="J154" s="4">
-        <v>22000000</v>
+        <v>2445000000</v>
       </c>
       <c r="K154" s="4">
-        <v>550000000</v>
+        <v>3056250000</v>
       </c>
       <c r="L154" s="4">
-        <v>310278276.867402</v>
+        <v>26366765581.0442</v>
       </c>
       <c r="M154" s="4">
         <v>0</v>
@@ -8970,7 +8958,7 @@
         <v>0</v>
       </c>
       <c r="P154" s="4">
-        <v>0.5463829636573792</v>
+        <v>4.830402374267578</v>
       </c>
       <c r="Q154" s="8">
         <v>0</v>
@@ -8990,28 +8978,28 @@
         <v>160</v>
       </c>
       <c r="E155" s="4">
-        <v>218</v>
+        <v>4</v>
       </c>
       <c r="F155" s="4">
-        <v>11060951652</v>
+        <v>500000000</v>
       </c>
       <c r="G155" s="4">
-        <v>20515050000</v>
+        <v>625000000</v>
       </c>
       <c r="H155" s="4">
-        <v>10621929056.70466</v>
+        <v>577093355.61796</v>
       </c>
       <c r="I155" s="4">
-        <v>218</v>
+        <v>4</v>
       </c>
       <c r="J155" s="4">
-        <v>11060951652</v>
+        <v>500000000</v>
       </c>
       <c r="K155" s="4">
-        <v>20515050000</v>
+        <v>625000000</v>
       </c>
       <c r="L155" s="4">
-        <v>10621929059.35362</v>
+        <v>577093355.836518</v>
       </c>
       <c r="M155" s="4">
         <v>0</v>
@@ -9023,7 +9011,7 @@
         <v>0</v>
       </c>
       <c r="P155" s="4">
-        <v>-2.648956298828125</v>
+        <v>-0.2185580730438232</v>
       </c>
       <c r="Q155" s="8">
         <v>0</v>
@@ -9043,28 +9031,28 @@
         <v>161</v>
       </c>
       <c r="E156" s="4">
-        <v>39</v>
+        <v>2599</v>
       </c>
       <c r="F156" s="4">
-        <v>639500</v>
+        <v>14185347591.998</v>
       </c>
       <c r="G156" s="4">
-        <v>1153750</v>
+        <v>593306500000</v>
       </c>
       <c r="H156" s="4">
-        <v>708720.3608964001</v>
+        <v>109550361789.6051</v>
       </c>
       <c r="I156" s="4">
-        <v>39</v>
+        <v>2599</v>
       </c>
       <c r="J156" s="4">
-        <v>639500</v>
+        <v>14185347591.998</v>
       </c>
       <c r="K156" s="4">
-        <v>1153750</v>
+        <v>593306500000</v>
       </c>
       <c r="L156" s="4">
-        <v>708717.6736332</v>
+        <v>109550361788.8706</v>
       </c>
       <c r="M156" s="4">
         <v>0</v>
@@ -9076,7 +9064,7 @@
         <v>0</v>
       </c>
       <c r="P156" s="4">
-        <v>2.687263200059533</v>
+        <v>0.734527587890625</v>
       </c>
       <c r="Q156" s="8">
         <v>0</v>
@@ -9096,28 +9084,28 @@
         <v>162</v>
       </c>
       <c r="E157" s="4">
-        <v>71</v>
+        <v>28</v>
       </c>
       <c r="F157" s="4">
-        <v>274000000</v>
+        <v>53761</v>
       </c>
       <c r="G157" s="4">
-        <v>9160000000</v>
+        <v>1038500</v>
       </c>
       <c r="H157" s="4">
-        <v>3415683027.727575</v>
+        <v>657178.5099216</v>
       </c>
       <c r="I157" s="4">
-        <v>71</v>
+        <v>28</v>
       </c>
       <c r="J157" s="4">
-        <v>274000000</v>
+        <v>53761</v>
       </c>
       <c r="K157" s="4">
-        <v>9160000000</v>
+        <v>1038500</v>
       </c>
       <c r="L157" s="4">
-        <v>3415683023.809613</v>
+        <v>657180.2038296</v>
       </c>
       <c r="M157" s="4">
         <v>0</v>
@@ -9129,7 +9117,7 @@
         <v>0</v>
       </c>
       <c r="P157" s="4">
-        <v>3.917961597442627</v>
+        <v>-1.693908000015654</v>
       </c>
       <c r="Q157" s="8">
         <v>0</v>
@@ -9141,7 +9129,7 @@
         <v>0</v>
       </c>
       <c r="T157" s="8">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="158" spans="4:20">
@@ -9149,28 +9137,28 @@
         <v>163</v>
       </c>
       <c r="E158" s="4">
-        <v>159</v>
+        <v>4511</v>
       </c>
       <c r="F158" s="4">
-        <v>2445000000</v>
+        <v>23186589441.9184</v>
       </c>
       <c r="G158" s="4">
-        <v>3056250000</v>
+        <v>743215350000</v>
       </c>
       <c r="H158" s="4">
-        <v>26366765585.8746</v>
+        <v>182639947412.8904</v>
       </c>
       <c r="I158" s="4">
-        <v>159</v>
+        <v>4511</v>
       </c>
       <c r="J158" s="4">
-        <v>2445000000</v>
+        <v>23186589441.9184</v>
       </c>
       <c r="K158" s="4">
-        <v>3056250000</v>
+        <v>743215350000</v>
       </c>
       <c r="L158" s="4">
-        <v>26366765581.0442</v>
+        <v>182639947425.9054</v>
       </c>
       <c r="M158" s="4">
         <v>0</v>
@@ -9182,7 +9170,7 @@
         <v>0</v>
       </c>
       <c r="P158" s="4">
-        <v>4.830402374267578</v>
+        <v>-13.01495361328125</v>
       </c>
       <c r="Q158" s="8">
         <v>0</v>
@@ -9194,7 +9182,7 @@
         <v>0</v>
       </c>
       <c r="T158" s="8">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="159" spans="4:20">
@@ -9202,28 +9190,28 @@
         <v>164</v>
       </c>
       <c r="E159" s="4">
-        <v>4</v>
+        <v>62</v>
       </c>
       <c r="F159" s="4">
-        <v>500000000</v>
+        <v>133450</v>
       </c>
       <c r="G159" s="4">
-        <v>625000000</v>
+        <v>2185500</v>
       </c>
       <c r="H159" s="4">
-        <v>577093355.61796</v>
+        <v>1040049.557534</v>
       </c>
       <c r="I159" s="4">
-        <v>4</v>
+        <v>62</v>
       </c>
       <c r="J159" s="4">
-        <v>500000000</v>
+        <v>133450</v>
       </c>
       <c r="K159" s="4">
-        <v>625000000</v>
+        <v>2185500</v>
       </c>
       <c r="L159" s="4">
-        <v>577093355.836518</v>
+        <v>1040046.484422</v>
       </c>
       <c r="M159" s="4">
         <v>0</v>
@@ -9235,7 +9223,7 @@
         <v>0</v>
       </c>
       <c r="P159" s="4">
-        <v>-0.2185580730438232</v>
+        <v>3.07311200001277</v>
       </c>
       <c r="Q159" s="8">
         <v>0</v>
@@ -9247,7 +9235,7 @@
         <v>0</v>
       </c>
       <c r="T159" s="8">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="4:20">
@@ -9255,28 +9243,28 @@
         <v>165</v>
       </c>
       <c r="E160" s="4">
-        <v>2599</v>
+        <v>75001</v>
       </c>
       <c r="F160" s="4">
-        <v>14185347591.998</v>
+        <v>1442471730688</v>
       </c>
       <c r="G160" s="4">
-        <v>593306500000</v>
+        <v>18745045268012</v>
       </c>
       <c r="H160" s="4">
-        <v>109550361789.6051</v>
+        <v>183078181360.4753</v>
       </c>
       <c r="I160" s="4">
-        <v>2599</v>
+        <v>75001</v>
       </c>
       <c r="J160" s="4">
-        <v>14185347591.998</v>
+        <v>1442471730688</v>
       </c>
       <c r="K160" s="4">
-        <v>593306500000</v>
+        <v>18745045268012</v>
       </c>
       <c r="L160" s="4">
-        <v>109550361788.8706</v>
+        <v>183078181253.1608</v>
       </c>
       <c r="M160" s="4">
         <v>0</v>
@@ -9288,7 +9276,7 @@
         <v>0</v>
       </c>
       <c r="P160" s="4">
-        <v>0.734527587890625</v>
+        <v>107.314453125</v>
       </c>
       <c r="Q160" s="8">
         <v>0</v>
@@ -9308,28 +9296,28 @@
         <v>166</v>
       </c>
       <c r="E161" s="4">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="F161" s="4">
-        <v>53761</v>
+        <v>42240000</v>
       </c>
       <c r="G161" s="4">
-        <v>1038500</v>
+        <v>1056000000</v>
       </c>
       <c r="H161" s="4">
-        <v>657178.5099216</v>
+        <v>913848887.006247</v>
       </c>
       <c r="I161" s="4">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="J161" s="4">
-        <v>53761</v>
+        <v>42240000</v>
       </c>
       <c r="K161" s="4">
-        <v>1038500</v>
+        <v>1056000000</v>
       </c>
       <c r="L161" s="4">
-        <v>657180.2038296</v>
+        <v>913848887.64156</v>
       </c>
       <c r="M161" s="4">
         <v>0</v>
@@ -9341,7 +9329,7 @@
         <v>0</v>
       </c>
       <c r="P161" s="4">
-        <v>-1.693908000015654</v>
+        <v>-0.6353129148483276</v>
       </c>
       <c r="Q161" s="8">
         <v>0</v>
@@ -9361,28 +9349,28 @@
         <v>167</v>
       </c>
       <c r="E162" s="4">
-        <v>4511</v>
+        <v>16</v>
       </c>
       <c r="F162" s="4">
-        <v>23186589441.9184</v>
+        <v>14640000</v>
       </c>
       <c r="G162" s="4">
-        <v>743215350000</v>
+        <v>366000000</v>
       </c>
       <c r="H162" s="4">
-        <v>182639947412.8904</v>
+        <v>906301443.941144</v>
       </c>
       <c r="I162" s="4">
-        <v>4511</v>
+        <v>16</v>
       </c>
       <c r="J162" s="4">
-        <v>23186589441.9184</v>
+        <v>14640000</v>
       </c>
       <c r="K162" s="4">
-        <v>743215350000</v>
+        <v>366000000</v>
       </c>
       <c r="L162" s="4">
-        <v>182639947425.9054</v>
+        <v>906301443.829131</v>
       </c>
       <c r="M162" s="4">
         <v>0</v>
@@ -9394,7 +9382,7 @@
         <v>0</v>
       </c>
       <c r="P162" s="4">
-        <v>-13.01495361328125</v>
+        <v>0.1120129823684692</v>
       </c>
       <c r="Q162" s="8">
         <v>0</v>
@@ -9406,7 +9394,7 @@
         <v>0</v>
       </c>
       <c r="T162" s="8">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="4:20">
@@ -9414,28 +9402,28 @@
         <v>168</v>
       </c>
       <c r="E163" s="4">
-        <v>62</v>
+        <v>179215</v>
       </c>
       <c r="F163" s="4">
-        <v>133450</v>
+        <v>2017455250334.58</v>
       </c>
       <c r="G163" s="4">
-        <v>2185500</v>
+        <v>64693412580494</v>
       </c>
       <c r="H163" s="4">
-        <v>1040049.557534</v>
+        <v>3978605812330.028</v>
       </c>
       <c r="I163" s="4">
-        <v>62</v>
+        <v>179215</v>
       </c>
       <c r="J163" s="4">
-        <v>133450</v>
+        <v>2017455250334.58</v>
       </c>
       <c r="K163" s="4">
-        <v>2185500</v>
+        <v>64693412580494</v>
       </c>
       <c r="L163" s="4">
-        <v>1040046.484422</v>
+        <v>3978605812375.585</v>
       </c>
       <c r="M163" s="4">
         <v>0</v>
@@ -9447,7 +9435,7 @@
         <v>0</v>
       </c>
       <c r="P163" s="4">
-        <v>3.07311200001277</v>
+        <v>-45.55712890625</v>
       </c>
       <c r="Q163" s="8">
         <v>0</v>
@@ -9459,7 +9447,7 @@
         <v>0</v>
       </c>
       <c r="T163" s="8">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="164" spans="4:20">
@@ -9467,28 +9455,28 @@
         <v>169</v>
       </c>
       <c r="E164" s="4">
-        <v>75001</v>
+        <v>67</v>
       </c>
       <c r="F164" s="4">
-        <v>1442471730688</v>
+        <v>356600000</v>
       </c>
       <c r="G164" s="4">
-        <v>18745045268012</v>
+        <v>9660000000</v>
       </c>
       <c r="H164" s="4">
-        <v>183078181360.4753</v>
+        <v>4367269118.901207</v>
       </c>
       <c r="I164" s="4">
-        <v>75001</v>
+        <v>67</v>
       </c>
       <c r="J164" s="4">
-        <v>1442471730688</v>
+        <v>356600000</v>
       </c>
       <c r="K164" s="4">
-        <v>18745045268012</v>
+        <v>9660000000</v>
       </c>
       <c r="L164" s="4">
-        <v>183078181253.1608</v>
+        <v>4367269119.686494</v>
       </c>
       <c r="M164" s="4">
         <v>0</v>
@@ -9500,7 +9488,7 @@
         <v>0</v>
       </c>
       <c r="P164" s="4">
-        <v>107.314453125</v>
+        <v>-0.7852869033813477</v>
       </c>
       <c r="Q164" s="8">
         <v>0</v>
@@ -9512,7 +9500,7 @@
         <v>0</v>
       </c>
       <c r="T164" s="8">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="165" spans="4:20">
@@ -9520,28 +9508,28 @@
         <v>170</v>
       </c>
       <c r="E165" s="4">
-        <v>42</v>
+        <v>315</v>
       </c>
       <c r="F165" s="4">
-        <v>42240000</v>
+        <v>4977100003.9992</v>
       </c>
       <c r="G165" s="4">
-        <v>1056000000</v>
+        <v>109805000000</v>
       </c>
       <c r="H165" s="4">
-        <v>913848887.006247</v>
+        <v>24909999385.04802</v>
       </c>
       <c r="I165" s="4">
-        <v>42</v>
+        <v>315</v>
       </c>
       <c r="J165" s="4">
-        <v>42240000</v>
+        <v>4977100003.9992</v>
       </c>
       <c r="K165" s="4">
-        <v>1056000000</v>
+        <v>109805000000</v>
       </c>
       <c r="L165" s="4">
-        <v>913848887.64156</v>
+        <v>24909999391.65245</v>
       </c>
       <c r="M165" s="4">
         <v>0</v>
@@ -9553,7 +9541,7 @@
         <v>0</v>
       </c>
       <c r="P165" s="4">
-        <v>-0.6353129148483276</v>
+        <v>-6.604423522949219</v>
       </c>
       <c r="Q165" s="8">
         <v>0</v>
@@ -9573,28 +9561,28 @@
         <v>171</v>
       </c>
       <c r="E166" s="4">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F166" s="4">
-        <v>14640000</v>
+        <v>69700</v>
       </c>
       <c r="G166" s="4">
-        <v>366000000</v>
+        <v>903500</v>
       </c>
       <c r="H166" s="4">
-        <v>906301443.941144</v>
+        <v>163479.9394276</v>
       </c>
       <c r="I166" s="4">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="J166" s="4">
-        <v>14640000</v>
+        <v>69700</v>
       </c>
       <c r="K166" s="4">
-        <v>366000000</v>
+        <v>903500</v>
       </c>
       <c r="L166" s="4">
-        <v>906301443.829131</v>
+        <v>163479.7542576</v>
       </c>
       <c r="M166" s="4">
         <v>0</v>
@@ -9606,7 +9594,7 @@
         <v>0</v>
       </c>
       <c r="P166" s="4">
-        <v>0.1120129823684692</v>
+        <v>0.185170000011567</v>
       </c>
       <c r="Q166" s="8">
         <v>0</v>
@@ -9626,28 +9614,28 @@
         <v>172</v>
       </c>
       <c r="E167" s="4">
-        <v>179215</v>
+        <v>253</v>
       </c>
       <c r="F167" s="4">
-        <v>2017455250334.58</v>
+        <v>7005749996</v>
       </c>
       <c r="G167" s="4">
-        <v>64693412580494</v>
+        <v>80633500000</v>
       </c>
       <c r="H167" s="4">
-        <v>3978605812330.028</v>
+        <v>22388190728.926</v>
       </c>
       <c r="I167" s="4">
-        <v>179215</v>
+        <v>253</v>
       </c>
       <c r="J167" s="4">
-        <v>2017455250334.58</v>
+        <v>7005749996</v>
       </c>
       <c r="K167" s="4">
-        <v>64693412580494</v>
+        <v>80633500000</v>
       </c>
       <c r="L167" s="4">
-        <v>3978605812375.585</v>
+        <v>22388190725.00634</v>
       </c>
       <c r="M167" s="4">
         <v>0</v>
@@ -9659,7 +9647,7 @@
         <v>0</v>
       </c>
       <c r="P167" s="4">
-        <v>-45.55712890625</v>
+        <v>3.919658660888672</v>
       </c>
       <c r="Q167" s="8">
         <v>0</v>
@@ -9671,7 +9659,7 @@
         <v>0</v>
       </c>
       <c r="T167" s="8">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="4:20">
@@ -9679,52 +9667,52 @@
         <v>173</v>
       </c>
       <c r="E168" s="4">
-        <v>67</v>
+        <v>5</v>
       </c>
       <c r="F168" s="4">
-        <v>356600000</v>
+        <v>273575.75</v>
       </c>
       <c r="G168" s="4">
-        <v>9660000000</v>
+        <v>1525000</v>
       </c>
       <c r="H168" s="4">
-        <v>4367269118.901207</v>
+        <v>310409</v>
       </c>
       <c r="I168" s="4">
-        <v>67</v>
+        <v>9</v>
       </c>
       <c r="J168" s="4">
-        <v>356600000</v>
+        <v>998028.75</v>
       </c>
       <c r="K168" s="4">
-        <v>9660000000</v>
+        <v>2825000</v>
       </c>
       <c r="L168" s="4">
-        <v>4367269119.686494</v>
+        <v>1144566.4543</v>
       </c>
       <c r="M168" s="4">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="N168" s="4">
-        <v>0</v>
+        <v>-724453</v>
       </c>
       <c r="O168" s="4">
-        <v>0</v>
+        <v>-1300000</v>
       </c>
       <c r="P168" s="4">
-        <v>-0.7852869033813477</v>
+        <v>-834157.4543000001</v>
       </c>
       <c r="Q168" s="8">
-        <v>0</v>
+        <v>-44.4</v>
       </c>
       <c r="R168" s="8">
-        <v>0</v>
+        <v>-72.59999999999999</v>
       </c>
       <c r="S168" s="8">
-        <v>0</v>
+        <v>-46</v>
       </c>
       <c r="T168" s="8">
-        <v>-0</v>
+        <v>-72.90000000000001</v>
       </c>
     </row>
     <row r="169" spans="4:20">
@@ -9732,28 +9720,28 @@
         <v>174</v>
       </c>
       <c r="E169" s="4">
-        <v>315</v>
+        <v>869</v>
       </c>
       <c r="F169" s="4">
-        <v>4977100003.9992</v>
+        <v>6452571992</v>
       </c>
       <c r="G169" s="4">
-        <v>109805000000</v>
+        <v>339859650000</v>
       </c>
       <c r="H169" s="4">
-        <v>24909999385.04802</v>
+        <v>18327749423.77486</v>
       </c>
       <c r="I169" s="4">
-        <v>315</v>
+        <v>869</v>
       </c>
       <c r="J169" s="4">
-        <v>4977100003.9992</v>
+        <v>6452571992</v>
       </c>
       <c r="K169" s="4">
-        <v>109805000000</v>
+        <v>339859650000</v>
       </c>
       <c r="L169" s="4">
-        <v>24909999391.65245</v>
+        <v>18327749405.46212</v>
       </c>
       <c r="M169" s="4">
         <v>0</v>
@@ -9765,7 +9753,7 @@
         <v>0</v>
       </c>
       <c r="P169" s="4">
-        <v>-6.604423522949219</v>
+        <v>18.3127326965332</v>
       </c>
       <c r="Q169" s="8">
         <v>0</v>
@@ -9777,7 +9765,7 @@
         <v>0</v>
       </c>
       <c r="T169" s="8">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="4:20">
@@ -9785,28 +9773,28 @@
         <v>175</v>
       </c>
       <c r="E170" s="4">
-        <v>23</v>
+        <v>78</v>
       </c>
       <c r="F170" s="4">
-        <v>69700</v>
+        <v>885112008.08</v>
       </c>
       <c r="G170" s="4">
-        <v>903500</v>
+        <v>39300000000</v>
       </c>
       <c r="H170" s="4">
-        <v>163479.9394276</v>
+        <v>5603125884.859913</v>
       </c>
       <c r="I170" s="4">
-        <v>23</v>
+        <v>78</v>
       </c>
       <c r="J170" s="4">
-        <v>69700</v>
+        <v>885112008.08</v>
       </c>
       <c r="K170" s="4">
-        <v>903500</v>
+        <v>39300000000</v>
       </c>
       <c r="L170" s="4">
-        <v>163479.7542576</v>
+        <v>5603125885.478964</v>
       </c>
       <c r="M170" s="4">
         <v>0</v>
@@ -9818,7 +9806,7 @@
         <v>0</v>
       </c>
       <c r="P170" s="4">
-        <v>0.185170000011567</v>
+        <v>-0.6190509796142578</v>
       </c>
       <c r="Q170" s="8">
         <v>0</v>
@@ -9830,7 +9818,7 @@
         <v>0</v>
       </c>
       <c r="T170" s="8">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="171" spans="4:20">
@@ -9838,28 +9826,28 @@
         <v>176</v>
       </c>
       <c r="E171" s="4">
-        <v>253</v>
+        <v>103</v>
       </c>
       <c r="F171" s="4">
-        <v>7005749996</v>
+        <v>4521000000</v>
       </c>
       <c r="G171" s="4">
-        <v>80633500000</v>
+        <v>37075000000</v>
       </c>
       <c r="H171" s="4">
-        <v>22388190728.926</v>
+        <v>12640180771.58662</v>
       </c>
       <c r="I171" s="4">
-        <v>253</v>
+        <v>103</v>
       </c>
       <c r="J171" s="4">
-        <v>7005749996</v>
+        <v>4521000000</v>
       </c>
       <c r="K171" s="4">
-        <v>80633500000</v>
+        <v>37075000000</v>
       </c>
       <c r="L171" s="4">
-        <v>22388190725.00634</v>
+        <v>12640180767.95267</v>
       </c>
       <c r="M171" s="4">
         <v>0</v>
@@ -9871,7 +9859,7 @@
         <v>0</v>
       </c>
       <c r="P171" s="4">
-        <v>3.919658660888672</v>
+        <v>3.633953094482422</v>
       </c>
       <c r="Q171" s="8">
         <v>0</v>
@@ -9891,52 +9879,52 @@
         <v>177</v>
       </c>
       <c r="E172" s="4">
-        <v>5</v>
+        <v>176</v>
       </c>
       <c r="F172" s="4">
-        <v>273575.75</v>
+        <v>761559996</v>
       </c>
       <c r="G172" s="4">
-        <v>1525000</v>
+        <v>24321000000</v>
       </c>
       <c r="H172" s="4">
-        <v>310409</v>
+        <v>7873781297.997171</v>
       </c>
       <c r="I172" s="4">
-        <v>9</v>
+        <v>176</v>
       </c>
       <c r="J172" s="4">
-        <v>998028.75</v>
+        <v>761559996</v>
       </c>
       <c r="K172" s="4">
-        <v>2825000</v>
+        <v>24321000000</v>
       </c>
       <c r="L172" s="4">
-        <v>1144566.4543</v>
+        <v>7873781299.299619</v>
       </c>
       <c r="M172" s="4">
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="N172" s="4">
-        <v>-724453</v>
+        <v>0</v>
       </c>
       <c r="O172" s="4">
-        <v>-1300000</v>
+        <v>0</v>
       </c>
       <c r="P172" s="4">
-        <v>-834157.4543000001</v>
+        <v>-1.302447319030762</v>
       </c>
       <c r="Q172" s="8">
-        <v>-44.4</v>
+        <v>0</v>
       </c>
       <c r="R172" s="8">
-        <v>-72.59999999999999</v>
+        <v>0</v>
       </c>
       <c r="S172" s="8">
-        <v>-46</v>
+        <v>0</v>
       </c>
       <c r="T172" s="8">
-        <v>-72.90000000000001</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="173" spans="4:20">
@@ -9944,28 +9932,28 @@
         <v>178</v>
       </c>
       <c r="E173" s="4">
-        <v>869</v>
+        <v>3</v>
       </c>
       <c r="F173" s="4">
-        <v>6452571992</v>
+        <v>2700</v>
       </c>
       <c r="G173" s="4">
-        <v>339859650000</v>
+        <v>45000</v>
       </c>
       <c r="H173" s="4">
-        <v>18327749423.77486</v>
+        <v>34586.8108024</v>
       </c>
       <c r="I173" s="4">
-        <v>869</v>
+        <v>3</v>
       </c>
       <c r="J173" s="4">
-        <v>6452571992</v>
+        <v>2700</v>
       </c>
       <c r="K173" s="4">
-        <v>339859650000</v>
+        <v>45000</v>
       </c>
       <c r="L173" s="4">
-        <v>18327749405.46212</v>
+        <v>34586.6005584</v>
       </c>
       <c r="M173" s="4">
         <v>0</v>
@@ -9977,7 +9965,7 @@
         <v>0</v>
       </c>
       <c r="P173" s="4">
-        <v>18.3127326965332</v>
+        <v>0.2102440000016941</v>
       </c>
       <c r="Q173" s="8">
         <v>0</v>
@@ -9997,28 +9985,28 @@
         <v>179</v>
       </c>
       <c r="E174" s="4">
-        <v>78</v>
+        <v>1483</v>
       </c>
       <c r="F174" s="4">
-        <v>885112008.08</v>
+        <v>70548872680</v>
       </c>
       <c r="G174" s="4">
-        <v>39300000000</v>
+        <v>993764999999</v>
       </c>
       <c r="H174" s="4">
-        <v>5603125884.859913</v>
+        <v>121781478354.8832</v>
       </c>
       <c r="I174" s="4">
-        <v>78</v>
+        <v>1483</v>
       </c>
       <c r="J174" s="4">
-        <v>885112008.08</v>
+        <v>70548872680</v>
       </c>
       <c r="K174" s="4">
-        <v>39300000000</v>
+        <v>993764999999</v>
       </c>
       <c r="L174" s="4">
-        <v>5603125885.478964</v>
+        <v>121781478355.3026</v>
       </c>
       <c r="M174" s="4">
         <v>0</v>
@@ -10030,7 +10018,7 @@
         <v>0</v>
       </c>
       <c r="P174" s="4">
-        <v>-0.6190509796142578</v>
+        <v>-0.4193267822265625</v>
       </c>
       <c r="Q174" s="8">
         <v>0</v>
@@ -10050,28 +10038,28 @@
         <v>180</v>
       </c>
       <c r="E175" s="4">
-        <v>103</v>
+        <v>16</v>
       </c>
       <c r="F175" s="4">
-        <v>4521000000</v>
+        <v>320000000</v>
       </c>
       <c r="G175" s="4">
-        <v>37075000000</v>
+        <v>900000000</v>
       </c>
       <c r="H175" s="4">
-        <v>12640180771.58662</v>
+        <v>771251276.539551</v>
       </c>
       <c r="I175" s="4">
-        <v>103</v>
+        <v>16</v>
       </c>
       <c r="J175" s="4">
-        <v>4521000000</v>
+        <v>320000000</v>
       </c>
       <c r="K175" s="4">
-        <v>37075000000</v>
+        <v>900000000</v>
       </c>
       <c r="L175" s="4">
-        <v>12640180767.95267</v>
+        <v>771251275.9182971</v>
       </c>
       <c r="M175" s="4">
         <v>0</v>
@@ -10083,7 +10071,7 @@
         <v>0</v>
       </c>
       <c r="P175" s="4">
-        <v>3.633953094482422</v>
+        <v>0.6212539672851562</v>
       </c>
       <c r="Q175" s="8">
         <v>0</v>
@@ -10103,28 +10091,28 @@
         <v>181</v>
       </c>
       <c r="E176" s="4">
-        <v>176</v>
+        <v>16</v>
       </c>
       <c r="F176" s="4">
-        <v>761559996</v>
+        <v>320000000</v>
       </c>
       <c r="G176" s="4">
-        <v>24321000000</v>
+        <v>1450000000</v>
       </c>
       <c r="H176" s="4">
-        <v>7873781297.997171</v>
+        <v>1533572695.544925</v>
       </c>
       <c r="I176" s="4">
-        <v>176</v>
+        <v>16</v>
       </c>
       <c r="J176" s="4">
-        <v>761559996</v>
+        <v>320000000</v>
       </c>
       <c r="K176" s="4">
-        <v>24321000000</v>
+        <v>1450000000</v>
       </c>
       <c r="L176" s="4">
-        <v>7873781299.299619</v>
+        <v>1533572696.129728</v>
       </c>
       <c r="M176" s="4">
         <v>0</v>
@@ -10136,7 +10124,7 @@
         <v>0</v>
       </c>
       <c r="P176" s="4">
-        <v>-1.302447319030762</v>
+        <v>-0.5848031044006348</v>
       </c>
       <c r="Q176" s="8">
         <v>0</v>
@@ -10156,28 +10144,28 @@
         <v>182</v>
       </c>
       <c r="E177" s="4">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F177" s="4">
-        <v>2700</v>
+        <v>140000000</v>
       </c>
       <c r="G177" s="4">
-        <v>45000</v>
+        <v>500000000</v>
       </c>
       <c r="H177" s="4">
-        <v>34586.8108024</v>
+        <v>1860261009.795811</v>
       </c>
       <c r="I177" s="4">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J177" s="4">
-        <v>2700</v>
+        <v>140000000</v>
       </c>
       <c r="K177" s="4">
-        <v>45000</v>
+        <v>500000000</v>
       </c>
       <c r="L177" s="4">
-        <v>34586.6005584</v>
+        <v>1860261009.75623</v>
       </c>
       <c r="M177" s="4">
         <v>0</v>
@@ -10189,7 +10177,7 @@
         <v>0</v>
       </c>
       <c r="P177" s="4">
-        <v>0.2102440000016941</v>
+        <v>0.0395808219909668</v>
       </c>
       <c r="Q177" s="8">
         <v>0</v>
@@ -10209,28 +10197,28 @@
         <v>183</v>
       </c>
       <c r="E178" s="4">
-        <v>1483</v>
+        <v>165</v>
       </c>
       <c r="F178" s="4">
-        <v>70548872680</v>
+        <v>11889999996</v>
       </c>
       <c r="G178" s="4">
-        <v>993764999999</v>
+        <v>146175000000</v>
       </c>
       <c r="H178" s="4">
-        <v>121781478354.8832</v>
+        <v>25952044102.87074</v>
       </c>
       <c r="I178" s="4">
-        <v>1483</v>
+        <v>165</v>
       </c>
       <c r="J178" s="4">
-        <v>70548872680</v>
+        <v>11889999996</v>
       </c>
       <c r="K178" s="4">
-        <v>993764999999</v>
+        <v>146175000000</v>
       </c>
       <c r="L178" s="4">
-        <v>121781478355.3026</v>
+        <v>25952044100.73414</v>
       </c>
       <c r="M178" s="4">
         <v>0</v>
@@ -10242,7 +10230,7 @@
         <v>0</v>
       </c>
       <c r="P178" s="4">
-        <v>-0.4193267822265625</v>
+        <v>2.136600494384766</v>
       </c>
       <c r="Q178" s="8">
         <v>0</v>
@@ -10254,7 +10242,7 @@
         <v>0</v>
       </c>
       <c r="T178" s="8">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="4:20">
@@ -10262,28 +10250,28 @@
         <v>184</v>
       </c>
       <c r="E179" s="4">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="F179" s="4">
-        <v>320000000</v>
+        <v>1000000000</v>
       </c>
       <c r="G179" s="4">
-        <v>900000000</v>
+        <v>1250000000</v>
       </c>
       <c r="H179" s="4">
-        <v>771251276.539551</v>
+        <v>5932405166.511505</v>
       </c>
       <c r="I179" s="4">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="J179" s="4">
-        <v>320000000</v>
+        <v>1000000000</v>
       </c>
       <c r="K179" s="4">
-        <v>900000000</v>
+        <v>1250000000</v>
       </c>
       <c r="L179" s="4">
-        <v>771251275.9182971</v>
+        <v>5932405166.901332</v>
       </c>
       <c r="M179" s="4">
         <v>0</v>
@@ -10295,7 +10283,7 @@
         <v>0</v>
       </c>
       <c r="P179" s="4">
-        <v>0.6212539672851562</v>
+        <v>-0.389826774597168</v>
       </c>
       <c r="Q179" s="8">
         <v>0</v>
@@ -10307,7 +10295,7 @@
         <v>0</v>
       </c>
       <c r="T179" s="8">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="180" spans="4:20">
@@ -10315,28 +10303,28 @@
         <v>185</v>
       </c>
       <c r="E180" s="4">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F180" s="4">
-        <v>320000000</v>
+        <v>360000000</v>
       </c>
       <c r="G180" s="4">
-        <v>1450000000</v>
+        <v>450000000</v>
       </c>
       <c r="H180" s="4">
-        <v>1533572695.544925</v>
+        <v>3436947014.499147</v>
       </c>
       <c r="I180" s="4">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J180" s="4">
-        <v>320000000</v>
+        <v>360000000</v>
       </c>
       <c r="K180" s="4">
-        <v>1450000000</v>
+        <v>450000000</v>
       </c>
       <c r="L180" s="4">
-        <v>1533572696.129728</v>
+        <v>3436947016.964534</v>
       </c>
       <c r="M180" s="4">
         <v>0</v>
@@ -10348,7 +10336,7 @@
         <v>0</v>
       </c>
       <c r="P180" s="4">
-        <v>-0.5848031044006348</v>
+        <v>-2.465386867523193</v>
       </c>
       <c r="Q180" s="8">
         <v>0</v>
@@ -10368,28 +10356,28 @@
         <v>186</v>
       </c>
       <c r="E181" s="4">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="F181" s="4">
-        <v>140000000</v>
+        <v>260000000</v>
       </c>
       <c r="G181" s="4">
-        <v>500000000</v>
+        <v>325000000</v>
       </c>
       <c r="H181" s="4">
-        <v>1860261009.795811</v>
+        <v>3155866810.93808</v>
       </c>
       <c r="I181" s="4">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="J181" s="4">
-        <v>140000000</v>
+        <v>260000000</v>
       </c>
       <c r="K181" s="4">
-        <v>500000000</v>
+        <v>325000000</v>
       </c>
       <c r="L181" s="4">
-        <v>1860261009.75623</v>
+        <v>3155866812.737237</v>
       </c>
       <c r="M181" s="4">
         <v>0</v>
@@ -10401,7 +10389,7 @@
         <v>0</v>
       </c>
       <c r="P181" s="4">
-        <v>0.0395808219909668</v>
+        <v>-1.79915714263916</v>
       </c>
       <c r="Q181" s="8">
         <v>0</v>
@@ -10413,7 +10401,7 @@
         <v>0</v>
       </c>
       <c r="T181" s="8">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="182" spans="4:20">
@@ -10421,28 +10409,28 @@
         <v>187</v>
       </c>
       <c r="E182" s="4">
-        <v>165</v>
+        <v>3</v>
       </c>
       <c r="F182" s="4">
-        <v>11889999996</v>
+        <v>18000000</v>
       </c>
       <c r="G182" s="4">
-        <v>146175000000</v>
+        <v>550000000</v>
       </c>
       <c r="H182" s="4">
-        <v>25952044102.87074</v>
+        <v>92473567.415161</v>
       </c>
       <c r="I182" s="4">
-        <v>165</v>
+        <v>3</v>
       </c>
       <c r="J182" s="4">
-        <v>11889999996</v>
+        <v>18000000</v>
       </c>
       <c r="K182" s="4">
-        <v>146175000000</v>
+        <v>550000000</v>
       </c>
       <c r="L182" s="4">
-        <v>25952044100.73414</v>
+        <v>92473566.68271101</v>
       </c>
       <c r="M182" s="4">
         <v>0</v>
@@ -10454,7 +10442,7 @@
         <v>0</v>
       </c>
       <c r="P182" s="4">
-        <v>2.136600494384766</v>
+        <v>0.7324499934911728</v>
       </c>
       <c r="Q182" s="8">
         <v>0</v>
@@ -10474,40 +10462,40 @@
         <v>188</v>
       </c>
       <c r="E183" s="4">
-        <v>50</v>
+        <v>4598</v>
       </c>
       <c r="F183" s="4">
-        <v>1000000000</v>
+        <v>27921572487.195</v>
       </c>
       <c r="G183" s="4">
-        <v>1250000000</v>
+        <v>13726000000</v>
       </c>
       <c r="H183" s="4">
-        <v>5932405166.511505</v>
+        <v>104343925307.7986</v>
       </c>
       <c r="I183" s="4">
-        <v>50</v>
+        <v>4598</v>
       </c>
       <c r="J183" s="4">
-        <v>1000000000</v>
+        <v>27921572487.1656</v>
       </c>
       <c r="K183" s="4">
-        <v>1250000000</v>
+        <v>13726000000</v>
       </c>
       <c r="L183" s="4">
-        <v>5932405166.901332</v>
+        <v>104343925307.5162</v>
       </c>
       <c r="M183" s="4">
         <v>0</v>
       </c>
       <c r="N183" s="4">
-        <v>0</v>
+        <v>0.02939987182617188</v>
       </c>
       <c r="O183" s="4">
         <v>0</v>
       </c>
       <c r="P183" s="4">
-        <v>-0.389826774597168</v>
+        <v>0.2823486328125</v>
       </c>
       <c r="Q183" s="8">
         <v>0</v>
@@ -10519,7 +10507,7 @@
         <v>0</v>
       </c>
       <c r="T183" s="8">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="4:20">
@@ -10527,28 +10515,28 @@
         <v>189</v>
       </c>
       <c r="E184" s="4">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="F184" s="4">
-        <v>360000000</v>
+        <v>33273</v>
       </c>
       <c r="G184" s="4">
-        <v>450000000</v>
+        <v>2450</v>
       </c>
       <c r="H184" s="4">
-        <v>3436947014.499147</v>
+        <v>21741.4937717</v>
       </c>
       <c r="I184" s="4">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="J184" s="4">
-        <v>360000000</v>
+        <v>33273</v>
       </c>
       <c r="K184" s="4">
-        <v>450000000</v>
+        <v>2450</v>
       </c>
       <c r="L184" s="4">
-        <v>3436947016.964534</v>
+        <v>21741.49377222757</v>
       </c>
       <c r="M184" s="4">
         <v>0</v>
@@ -10560,7 +10548,7 @@
         <v>0</v>
       </c>
       <c r="P184" s="4">
-        <v>-2.465386867523193</v>
+        <v>-5.275687726680189E-07</v>
       </c>
       <c r="Q184" s="8">
         <v>0</v>
@@ -10580,52 +10568,52 @@
         <v>190</v>
       </c>
       <c r="E185" s="4">
-        <v>13</v>
+        <v>77</v>
       </c>
       <c r="F185" s="4">
-        <v>260000000</v>
+        <v>3181003587.406419</v>
       </c>
       <c r="G185" s="4">
-        <v>325000000</v>
+        <v>376000000</v>
       </c>
       <c r="H185" s="4">
-        <v>3155866810.93808</v>
+        <v>4944587180.220449</v>
       </c>
       <c r="I185" s="4">
-        <v>13</v>
+        <v>84</v>
       </c>
       <c r="J185" s="4">
-        <v>260000000</v>
+        <v>3181003587.640117</v>
       </c>
       <c r="K185" s="4">
-        <v>325000000</v>
+        <v>411000000</v>
       </c>
       <c r="L185" s="4">
-        <v>3155866812.737237</v>
+        <v>4944587180.19984</v>
       </c>
       <c r="M185" s="4">
-        <v>0</v>
+        <v>-7</v>
       </c>
       <c r="N185" s="4">
-        <v>0</v>
+        <v>-0.2336978912353516</v>
       </c>
       <c r="O185" s="4">
-        <v>0</v>
+        <v>-35000000</v>
       </c>
       <c r="P185" s="4">
-        <v>-1.79915714263916</v>
+        <v>0.02060985565185547</v>
       </c>
       <c r="Q185" s="8">
-        <v>0</v>
+        <v>-8.300000000000001</v>
       </c>
       <c r="R185" s="8">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="S185" s="8">
-        <v>0</v>
+        <v>-8.5</v>
       </c>
       <c r="T185" s="8">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="4:20">
@@ -10636,25 +10624,25 @@
         <v>3</v>
       </c>
       <c r="F186" s="4">
-        <v>18000000</v>
+        <v>600000000</v>
       </c>
       <c r="G186" s="4">
-        <v>550000000</v>
+        <v>750000000</v>
       </c>
       <c r="H186" s="4">
-        <v>92473567.415161</v>
+        <v>1000037145</v>
       </c>
       <c r="I186" s="4">
         <v>3</v>
       </c>
       <c r="J186" s="4">
-        <v>18000000</v>
+        <v>600000000</v>
       </c>
       <c r="K186" s="4">
-        <v>550000000</v>
+        <v>750000000</v>
       </c>
       <c r="L186" s="4">
-        <v>92473566.68271101</v>
+        <v>1000037145.024217</v>
       </c>
       <c r="M186" s="4">
         <v>0</v>
@@ -10666,7 +10654,7 @@
         <v>0</v>
       </c>
       <c r="P186" s="4">
-        <v>0.7324499934911728</v>
+        <v>-0.02421700954437256</v>
       </c>
       <c r="Q186" s="8">
         <v>0</v>
@@ -10678,218 +10666,6 @@
         <v>0</v>
       </c>
       <c r="T186" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="187" spans="4:20">
-      <c r="D187" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="E187" s="4">
-        <v>4598</v>
-      </c>
-      <c r="F187" s="4">
-        <v>27921572487.195</v>
-      </c>
-      <c r="G187" s="4">
-        <v>13726000000</v>
-      </c>
-      <c r="H187" s="4">
-        <v>104343925307.7986</v>
-      </c>
-      <c r="I187" s="4">
-        <v>4598</v>
-      </c>
-      <c r="J187" s="4">
-        <v>27921572487.1656</v>
-      </c>
-      <c r="K187" s="4">
-        <v>13726000000</v>
-      </c>
-      <c r="L187" s="4">
-        <v>104343925307.5162</v>
-      </c>
-      <c r="M187" s="4">
-        <v>0</v>
-      </c>
-      <c r="N187" s="4">
-        <v>0.02939987182617188</v>
-      </c>
-      <c r="O187" s="4">
-        <v>0</v>
-      </c>
-      <c r="P187" s="4">
-        <v>0.2823486328125</v>
-      </c>
-      <c r="Q187" s="8">
-        <v>0</v>
-      </c>
-      <c r="R187" s="8">
-        <v>0</v>
-      </c>
-      <c r="S187" s="8">
-        <v>0</v>
-      </c>
-      <c r="T187" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="188" spans="4:20">
-      <c r="D188" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="E188" s="4">
-        <v>7</v>
-      </c>
-      <c r="F188" s="4">
-        <v>33273</v>
-      </c>
-      <c r="G188" s="4">
-        <v>2450</v>
-      </c>
-      <c r="H188" s="4">
-        <v>21741.4937717</v>
-      </c>
-      <c r="I188" s="4">
-        <v>7</v>
-      </c>
-      <c r="J188" s="4">
-        <v>33273</v>
-      </c>
-      <c r="K188" s="4">
-        <v>2450</v>
-      </c>
-      <c r="L188" s="4">
-        <v>21741.49377222757</v>
-      </c>
-      <c r="M188" s="4">
-        <v>0</v>
-      </c>
-      <c r="N188" s="4">
-        <v>0</v>
-      </c>
-      <c r="O188" s="4">
-        <v>0</v>
-      </c>
-      <c r="P188" s="4">
-        <v>-5.275687726680189E-07</v>
-      </c>
-      <c r="Q188" s="8">
-        <v>0</v>
-      </c>
-      <c r="R188" s="8">
-        <v>0</v>
-      </c>
-      <c r="S188" s="8">
-        <v>0</v>
-      </c>
-      <c r="T188" s="8">
-        <v>-0</v>
-      </c>
-    </row>
-    <row r="189" spans="4:20">
-      <c r="D189" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="E189" s="4">
-        <v>77</v>
-      </c>
-      <c r="F189" s="4">
-        <v>3181003587.406419</v>
-      </c>
-      <c r="G189" s="4">
-        <v>376000000</v>
-      </c>
-      <c r="H189" s="4">
-        <v>4944587180.220449</v>
-      </c>
-      <c r="I189" s="4">
-        <v>84</v>
-      </c>
-      <c r="J189" s="4">
-        <v>3181003587.640117</v>
-      </c>
-      <c r="K189" s="4">
-        <v>411000000</v>
-      </c>
-      <c r="L189" s="4">
-        <v>4944587180.19984</v>
-      </c>
-      <c r="M189" s="4">
-        <v>-7</v>
-      </c>
-      <c r="N189" s="4">
-        <v>-0.2336978912353516</v>
-      </c>
-      <c r="O189" s="4">
-        <v>-35000000</v>
-      </c>
-      <c r="P189" s="4">
-        <v>0.02060985565185547</v>
-      </c>
-      <c r="Q189" s="8">
-        <v>-8.300000000000001</v>
-      </c>
-      <c r="R189" s="8">
-        <v>-0</v>
-      </c>
-      <c r="S189" s="8">
-        <v>-8.5</v>
-      </c>
-      <c r="T189" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="190" spans="4:20">
-      <c r="D190" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="E190" s="4">
-        <v>3</v>
-      </c>
-      <c r="F190" s="4">
-        <v>600000000</v>
-      </c>
-      <c r="G190" s="4">
-        <v>750000000</v>
-      </c>
-      <c r="H190" s="4">
-        <v>1000037145</v>
-      </c>
-      <c r="I190" s="4">
-        <v>3</v>
-      </c>
-      <c r="J190" s="4">
-        <v>600000000</v>
-      </c>
-      <c r="K190" s="4">
-        <v>750000000</v>
-      </c>
-      <c r="L190" s="4">
-        <v>1000037145.024217</v>
-      </c>
-      <c r="M190" s="4">
-        <v>0</v>
-      </c>
-      <c r="N190" s="4">
-        <v>0</v>
-      </c>
-      <c r="O190" s="4">
-        <v>0</v>
-      </c>
-      <c r="P190" s="4">
-        <v>-0.02421700954437256</v>
-      </c>
-      <c r="Q190" s="8">
-        <v>0</v>
-      </c>
-      <c r="R190" s="8">
-        <v>0</v>
-      </c>
-      <c r="S190" s="8">
-        <v>0</v>
-      </c>
-      <c r="T190" s="8">
         <v>-0</v>
       </c>
     </row>
